--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF19638-DC3D-4452-84B9-33AC4F4DF8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7591CD-6DBA-4538-B173-A2DA084862A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="825" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="405" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -6472,8 +6472,8 @@
   <dimension ref="A1:AE450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q347" sqref="Q347"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U144" sqref="U144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16646,7 +16646,7 @@
         <v>60</v>
       </c>
       <c r="U120">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="V120">
         <v>3</v>
@@ -16738,7 +16738,7 @@
         <v>60</v>
       </c>
       <c r="U121">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="V121">
         <v>3</v>
@@ -17750,7 +17750,7 @@
         <v>60</v>
       </c>
       <c r="U132">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="V132">
         <v>3</v>
@@ -17841,7 +17841,7 @@
         <v>60</v>
       </c>
       <c r="U133">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="V133">
         <v>3</v>
@@ -18024,7 +18024,7 @@
         <v>15</v>
       </c>
       <c r="U135">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="V135">
         <v>34</v>
@@ -31101,7 +31101,7 @@
         <v>9999</v>
       </c>
       <c r="P290" s="18">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q290" s="18">
         <v>1</v>
@@ -31198,7 +31198,7 @@
         <v>1</v>
       </c>
       <c r="Q291" s="18">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R291" s="18">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7591CD-6DBA-4538-B173-A2DA084862A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED2641-5DC7-41B6-A1DC-35A2AAA9921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="405" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="885" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5559" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5571" uniqueCount="773">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -6011,6 +6011,14 @@
   </si>
   <si>
     <t>a_IceBox</t>
+  </si>
+  <si>
+    <t>tea_Failed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6469,11 +6477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
-  <dimension ref="A1:AE450"/>
+  <dimension ref="A1:AE451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U144" sqref="U144"/>
+      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6589,7 +6597,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A440" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A441" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -7237,7 +7245,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" ref="A9:A433" si="1">ROW()-2</f>
+        <f t="shared" ref="A9:A434" si="1">ROW()-2</f>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -42036,117 +42044,115 @@
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
+      <c r="B417" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C417" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D417" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E417" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F417" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G417" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H417" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="J417" s="2">
+        <v>1</v>
+      </c>
+      <c r="K417" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L417" s="2">
+        <v>1</v>
+      </c>
+      <c r="M417" s="18">
+        <v>1</v>
+      </c>
+      <c r="N417" s="18">
+        <v>1</v>
+      </c>
+      <c r="O417" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P417" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q417" s="18">
+        <v>4</v>
+      </c>
+      <c r="R417" s="18">
+        <v>1</v>
+      </c>
+      <c r="S417" s="2">
+        <v>0</v>
+      </c>
+      <c r="T417">
+        <v>30</v>
+      </c>
+      <c r="U417">
+        <v>70</v>
+      </c>
+      <c r="V417">
+        <v>60</v>
+      </c>
+      <c r="W417" s="5"/>
+      <c r="X417" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y417" s="7"/>
+      <c r="Z417" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA417">
+        <v>0</v>
+      </c>
+      <c r="AB417" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="AC417">
+        <v>0</v>
+      </c>
+      <c r="AD417">
+        <v>0</v>
+      </c>
+      <c r="AE417">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418">
-        <f t="shared" ref="A418:A423" si="63">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>416</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C418" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="D418" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="E418" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F418" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G418" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H418" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="J418" s="2">
-        <v>1</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L418" s="2">
-        <v>1</v>
-      </c>
-      <c r="M418" s="18">
-        <v>1</v>
-      </c>
-      <c r="N418" s="18">
-        <v>1</v>
-      </c>
-      <c r="O418" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P418" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q418" s="18">
-        <v>1</v>
-      </c>
-      <c r="R418" s="18">
-        <v>1</v>
-      </c>
-      <c r="S418" s="2">
-        <v>0</v>
-      </c>
-      <c r="T418">
-        <v>30</v>
-      </c>
-      <c r="U418">
-        <v>100</v>
-      </c>
-      <c r="V418">
-        <v>12</v>
-      </c>
-      <c r="W418" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="X418" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y418" s="7"/>
-      <c r="Z418" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA418">
-        <v>0</v>
-      </c>
-      <c r="AB418" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="AC418">
-        <v>1</v>
-      </c>
-      <c r="AD418">
-        <v>1</v>
-      </c>
-      <c r="AE418">
-        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="A419:A424" si="63">ROW()-2</f>
         <v>417</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>547</v>
+        <v>755</v>
       </c>
       <c r="C419" s="11" t="s">
         <v>549</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="E419" s="11" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="F419" s="11" t="s">
         <v>9</v>
@@ -42158,7 +42164,7 @@
         <v>9</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>547</v>
+        <v>755</v>
       </c>
       <c r="J419" s="2">
         <v>1</v>
@@ -42170,22 +42176,22 @@
         <v>1</v>
       </c>
       <c r="M419" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N419" s="18">
         <v>1</v>
       </c>
       <c r="O419" s="18">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="P419" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q419" s="18">
         <v>1</v>
       </c>
       <c r="R419" s="18">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="S419" s="2">
         <v>0</v>
@@ -42194,24 +42200,26 @@
         <v>30</v>
       </c>
       <c r="U419">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="V419">
         <v>12</v>
       </c>
-      <c r="W419" s="3"/>
+      <c r="W419" s="3" t="s">
+        <v>548</v>
+      </c>
       <c r="X419" s="7" t="s">
         <v>550</v>
       </c>
       <c r="Y419" s="7"/>
       <c r="Z419" s="5" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="AA419">
         <v>0</v>
       </c>
       <c r="AB419" s="2" t="s">
-        <v>547</v>
+        <v>755</v>
       </c>
       <c r="AC419">
         <v>1</v>
@@ -42229,29 +42237,29 @@
         <v>418</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="C420" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D420" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="E420" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F420" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G420" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H420" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I420" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D420" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E420" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F420" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G420" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="H420" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I420" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="J420" s="2">
         <v>1</v>
       </c>
@@ -42262,22 +42270,22 @@
         <v>1</v>
       </c>
       <c r="M420" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N420" s="18">
         <v>1</v>
       </c>
       <c r="O420" s="18">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="P420" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q420" s="18">
         <v>1</v>
       </c>
       <c r="R420" s="18">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="S420" s="2">
         <v>0</v>
@@ -42297,19 +42305,19 @@
       </c>
       <c r="Y420" s="7"/>
       <c r="Z420" s="5" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="AA420">
         <v>0</v>
       </c>
       <c r="AB420" s="2" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="AC420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE420">
         <v>0</v>
@@ -42321,13 +42329,13 @@
         <v>419</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="C421" s="11" t="s">
         <v>547</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E421" s="11" t="s">
         <v>9</v>
@@ -42336,13 +42344,13 @@
         <v>9</v>
       </c>
       <c r="G421" s="11" t="s">
-        <v>9</v>
+        <v>529</v>
       </c>
       <c r="H421" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="J421" s="2">
         <v>1</v>
@@ -42366,7 +42374,7 @@
         <v>1</v>
       </c>
       <c r="Q421" s="18">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="R421" s="18">
         <v>1</v>
@@ -42389,13 +42397,13 @@
       </c>
       <c r="Y421" s="7"/>
       <c r="Z421" s="5" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="AA421">
         <v>0</v>
       </c>
       <c r="AB421" s="2" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="AC421">
         <v>0</v>
@@ -42413,13 +42421,13 @@
         <v>420</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C422" s="11" t="s">
         <v>547</v>
       </c>
       <c r="D422" s="11" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E422" s="11" t="s">
         <v>9</v>
@@ -42428,7 +42436,7 @@
         <v>9</v>
       </c>
       <c r="G422" s="11" t="s">
-        <v>448</v>
+        <v>9</v>
       </c>
       <c r="H422" s="11" t="s">
         <v>9</v>
@@ -42504,123 +42512,121 @@
         <f t="shared" si="63"/>
         <v>421</v>
       </c>
-      <c r="B423" s="2"/>
-      <c r="C423" s="11"/>
-      <c r="D423" s="11"/>
-      <c r="E423" s="11"/>
-      <c r="F423" s="11"/>
-      <c r="G423" s="11"/>
-      <c r="H423" s="11"/>
-      <c r="I423" s="2"/>
-      <c r="J423" s="2"/>
-      <c r="K423" s="2"/>
-      <c r="L423" s="2"/>
-      <c r="M423" s="18"/>
-      <c r="N423" s="18"/>
-      <c r="O423" s="18"/>
-      <c r="P423" s="18"/>
-      <c r="Q423" s="18"/>
-      <c r="R423" s="18"/>
-      <c r="S423" s="2"/>
+      <c r="B423" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C423" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="D423" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F423" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G423" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H423" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J423" s="2">
+        <v>1</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L423" s="2">
+        <v>1</v>
+      </c>
+      <c r="M423" s="18">
+        <v>1</v>
+      </c>
+      <c r="N423" s="18">
+        <v>1</v>
+      </c>
+      <c r="O423" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P423" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q423" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="R423" s="18">
+        <v>1</v>
+      </c>
+      <c r="S423" s="2">
+        <v>0</v>
+      </c>
+      <c r="T423">
+        <v>30</v>
+      </c>
+      <c r="U423">
+        <v>95</v>
+      </c>
+      <c r="V423">
+        <v>12</v>
+      </c>
       <c r="W423" s="3"/>
-      <c r="X423" s="7"/>
+      <c r="X423" s="7" t="s">
+        <v>550</v>
+      </c>
       <c r="Y423" s="7"/>
-      <c r="Z423" s="5"/>
-      <c r="AB423" s="2"/>
+      <c r="Z423" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA423">
+        <v>0</v>
+      </c>
+      <c r="AB423" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC423">
+        <v>0</v>
+      </c>
+      <c r="AD423">
+        <v>0</v>
+      </c>
+      <c r="AE423">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424">
-        <f t="shared" si="1"/>
+        <f t="shared" si="63"/>
         <v>422</v>
       </c>
-      <c r="B424" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C424" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D424" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="E424" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F424" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G424" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H424" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I424" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J424" s="2">
-        <v>1</v>
-      </c>
-      <c r="K424" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L424" s="2">
-        <v>1</v>
-      </c>
-      <c r="M424" s="18">
-        <v>3</v>
-      </c>
-      <c r="N424" s="18">
-        <v>1</v>
-      </c>
-      <c r="O424" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P424" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q424" s="18">
-        <v>1</v>
-      </c>
-      <c r="R424" s="18">
-        <v>1</v>
-      </c>
-      <c r="S424" s="2">
-        <v>0</v>
-      </c>
-      <c r="T424">
-        <v>30</v>
-      </c>
-      <c r="U424">
-        <v>95</v>
-      </c>
-      <c r="V424">
-        <v>12</v>
-      </c>
-      <c r="W424" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="X424" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="B424" s="2"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="11"/>
+      <c r="F424" s="11"/>
+      <c r="G424" s="11"/>
+      <c r="H424" s="11"/>
+      <c r="I424" s="2"/>
+      <c r="J424" s="2"/>
+      <c r="K424" s="2"/>
+      <c r="L424" s="2"/>
+      <c r="M424" s="18"/>
+      <c r="N424" s="18"/>
+      <c r="O424" s="18"/>
+      <c r="P424" s="18"/>
+      <c r="Q424" s="18"/>
+      <c r="R424" s="18"/>
+      <c r="S424" s="2"/>
+      <c r="W424" s="3"/>
+      <c r="X424" s="7"/>
       <c r="Y424" s="7"/>
-      <c r="Z424" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA424">
-        <v>0</v>
-      </c>
-      <c r="AB424" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC424">
-        <v>1</v>
-      </c>
-      <c r="AD424">
-        <v>1</v>
-      </c>
-      <c r="AE424">
-        <v>0</v>
-      </c>
+      <c r="Z424" s="5"/>
+      <c r="AB424" s="2"/>
     </row>
     <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425">
@@ -42628,10 +42634,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D425" s="11" t="s">
         <v>766</v>
@@ -42649,7 +42655,7 @@
         <v>9</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="J425" s="2">
         <v>1</v>
@@ -42690,9 +42696,11 @@
       <c r="V425">
         <v>12</v>
       </c>
-      <c r="W425" s="3"/>
+      <c r="W425" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="X425" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y425" s="7"/>
       <c r="Z425" s="5" t="s">
@@ -42702,7 +42710,7 @@
         <v>0</v>
       </c>
       <c r="AB425" s="2" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="AC425">
         <v>1</v>
@@ -42720,10 +42728,10 @@
         <v>424</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>509</v>
+        <v>308</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="D426" s="11" t="s">
         <v>766</v>
@@ -42741,7 +42749,7 @@
         <v>9</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>509</v>
+        <v>308</v>
       </c>
       <c r="J426" s="2">
         <v>1</v>
@@ -42794,7 +42802,7 @@
         <v>0</v>
       </c>
       <c r="AB426" s="2" t="s">
-        <v>509</v>
+        <v>308</v>
       </c>
       <c r="AC426">
         <v>1</v>
@@ -42812,10 +42820,10 @@
         <v>425</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>667</v>
+        <v>509</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="D427" s="11" t="s">
         <v>766</v>
@@ -42824,7 +42832,7 @@
         <v>9</v>
       </c>
       <c r="F427" s="11" t="s">
-        <v>668</v>
+        <v>9</v>
       </c>
       <c r="G427" s="11" t="s">
         <v>9</v>
@@ -42889,7 +42897,7 @@
         <v>509</v>
       </c>
       <c r="AC427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD427">
         <v>1</v>
@@ -42904,10 +42912,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>490</v>
+        <v>667</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>766</v>
@@ -42916,7 +42924,7 @@
         <v>9</v>
       </c>
       <c r="F428" s="11" t="s">
-        <v>9</v>
+        <v>668</v>
       </c>
       <c r="G428" s="11" t="s">
         <v>9</v>
@@ -42925,7 +42933,7 @@
         <v>9</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="J428" s="2">
         <v>1</v>
@@ -42978,10 +42986,10 @@
         <v>0</v>
       </c>
       <c r="AB428" s="2" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="AC428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD428">
         <v>1</v>
@@ -42996,10 +43004,10 @@
         <v>427</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>669</v>
+        <v>490</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="D429" s="11" t="s">
         <v>766</v>
@@ -43008,7 +43016,7 @@
         <v>9</v>
       </c>
       <c r="F429" s="11" t="s">
-        <v>670</v>
+        <v>9</v>
       </c>
       <c r="G429" s="11" t="s">
         <v>9</v>
@@ -43073,7 +43081,7 @@
         <v>490</v>
       </c>
       <c r="AC429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD429">
         <v>1</v>
@@ -43088,10 +43096,10 @@
         <v>428</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>491</v>
+        <v>669</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="D430" s="11" t="s">
         <v>766</v>
@@ -43100,7 +43108,7 @@
         <v>9</v>
       </c>
       <c r="F430" s="11" t="s">
-        <v>9</v>
+        <v>670</v>
       </c>
       <c r="G430" s="11" t="s">
         <v>9</v>
@@ -43109,7 +43117,7 @@
         <v>9</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J430" s="2">
         <v>1</v>
@@ -43162,10 +43170,10 @@
         <v>0</v>
       </c>
       <c r="AB430" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AC430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD430">
         <v>1</v>
@@ -43180,10 +43188,10 @@
         <v>429</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>473</v>
+        <v>172</v>
       </c>
       <c r="D431" s="11" t="s">
         <v>766</v>
@@ -43201,7 +43209,7 @@
         <v>9</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J431" s="2">
         <v>1</v>
@@ -43254,7 +43262,7 @@
         <v>0</v>
       </c>
       <c r="AB431" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AC431">
         <v>1</v>
@@ -43272,10 +43280,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="D432" s="11" t="s">
         <v>766</v>
@@ -43293,7 +43301,7 @@
         <v>9</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J432" s="2">
         <v>1</v>
@@ -43346,7 +43354,7 @@
         <v>0</v>
       </c>
       <c r="AB432" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AC432">
         <v>1</v>
@@ -43364,10 +43372,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="D433" s="11" t="s">
         <v>766</v>
@@ -43385,7 +43393,7 @@
         <v>9</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="J433" s="2">
         <v>1</v>
@@ -43438,7 +43446,7 @@
         <v>0</v>
       </c>
       <c r="AB433" s="2" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="AC433">
         <v>1</v>
@@ -43452,20 +43460,20 @@
     </row>
     <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>432</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>8</v>
+        <v>511</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>16</v>
+        <v>766</v>
       </c>
       <c r="E434" s="11" t="s">
-        <v>766</v>
+        <v>9</v>
       </c>
       <c r="F434" s="11" t="s">
         <v>9</v>
@@ -43477,7 +43485,7 @@
         <v>9</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="J434" s="2">
         <v>1</v>
@@ -43489,13 +43497,13 @@
         <v>1</v>
       </c>
       <c r="M434" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N434" s="18">
         <v>1</v>
       </c>
       <c r="O434" s="18">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="P434" s="18">
         <v>1</v>
@@ -43513,14 +43521,14 @@
         <v>30</v>
       </c>
       <c r="U434">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="V434">
         <v>12</v>
       </c>
       <c r="W434" s="3"/>
-      <c r="X434" s="9" t="s">
-        <v>311</v>
+      <c r="X434" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="Y434" s="7"/>
       <c r="Z434" s="5" t="s">
@@ -43530,7 +43538,7 @@
         <v>0</v>
       </c>
       <c r="AB434" s="2" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="AC434">
         <v>1</v>
@@ -43548,17 +43556,17 @@
         <v>433</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C435" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E435" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="D435" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E435" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="F435" s="11" t="s">
         <v>9</v>
       </c>
@@ -43569,7 +43577,7 @@
         <v>9</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J435" s="2">
         <v>1</v>
@@ -43605,14 +43613,14 @@
         <v>30</v>
       </c>
       <c r="U435">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="V435">
         <v>12</v>
       </c>
       <c r="W435" s="3"/>
-      <c r="X435" s="7" t="s">
-        <v>294</v>
+      <c r="X435" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="Y435" s="7"/>
       <c r="Z435" s="5" t="s">
@@ -43622,7 +43630,7 @@
         <v>0</v>
       </c>
       <c r="AB435" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AC435">
         <v>1</v>
@@ -43640,25 +43648,25 @@
         <v>434</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>388</v>
+        <v>28</v>
       </c>
       <c r="C436" s="11" t="s">
         <v>766</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E436" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F436" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G436" s="11" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="H436" s="11" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I436" s="2" t="s">
         <v>28</v>
@@ -43717,7 +43725,7 @@
         <v>28</v>
       </c>
       <c r="AC436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD436">
         <v>1</v>
@@ -43732,7 +43740,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C437" s="11" t="s">
         <v>766</v>
@@ -43747,7 +43755,7 @@
         <v>9</v>
       </c>
       <c r="G437" s="11" t="s">
-        <v>372</v>
+        <v>47</v>
       </c>
       <c r="H437" s="11" t="s">
         <v>47</v>
@@ -43824,28 +43832,28 @@
         <v>436</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C438" s="11" t="s">
         <v>766</v>
       </c>
       <c r="D438" s="11" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="E438" s="11" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="F438" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G438" s="11" t="s">
-        <v>9</v>
+        <v>372</v>
       </c>
       <c r="H438" s="11" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="J438" s="2">
         <v>1</v>
@@ -43888,7 +43896,7 @@
       </c>
       <c r="W438" s="3"/>
       <c r="X438" s="7" t="s">
-        <v>392</v>
+        <v>294</v>
       </c>
       <c r="Y438" s="7"/>
       <c r="Z438" s="5" t="s">
@@ -43898,10 +43906,10 @@
         <v>0</v>
       </c>
       <c r="AB438" s="2" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="AC438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD438">
         <v>1</v>
@@ -43916,22 +43924,22 @@
         <v>437</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C439" s="11" t="s">
         <v>766</v>
       </c>
       <c r="D439" s="11" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="E439" s="11" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="F439" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G439" s="11" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="H439" s="11" t="s">
         <v>9</v>
@@ -43955,7 +43963,7 @@
         <v>1</v>
       </c>
       <c r="O439" s="18">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="P439" s="18">
         <v>1</v>
@@ -43993,7 +44001,7 @@
         <v>373</v>
       </c>
       <c r="AC439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD439">
         <v>1</v>
@@ -44008,7 +44016,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C440" s="11" t="s">
         <v>766</v>
@@ -44026,7 +44034,7 @@
         <v>372</v>
       </c>
       <c r="H440" s="11" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="I440" s="2" t="s">
         <v>373</v>
@@ -44047,7 +44055,7 @@
         <v>1</v>
       </c>
       <c r="O440" s="18">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="P440" s="18">
         <v>1</v>
@@ -44096,17 +44104,17 @@
     </row>
     <row r="441" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A441">
-        <f t="shared" ref="A441:A450" si="64">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>439</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>86</v>
+        <v>766</v>
       </c>
       <c r="D441" s="11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E441" s="11" t="s">
         <v>9</v>
@@ -44115,13 +44123,13 @@
         <v>9</v>
       </c>
       <c r="G441" s="11" t="s">
-        <v>9</v>
+        <v>372</v>
       </c>
       <c r="H441" s="11" t="s">
-        <v>9</v>
+        <v>372</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J441" s="2">
         <v>1</v>
@@ -44139,7 +44147,7 @@
         <v>1</v>
       </c>
       <c r="O441" s="18">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="P441" s="18">
         <v>1</v>
@@ -44164,7 +44172,7 @@
       </c>
       <c r="W441" s="3"/>
       <c r="X441" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="Y441" s="7"/>
       <c r="Z441" s="5" t="s">
@@ -44174,13 +44182,13 @@
         <v>0</v>
       </c>
       <c r="AB441" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE441">
         <v>0</v>
@@ -44188,17 +44196,17 @@
     </row>
     <row r="442" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A442">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="A442:A451" si="64">ROW()-2</f>
         <v>440</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>577</v>
+        <v>380</v>
       </c>
       <c r="C442" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E442" s="11" t="s">
         <v>9</v>
@@ -44207,7 +44215,7 @@
         <v>9</v>
       </c>
       <c r="G442" s="11" t="s">
-        <v>381</v>
+        <v>9</v>
       </c>
       <c r="H442" s="11" t="s">
         <v>9</v>
@@ -44269,7 +44277,7 @@
         <v>380</v>
       </c>
       <c r="AC442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD442">
         <v>0</v>
@@ -44284,10 +44292,10 @@
         <v>441</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>393</v>
+        <v>577</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D443" s="11" t="s">
         <v>9</v>
@@ -44299,7 +44307,7 @@
         <v>9</v>
       </c>
       <c r="G443" s="11" t="s">
-        <v>497</v>
+        <v>381</v>
       </c>
       <c r="H443" s="11" t="s">
         <v>9</v>
@@ -44376,10 +44384,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>578</v>
+        <v>393</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D444" s="11" t="s">
         <v>9</v>
@@ -44388,7 +44396,7 @@
         <v>9</v>
       </c>
       <c r="F444" s="11" t="s">
-        <v>381</v>
+        <v>9</v>
       </c>
       <c r="G444" s="11" t="s">
         <v>497</v>
@@ -44468,28 +44476,28 @@
         <v>443</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E445" s="11" t="s">
-        <v>766</v>
+        <v>9</v>
       </c>
       <c r="F445" s="11" t="s">
-        <v>9</v>
+        <v>381</v>
       </c>
       <c r="G445" s="11" t="s">
-        <v>9</v>
+        <v>497</v>
       </c>
       <c r="H445" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>609</v>
+        <v>380</v>
       </c>
       <c r="J445" s="2">
         <v>1</v>
@@ -44507,7 +44515,7 @@
         <v>1</v>
       </c>
       <c r="O445" s="18">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="P445" s="18">
         <v>1</v>
@@ -44542,13 +44550,13 @@
         <v>0</v>
       </c>
       <c r="AB445" s="2" t="s">
-        <v>609</v>
+        <v>380</v>
       </c>
       <c r="AC445">
         <v>0</v>
       </c>
       <c r="AD445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE445">
         <v>0</v>
@@ -44560,17 +44568,17 @@
         <v>444</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C446" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D446" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E446" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="E446" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F446" s="11" t="s">
         <v>9</v>
       </c>
@@ -44578,7 +44586,7 @@
         <v>9</v>
       </c>
       <c r="H446" s="11" t="s">
-        <v>448</v>
+        <v>9</v>
       </c>
       <c r="I446" s="2" t="s">
         <v>609</v>
@@ -44652,16 +44660,16 @@
         <v>445</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>66</v>
+        <v>766</v>
       </c>
       <c r="E447" s="11" t="s">
-        <v>766</v>
+        <v>9</v>
       </c>
       <c r="F447" s="11" t="s">
         <v>9</v>
@@ -44670,10 +44678,10 @@
         <v>9</v>
       </c>
       <c r="H447" s="11" t="s">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J447" s="2">
         <v>1</v>
@@ -44726,7 +44734,7 @@
         <v>0</v>
       </c>
       <c r="AB447" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AC447">
         <v>0</v>
@@ -44744,17 +44752,17 @@
         <v>446</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C448" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D448" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E448" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="E448" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F448" s="11" t="s">
         <v>9</v>
       </c>
@@ -44762,7 +44770,7 @@
         <v>9</v>
       </c>
       <c r="H448" s="11" t="s">
-        <v>448</v>
+        <v>9</v>
       </c>
       <c r="I448" s="2" t="s">
         <v>611</v>
@@ -44836,10 +44844,10 @@
         <v>447</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>677</v>
+        <v>612</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="D449" s="11" t="s">
         <v>766</v>
@@ -44848,7 +44856,7 @@
         <v>9</v>
       </c>
       <c r="F449" s="11" t="s">
-        <v>670</v>
+        <v>9</v>
       </c>
       <c r="G449" s="11" t="s">
         <v>9</v>
@@ -44928,10 +44936,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>613</v>
+        <v>677</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="D450" s="11" t="s">
         <v>766</v>
@@ -44940,16 +44948,16 @@
         <v>9</v>
       </c>
       <c r="F450" s="11" t="s">
-        <v>9</v>
+        <v>670</v>
       </c>
       <c r="G450" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H450" s="11" t="s">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J450" s="2">
         <v>1</v>
@@ -44961,13 +44969,13 @@
         <v>1</v>
       </c>
       <c r="M450" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N450" s="18">
         <v>1</v>
       </c>
       <c r="O450" s="18">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="P450" s="18">
         <v>1</v>
@@ -44985,14 +44993,14 @@
         <v>30</v>
       </c>
       <c r="U450">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="V450">
         <v>12</v>
       </c>
       <c r="W450" s="3"/>
       <c r="X450" s="7" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="Y450" s="7"/>
       <c r="Z450" s="5" t="s">
@@ -45002,15 +45010,107 @@
         <v>0</v>
       </c>
       <c r="AB450" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="AC450">
+        <v>0</v>
+      </c>
+      <c r="AD450">
+        <v>1</v>
+      </c>
+      <c r="AE450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <f t="shared" si="64"/>
+        <v>449</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="AC450">
-        <v>0</v>
-      </c>
-      <c r="AD450">
-        <v>1</v>
-      </c>
-      <c r="AE450">
+      <c r="C451" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D451" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="E451" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F451" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G451" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H451" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="J451" s="2">
+        <v>1</v>
+      </c>
+      <c r="K451" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L451" s="2">
+        <v>1</v>
+      </c>
+      <c r="M451" s="18">
+        <v>3</v>
+      </c>
+      <c r="N451" s="18">
+        <v>1</v>
+      </c>
+      <c r="O451" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P451" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q451" s="18">
+        <v>1</v>
+      </c>
+      <c r="R451" s="18">
+        <v>1</v>
+      </c>
+      <c r="S451" s="2">
+        <v>0</v>
+      </c>
+      <c r="T451">
+        <v>30</v>
+      </c>
+      <c r="U451">
+        <v>95</v>
+      </c>
+      <c r="V451">
+        <v>12</v>
+      </c>
+      <c r="W451" s="3"/>
+      <c r="X451" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y451" s="7"/>
+      <c r="Z451" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA451">
+        <v>0</v>
+      </c>
+      <c r="AB451" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC451">
+        <v>0</v>
+      </c>
+      <c r="AD451">
+        <v>1</v>
+      </c>
+      <c r="AE451">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918235B9-BBFE-4246-904F-B721841CBA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAB6EA-1BF1-414A-95E7-B156D1CE1463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="705" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="1305" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -6519,9 +6519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
   <dimension ref="A1:AE459"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD373" sqref="AD373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30448,7 +30448,7 @@
         <v>1</v>
       </c>
       <c r="AD279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE279">
         <v>0</v>
@@ -30540,7 +30540,7 @@
         <v>1</v>
       </c>
       <c r="AD280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE280">
         <v>0</v>
@@ -30632,7 +30632,7 @@
         <v>1</v>
       </c>
       <c r="AD281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE281">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="AD282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE282">
         <v>0</v>
@@ -30816,7 +30816,7 @@
         <v>1</v>
       </c>
       <c r="AD283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE283">
         <v>0</v>
@@ -30908,7 +30908,7 @@
         <v>0</v>
       </c>
       <c r="AD284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE284">
         <v>0</v>
@@ -31092,7 +31092,7 @@
         <v>1</v>
       </c>
       <c r="AD286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE286">
         <v>0</v>
@@ -31184,7 +31184,7 @@
         <v>1</v>
       </c>
       <c r="AD287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE287">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>1</v>
       </c>
       <c r="AD288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE288">
         <v>0</v>
@@ -38836,7 +38836,7 @@
         <v>1</v>
       </c>
       <c r="AD376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE376">
         <v>0</v>
@@ -38926,7 +38926,7 @@
         <v>1</v>
       </c>
       <c r="AD377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE377">
         <v>0</v>
@@ -39016,7 +39016,7 @@
         <v>1</v>
       </c>
       <c r="AD378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE378">
         <v>0</v>
@@ -39106,7 +39106,7 @@
         <v>0</v>
       </c>
       <c r="AD379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE379">
         <v>0</v>
@@ -45902,7 +45902,7 @@
   <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46079,7 +46079,7 @@
         <v>15</v>
       </c>
       <c r="U2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V2">
         <v>3</v>
@@ -46171,7 +46171,7 @@
         <v>15</v>
       </c>
       <c r="U3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V3">
         <v>3</v>
@@ -46261,7 +46261,7 @@
         <v>15</v>
       </c>
       <c r="U4">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -46351,7 +46351,7 @@
         <v>15</v>
       </c>
       <c r="U5">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V5">
         <v>3</v>
@@ -46441,7 +46441,7 @@
         <v>15</v>
       </c>
       <c r="U6">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V6">
         <v>3</v>
@@ -46531,7 +46531,7 @@
         <v>15</v>
       </c>
       <c r="U7">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V7">
         <v>3</v>
@@ -46621,7 +46621,7 @@
         <v>15</v>
       </c>
       <c r="U8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V8">
         <v>3</v>
@@ -46711,7 +46711,7 @@
         <v>15</v>
       </c>
       <c r="U9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V9">
         <v>3</v>
@@ -46801,7 +46801,7 @@
         <v>15</v>
       </c>
       <c r="U10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V10">
         <v>3</v>
@@ -46891,7 +46891,7 @@
         <v>15</v>
       </c>
       <c r="U11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V11">
         <v>3</v>
@@ -46981,7 +46981,7 @@
         <v>15</v>
       </c>
       <c r="U12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V12">
         <v>3</v>
@@ -47071,7 +47071,7 @@
         <v>15</v>
       </c>
       <c r="U13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V13">
         <v>3</v>
@@ -47161,7 +47161,7 @@
         <v>15</v>
       </c>
       <c r="U14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V14">
         <v>3</v>
@@ -47251,7 +47251,7 @@
         <v>15</v>
       </c>
       <c r="U15">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V15">
         <v>3</v>
@@ -47341,7 +47341,7 @@
         <v>15</v>
       </c>
       <c r="U16">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V16">
         <v>3</v>
@@ -47431,7 +47431,7 @@
         <v>15</v>
       </c>
       <c r="U17">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V17">
         <v>3</v>
@@ -47521,7 +47521,7 @@
         <v>15</v>
       </c>
       <c r="U18">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V18">
         <v>3</v>
@@ -47611,7 +47611,7 @@
         <v>15</v>
       </c>
       <c r="U19">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V19">
         <v>3</v>
@@ -47701,7 +47701,7 @@
         <v>15</v>
       </c>
       <c r="U20">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V20">
         <v>3</v>
@@ -47791,7 +47791,7 @@
         <v>15</v>
       </c>
       <c r="U21">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V21">
         <v>3</v>
@@ -47881,7 +47881,7 @@
         <v>15</v>
       </c>
       <c r="U22">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V22">
         <v>3</v>
@@ -47971,7 +47971,7 @@
         <v>15</v>
       </c>
       <c r="U23">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V23">
         <v>3</v>
@@ -48061,7 +48061,7 @@
         <v>15</v>
       </c>
       <c r="U24">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V24">
         <v>3</v>
@@ -48153,7 +48153,7 @@
         <v>15</v>
       </c>
       <c r="U25">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V25">
         <v>3</v>
@@ -48243,7 +48243,7 @@
         <v>15</v>
       </c>
       <c r="U26">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V26">
         <v>3</v>
@@ -48333,7 +48333,7 @@
         <v>15</v>
       </c>
       <c r="U27">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V27">
         <v>3</v>
@@ -48423,7 +48423,7 @@
         <v>15</v>
       </c>
       <c r="U28">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V28">
         <v>3</v>
@@ -48513,7 +48513,7 @@
         <v>15</v>
       </c>
       <c r="U29">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V29">
         <v>3</v>
@@ -48603,7 +48603,7 @@
         <v>15</v>
       </c>
       <c r="U30">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V30">
         <v>3</v>
@@ -48693,7 +48693,7 @@
         <v>15</v>
       </c>
       <c r="U31">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V31">
         <v>3</v>
@@ -48783,7 +48783,7 @@
         <v>15</v>
       </c>
       <c r="U32">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V32">
         <v>3</v>
@@ -48873,7 +48873,7 @@
         <v>15</v>
       </c>
       <c r="U33">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V33">
         <v>3</v>
@@ -48963,7 +48963,7 @@
         <v>15</v>
       </c>
       <c r="U34">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V34">
         <v>3</v>
@@ -49053,7 +49053,7 @@
         <v>15</v>
       </c>
       <c r="U35">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V35">
         <v>3</v>
@@ -49145,7 +49145,7 @@
         <v>15</v>
       </c>
       <c r="U36">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V36">
         <v>3</v>
@@ -49235,7 +49235,7 @@
         <v>15</v>
       </c>
       <c r="U37">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V37">
         <v>3</v>
@@ -49325,7 +49325,7 @@
         <v>15</v>
       </c>
       <c r="U38">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V38">
         <v>3</v>
@@ -49417,7 +49417,7 @@
         <v>15</v>
       </c>
       <c r="U39">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V39">
         <v>3</v>
@@ -49507,7 +49507,7 @@
         <v>15</v>
       </c>
       <c r="U40">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V40">
         <v>3</v>
@@ -49597,7 +49597,7 @@
         <v>15</v>
       </c>
       <c r="U41">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V41">
         <v>3</v>
@@ -49687,7 +49687,7 @@
         <v>15</v>
       </c>
       <c r="U42">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V42">
         <v>3</v>
@@ -49779,7 +49779,7 @@
         <v>15</v>
       </c>
       <c r="U43">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V43">
         <v>3</v>
@@ -49869,7 +49869,7 @@
         <v>15</v>
       </c>
       <c r="U44">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V44">
         <v>3</v>
@@ -49959,7 +49959,7 @@
         <v>15</v>
       </c>
       <c r="U45">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V45">
         <v>3</v>
@@ -50049,7 +50049,7 @@
         <v>15</v>
       </c>
       <c r="U46">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V46">
         <v>3</v>
@@ -50139,7 +50139,7 @@
         <v>15</v>
       </c>
       <c r="U47">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V47">
         <v>3</v>
@@ -50229,7 +50229,7 @@
         <v>15</v>
       </c>
       <c r="U48">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V48">
         <v>3</v>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAB6EA-1BF1-414A-95E7-B156D1CE1463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D808369-FF4B-49C4-8E5A-CA67474D5BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1305" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="1320" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5678" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5691" uniqueCount="784">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -6058,6 +6058,10 @@
   </si>
   <si>
     <t>sapphire_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frz_ice_cream</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6520,8 +6524,8 @@
   <dimension ref="A1:AE459"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD373" sqref="AD373"/>
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B389" sqref="A389:XFD389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45899,10 +45903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C910D34-F249-4621-9FD6-68AC406B14AA}">
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46108,16 +46112,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A34" si="0">ROW()+9998</f>
+        <f>ROW()+9998</f>
         <v>10001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>711</v>
+        <v>783</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>366</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>666</v>
@@ -46135,7 +46139,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>711</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -46168,16 +46172,20 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="U3">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="5" t="s">
         <v>144</v>
@@ -46186,10 +46194,10 @@
         <v>0</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>711</v>
+        <v>86</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -46200,14 +46208,14 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A35" si="0">ROW()+9998</f>
         <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>715</v>
+        <v>101</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>666</v>
@@ -46225,7 +46233,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -46276,7 +46284,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -46294,10 +46302,10 @@
         <v>10003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>509</v>
+        <v>715</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>666</v>
@@ -46315,7 +46323,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -46366,7 +46374,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -46384,10 +46392,10 @@
         <v>10004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>9</v>
+        <v>509</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>666</v>
@@ -46396,7 +46404,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>714</v>
+        <v>9</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>9</v>
@@ -46459,7 +46467,7 @@
         <v>712</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -46474,10 +46482,10 @@
         <v>10005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>719</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>666</v>
@@ -46486,7 +46494,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>9</v>
+        <v>714</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>9</v>
@@ -46495,7 +46503,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -46546,10 +46554,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -46564,10 +46572,10 @@
         <v>10006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>66</v>
+        <v>719</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>666</v>
@@ -46585,7 +46593,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -46636,7 +46644,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="AC8">
         <v>1</v>
@@ -46654,10 +46662,10 @@
         <v>10007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>717</v>
+        <v>66</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>666</v>
@@ -46675,7 +46683,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -46726,7 +46734,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -46740,14 +46748,14 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" ref="A10:A48" si="1">ROW()+9998</f>
+        <f t="shared" si="0"/>
         <v>10008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>666</v>
@@ -46765,7 +46773,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -46816,7 +46824,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -46830,14 +46838,14 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A11:A49" si="1">ROW()+9998</f>
         <v>10009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>666</v>
@@ -46855,7 +46863,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -46906,7 +46914,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -46924,10 +46932,10 @@
         <v>10010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>666</v>
@@ -46945,7 +46953,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -46996,7 +47004,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -47014,10 +47022,10 @@
         <v>10011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>666</v>
@@ -47035,7 +47043,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -47086,7 +47094,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -47104,10 +47112,10 @@
         <v>10012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>666</v>
@@ -47125,7 +47133,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -47176,7 +47184,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -47194,10 +47202,10 @@
         <v>10013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>666</v>
@@ -47215,7 +47223,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -47266,7 +47274,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -47284,10 +47292,10 @@
         <v>10014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>666</v>
@@ -47305,7 +47313,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -47356,7 +47364,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -47374,10 +47382,10 @@
         <v>10015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>666</v>
@@ -47395,7 +47403,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -47446,7 +47454,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AC17">
         <v>1</v>
@@ -47464,10 +47472,10 @@
         <v>10016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>666</v>
@@ -47485,7 +47493,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -47536,7 +47544,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -47554,10 +47562,10 @@
         <v>10017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>666</v>
@@ -47575,7 +47583,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -47626,7 +47634,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AC19">
         <v>1</v>
@@ -47644,10 +47652,10 @@
         <v>10018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>666</v>
@@ -47665,7 +47673,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -47716,7 +47724,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AC20">
         <v>1</v>
@@ -47734,10 +47742,10 @@
         <v>10019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>666</v>
@@ -47755,7 +47763,7 @@
         <v>9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -47806,7 +47814,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -47824,10 +47832,10 @@
         <v>10020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>666</v>
@@ -47845,7 +47853,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -47896,7 +47904,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AC22">
         <v>1</v>
@@ -47914,10 +47922,10 @@
         <v>10021</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>666</v>
@@ -47935,7 +47943,7 @@
         <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -47986,7 +47994,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AC23">
         <v>1</v>
@@ -48000,17 +48008,17 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10022</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>169</v>
+        <v>747</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>9</v>
@@ -48025,7 +48033,7 @@
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -48066,9 +48074,7 @@
       <c r="V24">
         <v>3</v>
       </c>
-      <c r="W24" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="W24" s="5"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="5" t="s">
@@ -48078,7 +48084,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -48096,10 +48102,10 @@
         <v>10023</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>659</v>
@@ -48108,7 +48114,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>670</v>
+        <v>9</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>9</v>
@@ -48158,7 +48164,9 @@
       <c r="V25">
         <v>3</v>
       </c>
-      <c r="W25" s="5"/>
+      <c r="W25" s="5" t="s">
+        <v>697</v>
+      </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="5" t="s">
@@ -48171,7 +48179,7 @@
         <v>658</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -48186,10 +48194,10 @@
         <v>10024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>659</v>
@@ -48198,7 +48206,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>9</v>
+        <v>670</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>9</v>
@@ -48207,7 +48215,7 @@
         <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -48258,10 +48266,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -48276,10 +48284,10 @@
         <v>10025</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>659</v>
@@ -48288,7 +48296,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>672</v>
+        <v>9</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>9</v>
@@ -48351,7 +48359,7 @@
         <v>660</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -48366,19 +48374,19 @@
         <v>10026</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>9</v>
+        <v>672</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>9</v>
@@ -48387,7 +48395,7 @@
         <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -48438,10 +48446,10 @@
         <v>0</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -48456,10 +48464,10 @@
         <v>10027</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>662</v>
@@ -48477,7 +48485,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -48528,7 +48536,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -48546,10 +48554,10 @@
         <v>10028</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>676</v>
+        <v>68</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>662</v>
@@ -48567,7 +48575,7 @@
         <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -48618,7 +48626,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="AC30">
         <v>1</v>
@@ -48636,10 +48644,10 @@
         <v>10029</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>779</v>
+        <v>675</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>782</v>
+        <v>676</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>662</v>
@@ -48657,7 +48665,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>779</v>
+        <v>675</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -48708,7 +48716,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>779</v>
+        <v>675</v>
       </c>
       <c r="AC31">
         <v>1</v>
@@ -48726,10 +48734,10 @@
         <v>10030</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>664</v>
+        <v>779</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>603</v>
+        <v>782</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>662</v>
@@ -48747,7 +48755,7 @@
         <v>9</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>664</v>
+        <v>779</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -48798,7 +48806,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>664</v>
+        <v>779</v>
       </c>
       <c r="AC32">
         <v>1</v>
@@ -48816,10 +48824,10 @@
         <v>10031</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>662</v>
@@ -48837,7 +48845,7 @@
         <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -48879,7 +48887,7 @@
         <v>3</v>
       </c>
       <c r="W33" s="5"/>
-      <c r="X33" s="7"/>
+      <c r="X33" s="10"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="5" t="s">
         <v>144</v>
@@ -48888,7 +48896,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AC33">
         <v>1</v>
@@ -48906,10 +48914,10 @@
         <v>10032</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>9</v>
+        <v>606</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>662</v>
@@ -48918,7 +48926,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>9</v>
@@ -48927,7 +48935,7 @@
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -48978,10 +48986,10 @@
         <v>0</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -48992,23 +49000,23 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10033</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>9</v>
@@ -49017,7 +49025,7 @@
         <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -49058,10 +49066,8 @@
       <c r="V35">
         <v>3</v>
       </c>
-      <c r="W35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X35" s="10"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="5" t="s">
         <v>144</v>
@@ -49070,10 +49076,10 @@
         <v>0</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -49088,28 +49094,28 @@
         <v>10034</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -49150,7 +49156,9 @@
       <c r="V36">
         <v>3</v>
       </c>
-      <c r="W36" s="5"/>
+      <c r="W36" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="X36" s="10"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="5" t="s">
@@ -49160,7 +49168,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AC36">
         <v>1</v>
@@ -49178,13 +49186,13 @@
         <v>10035</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>9</v>
@@ -49199,7 +49207,7 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -49250,7 +49258,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -49268,28 +49276,28 @@
         <v>10036</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -49330,9 +49338,7 @@
       <c r="V38">
         <v>3</v>
       </c>
-      <c r="W38" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="W38" s="5"/>
       <c r="X38" s="10"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="5" t="s">
@@ -49342,7 +49348,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -49360,13 +49366,13 @@
         <v>10037</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>698</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>9</v>
@@ -49381,7 +49387,7 @@
         <v>9</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -49422,7 +49428,9 @@
       <c r="V39">
         <v>3</v>
       </c>
-      <c r="W39" s="5"/>
+      <c r="W39" s="5" t="s">
+        <v>706</v>
+      </c>
       <c r="X39" s="10"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="5" t="s">
@@ -49432,7 +49440,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="AC39">
         <v>1</v>
@@ -49450,13 +49458,13 @@
         <v>10038</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>698</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>9</v>
@@ -49471,7 +49479,7 @@
         <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -49522,7 +49530,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AC40">
         <v>1</v>
@@ -49540,13 +49548,13 @@
         <v>10039</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>701</v>
+        <v>758</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>9</v>
@@ -49561,7 +49569,7 @@
         <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -49612,7 +49620,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="AC41">
         <v>1</v>
@@ -49630,28 +49638,28 @@
         <v>10040</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -49692,9 +49700,7 @@
       <c r="V42">
         <v>3</v>
       </c>
-      <c r="W42" s="5" t="s">
-        <v>737</v>
-      </c>
+      <c r="W42" s="5"/>
       <c r="X42" s="10"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="5" t="s">
@@ -49704,7 +49710,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AC42">
         <v>1</v>
@@ -49722,13 +49728,13 @@
         <v>10041</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>733</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>9</v>
@@ -49743,7 +49749,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -49784,7 +49790,9 @@
       <c r="V43">
         <v>3</v>
       </c>
-      <c r="W43" s="5"/>
+      <c r="W43" s="5" t="s">
+        <v>737</v>
+      </c>
       <c r="X43" s="10"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="5" t="s">
@@ -49794,7 +49802,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AC43">
         <v>1</v>
@@ -49812,13 +49820,13 @@
         <v>10042</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>733</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>9</v>
@@ -49833,7 +49841,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -49884,7 +49892,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AC44">
         <v>1</v>
@@ -49902,13 +49910,13 @@
         <v>10043</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>101</v>
+        <v>733</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>9</v>
@@ -49923,7 +49931,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -49974,7 +49982,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="AC45">
         <v>1</v>
@@ -49992,10 +50000,10 @@
         <v>10044</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>756</v>
@@ -50013,7 +50021,7 @@
         <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -50064,7 +50072,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AC46">
         <v>1</v>
@@ -50082,10 +50090,10 @@
         <v>10045</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>509</v>
+        <v>66</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>756</v>
@@ -50103,7 +50111,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -50154,7 +50162,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AC47">
         <v>1</v>
@@ -50172,10 +50180,10 @@
         <v>10046</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>9</v>
+        <v>509</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>756</v>
@@ -50184,7 +50192,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>714</v>
+        <v>9</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>9</v>
@@ -50247,12 +50255,102 @@
         <v>719</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48">
         <v>1</v>
       </c>
       <c r="AE48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>10047</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1</v>
+      </c>
+      <c r="N49" s="18">
+        <v>1</v>
+      </c>
+      <c r="O49" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P49" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>1</v>
+      </c>
+      <c r="R49" s="18">
+        <v>1</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>15</v>
+      </c>
+      <c r="U49">
+        <v>95</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49" s="5"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6047100-4828-4B45-9439-9571D5A8D053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A80B9-BE39-43CE-9C96-370570043987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1230" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7108" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7175" uniqueCount="940">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -6665,6 +6665,45 @@
   </si>
   <si>
     <t>appaleil_Free_Potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lumi_rainbowberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lumi_rainbowberry_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_RainbowBerry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lumi_apple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lumi_apple_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムーンバナナ系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moonlight_Banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lumi_banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lumi_banana_Free</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7126,8 +7165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
   <dimension ref="A1:AE538"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -53798,10 +53837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C910D34-F249-4621-9FD6-68AC406B14AA}">
-  <dimension ref="A1:AE100"/>
+  <dimension ref="A1:AE106"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54105,7 +54144,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A59" si="0">ROW()+9998</f>
+        <f t="shared" ref="A4:A65" si="0">ROW()+9998</f>
         <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -54735,7 +54774,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" ref="A11:A87" si="1">ROW()+9998</f>
+        <f t="shared" ref="A11:A93" si="1">ROW()+9998</f>
         <v>10009</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -57769,13 +57808,13 @@
         <v>10044</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>651</v>
+        <v>931</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>10</v>
+        <v>636</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>9</v>
@@ -57790,7 +57829,7 @@
         <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>651</v>
+        <v>931</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -57841,7 +57880,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>651</v>
+        <v>931</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -57859,19 +57898,19 @@
         <v>10045</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>653</v>
+        <v>932</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>9</v>
+        <v>933</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>9</v>
@@ -57880,7 +57919,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>653</v>
+        <v>931</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -57931,7 +57970,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>653</v>
+        <v>931</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -57949,13 +57988,13 @@
         <v>10046</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>665</v>
+        <v>934</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>666</v>
+        <v>327</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>9</v>
@@ -57970,7 +58009,7 @@
         <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>665</v>
+        <v>934</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -58021,7 +58060,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>665</v>
+        <v>934</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -58039,19 +58078,19 @@
         <v>10047</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>768</v>
+        <v>935</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>771</v>
+        <v>9</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>9</v>
+        <v>658</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>9</v>
@@ -58060,7 +58099,7 @@
         <v>9</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>768</v>
+        <v>934</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -58111,7 +58150,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>768</v>
+        <v>934</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -58129,10 +58168,10 @@
         <v>10048</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>595</v>
+        <v>10</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>652</v>
@@ -58150,7 +58189,7 @@
         <v>9</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -58201,7 +58240,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -58219,10 +58258,10 @@
         <v>10049</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>598</v>
+        <v>67</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>652</v>
@@ -58240,7 +58279,7 @@
         <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -58282,7 +58321,7 @@
         <v>3</v>
       </c>
       <c r="W51" s="5"/>
-      <c r="X51" s="7"/>
+      <c r="X51" s="10"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="5" t="s">
         <v>143</v>
@@ -58291,7 +58330,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -58309,10 +58348,10 @@
         <v>10050</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>907</v>
+        <v>665</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>900</v>
+        <v>666</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>652</v>
@@ -58330,7 +58369,7 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>907</v>
+        <v>665</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -58381,7 +58420,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>907</v>
+        <v>665</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -58399,10 +58438,10 @@
         <v>10051</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>908</v>
+        <v>768</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>901</v>
+        <v>771</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>652</v>
@@ -58420,7 +58459,7 @@
         <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>908</v>
+        <v>768</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -58471,7 +58510,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>908</v>
+        <v>768</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -58489,10 +58528,10 @@
         <v>10052</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>909</v>
+        <v>654</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>902</v>
+        <v>595</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>652</v>
@@ -58510,7 +58549,7 @@
         <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>909</v>
+        <v>654</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -58561,7 +58600,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>909</v>
+        <v>654</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -58579,10 +58618,10 @@
         <v>10053</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>910</v>
+        <v>655</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>903</v>
+        <v>598</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>652</v>
@@ -58600,7 +58639,7 @@
         <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>910</v>
+        <v>655</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -58642,7 +58681,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="5"/>
-      <c r="X55" s="10"/>
+      <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="5" t="s">
         <v>143</v>
@@ -58651,7 +58690,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>910</v>
+        <v>655</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -58669,10 +58708,10 @@
         <v>10054</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>652</v>
@@ -58690,7 +58729,7 @@
         <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -58741,7 +58780,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -58759,10 +58798,10 @@
         <v>10055</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>664</v>
+        <v>908</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>9</v>
+        <v>901</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>652</v>
@@ -58771,7 +58810,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>9</v>
@@ -58780,7 +58819,7 @@
         <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>651</v>
+        <v>908</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -58810,7 +58849,7 @@
         <v>1</v>
       </c>
       <c r="S57" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="T57">
         <v>15</v>
@@ -58822,7 +58861,7 @@
         <v>3</v>
       </c>
       <c r="W57" s="5"/>
-      <c r="X57" s="7"/>
+      <c r="X57" s="10"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="5" t="s">
         <v>143</v>
@@ -58831,7 +58870,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>651</v>
+        <v>908</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -58848,72 +58887,194 @@
         <f t="shared" si="0"/>
         <v>10056</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="18">
+        <v>1</v>
+      </c>
+      <c r="N58" s="18">
+        <v>1</v>
+      </c>
+      <c r="O58" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P58" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>1</v>
+      </c>
+      <c r="R58" s="18">
+        <v>1</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>15</v>
+      </c>
+      <c r="U58">
+        <v>95</v>
+      </c>
+      <c r="V58">
+        <v>3</v>
+      </c>
       <c r="W58" s="5"/>
-      <c r="X58" s="7"/>
+      <c r="X58" s="10"/>
       <c r="Y58" s="7"/>
-      <c r="Z58" s="5"/>
-      <c r="AB58" s="2"/>
+      <c r="Z58" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>10057</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="18">
+        <v>1</v>
+      </c>
+      <c r="N59" s="18">
+        <v>1</v>
+      </c>
+      <c r="O59" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P59" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="18">
+        <v>1</v>
+      </c>
+      <c r="R59" s="18">
+        <v>1</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>15</v>
+      </c>
+      <c r="U59">
+        <v>95</v>
+      </c>
+      <c r="V59">
+        <v>3</v>
+      </c>
       <c r="W59" s="5"/>
-      <c r="X59" s="7"/>
+      <c r="X59" s="10"/>
       <c r="Y59" s="7"/>
-      <c r="Z59" s="5"/>
-      <c r="AB59" s="2"/>
+      <c r="Z59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10058</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>11</v>
+        <v>904</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>9</v>
@@ -58928,7 +59089,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -58969,9 +59130,7 @@
       <c r="V60">
         <v>3</v>
       </c>
-      <c r="W60" s="5" t="s">
-        <v>925</v>
-      </c>
+      <c r="W60" s="5"/>
       <c r="X60" s="10"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="5" t="s">
@@ -58981,7 +59140,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>682</v>
+        <v>911</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -58995,23 +59154,23 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10059</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>928</v>
+        <v>664</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>927</v>
+        <v>48</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>9</v>
@@ -59020,7 +59179,7 @@
         <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>928</v>
+        <v>651</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -59050,7 +59209,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="T61">
         <v>15</v>
@@ -59062,7 +59221,7 @@
         <v>3</v>
       </c>
       <c r="W61" s="5"/>
-      <c r="X61" s="10"/>
+      <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="5" t="s">
         <v>143</v>
@@ -59071,7 +59230,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>928</v>
+        <v>651</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -59085,17 +59244,17 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10060</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>684</v>
+        <v>938</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>682</v>
+        <v>114</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>685</v>
+        <v>937</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>9</v>
@@ -59110,7 +59269,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>684</v>
+        <v>938</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -59152,7 +59311,7 @@
         <v>3</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="X62" s="10"/>
       <c r="Y62" s="7"/>
@@ -59163,7 +59322,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>684</v>
+        <v>938</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -59177,23 +59336,23 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10061</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>687</v>
+        <v>939</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>688</v>
+        <v>9</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>690</v>
+        <v>937</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>9</v>
+        <v>803</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>9</v>
@@ -59202,7 +59361,7 @@
         <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>687</v>
+        <v>938</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -59243,9 +59402,7 @@
       <c r="V63">
         <v>3</v>
       </c>
-      <c r="W63" s="5" t="s">
-        <v>926</v>
-      </c>
+      <c r="W63" s="5"/>
       <c r="X63" s="10"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="5" t="s">
@@ -59255,7 +59412,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>687</v>
+        <v>938</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -59269,185 +59426,61 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10062</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="18">
-        <v>1</v>
-      </c>
-      <c r="N64" s="18">
-        <v>1</v>
-      </c>
-      <c r="O64" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P64" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="18">
-        <v>1</v>
-      </c>
-      <c r="R64" s="18">
-        <v>1</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>15</v>
-      </c>
-      <c r="U64">
-        <v>95</v>
-      </c>
-      <c r="V64">
-        <v>3</v>
-      </c>
-      <c r="W64" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="X64" s="10"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="2"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
-      <c r="Z64" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>1</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
+      <c r="Z64" s="5"/>
+      <c r="AB64" s="2"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10063</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L65" s="2">
-        <v>1</v>
-      </c>
-      <c r="M65" s="18">
-        <v>1</v>
-      </c>
-      <c r="N65" s="18">
-        <v>1</v>
-      </c>
-      <c r="O65" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P65" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="18">
-        <v>1</v>
-      </c>
-      <c r="R65" s="18">
-        <v>1</v>
-      </c>
-      <c r="S65" s="2">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>15</v>
-      </c>
-      <c r="U65">
-        <v>95</v>
-      </c>
-      <c r="V65">
-        <v>3</v>
-      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="2"/>
       <c r="W65" s="5"/>
-      <c r="X65" s="10"/>
+      <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
-      <c r="Z65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>1</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
+      <c r="Z65" s="5"/>
+      <c r="AB65" s="2"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -59455,13 +59488,13 @@
         <v>10064</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>687</v>
+        <v>11</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>747</v>
+        <v>683</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>9</v>
@@ -59476,7 +59509,7 @@
         <v>9</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -59517,7 +59550,9 @@
       <c r="V66">
         <v>3</v>
       </c>
-      <c r="W66" s="5"/>
+      <c r="W66" s="5" t="s">
+        <v>925</v>
+      </c>
       <c r="X66" s="10"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="5" t="s">
@@ -59527,7 +59562,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -59545,19 +59580,19 @@
         <v>10065</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>722</v>
+        <v>928</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>716</v>
+        <v>9</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>9</v>
+        <v>927</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>9</v>
@@ -59566,7 +59601,7 @@
         <v>9</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>722</v>
+        <v>928</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -59617,7 +59652,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>722</v>
+        <v>928</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -59635,13 +59670,13 @@
         <v>10066</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>745</v>
+        <v>685</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>9</v>
@@ -59656,7 +59691,7 @@
         <v>9</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -59698,7 +59733,7 @@
         <v>3</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>726</v>
+        <v>929</v>
       </c>
       <c r="X68" s="10"/>
       <c r="Y68" s="7"/>
@@ -59709,7 +59744,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -59727,13 +59762,13 @@
         <v>10067</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>746</v>
+        <v>690</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>9</v>
@@ -59748,7 +59783,7 @@
         <v>9</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -59789,7 +59824,9 @@
       <c r="V69">
         <v>3</v>
       </c>
-      <c r="W69" s="5"/>
+      <c r="W69" s="5" t="s">
+        <v>926</v>
+      </c>
       <c r="X69" s="10"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="5" t="s">
@@ -59799,7 +59836,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="2" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -59817,13 +59854,13 @@
         <v>10068</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>9</v>
@@ -59838,7 +59875,7 @@
         <v>9</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -59879,7 +59916,9 @@
       <c r="V70">
         <v>3</v>
       </c>
-      <c r="W70" s="5"/>
+      <c r="W70" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="X70" s="10"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="5" t="s">
@@ -59889,7 +59928,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -59907,13 +59946,13 @@
         <v>10069</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>100</v>
+        <v>687</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>9</v>
@@ -59928,7 +59967,7 @@
         <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -59979,7 +60018,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="2" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -59997,19 +60036,19 @@
         <v>10070</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>881</v>
+        <v>718</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>9</v>
+        <v>687</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>852</v>
+        <v>9</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>9</v>
@@ -60018,7 +60057,7 @@
         <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -60069,7 +60108,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -60087,13 +60126,13 @@
         <v>10071</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>65</v>
+        <v>716</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>9</v>
@@ -60108,7 +60147,7 @@
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -60159,7 +60198,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -60177,10 +60216,10 @@
         <v>10072</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>882</v>
+        <v>723</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>9</v>
+        <v>722</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>745</v>
@@ -60189,7 +60228,7 @@
         <v>9</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>444</v>
+        <v>9</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>9</v>
@@ -60198,7 +60237,7 @@
         <v>9</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -60239,7 +60278,9 @@
       <c r="V74">
         <v>3</v>
       </c>
-      <c r="W74" s="5"/>
+      <c r="W74" s="5" t="s">
+        <v>726</v>
+      </c>
       <c r="X74" s="10"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="5" t="s">
@@ -60249,7 +60290,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -60267,13 +60308,13 @@
         <v>10073</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>505</v>
+        <v>722</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>9</v>
@@ -60288,7 +60329,7 @@
         <v>9</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -60339,7 +60380,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -60357,19 +60398,19 @@
         <v>10074</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>9</v>
+        <v>722</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>703</v>
+        <v>9</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>9</v>
@@ -60378,7 +60419,7 @@
         <v>9</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
@@ -60429,7 +60470,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -60446,12 +60487,180 @@
         <f t="shared" si="1"/>
         <v>10075</v>
       </c>
+      <c r="B77" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1</v>
+      </c>
+      <c r="M77" s="18">
+        <v>1</v>
+      </c>
+      <c r="N77" s="18">
+        <v>1</v>
+      </c>
+      <c r="O77" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P77" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="18">
+        <v>1</v>
+      </c>
+      <c r="R77" s="18">
+        <v>1</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>15</v>
+      </c>
+      <c r="U77">
+        <v>95</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77" s="5"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>10076</v>
       </c>
+      <c r="B78" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="18">
+        <v>1</v>
+      </c>
+      <c r="N78" s="18">
+        <v>1</v>
+      </c>
+      <c r="O78" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P78" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="18">
+        <v>1</v>
+      </c>
+      <c r="R78" s="18">
+        <v>1</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>15</v>
+      </c>
+      <c r="U78">
+        <v>95</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78" s="5"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -60459,13 +60668,13 @@
         <v>10077</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>888</v>
+        <v>706</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>889</v>
+        <v>745</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>9</v>
@@ -60480,7 +60689,7 @@
         <v>9</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>888</v>
+        <v>706</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -60521,9 +60730,7 @@
       <c r="V79">
         <v>3</v>
       </c>
-      <c r="W79" s="5" t="s">
-        <v>887</v>
-      </c>
+      <c r="W79" s="5"/>
       <c r="X79" s="10"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="5" t="s">
@@ -60533,7 +60740,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>888</v>
+        <v>706</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -60551,19 +60758,19 @@
         <v>10078</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>889</v>
+        <v>745</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>9</v>
@@ -60572,7 +60779,7 @@
         <v>9</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>890</v>
+        <v>706</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -60623,7 +60830,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>890</v>
+        <v>706</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -60641,13 +60848,13 @@
         <v>10079</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>891</v>
+        <v>708</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>324</v>
+        <v>505</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>889</v>
+        <v>745</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>9</v>
@@ -60662,7 +60869,7 @@
         <v>9</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>891</v>
+        <v>708</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -60713,7 +60920,7 @@
         <v>0</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>891</v>
+        <v>708</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -60731,19 +60938,19 @@
         <v>10080</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>892</v>
+        <v>709</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>447</v>
+        <v>9</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>889</v>
+        <v>745</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>9</v>
+        <v>703</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>9</v>
@@ -60752,7 +60959,7 @@
         <v>9</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>892</v>
+        <v>708</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -60803,7 +61010,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>892</v>
+        <v>708</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -60820,180 +61027,12 @@
         <f t="shared" si="1"/>
         <v>10081</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L83" s="2">
-        <v>1</v>
-      </c>
-      <c r="M83" s="18">
-        <v>1</v>
-      </c>
-      <c r="N83" s="18">
-        <v>1</v>
-      </c>
-      <c r="O83" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P83" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="18">
-        <v>1</v>
-      </c>
-      <c r="R83" s="18">
-        <v>1</v>
-      </c>
-      <c r="S83" s="2">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>15</v>
-      </c>
-      <c r="U83">
-        <v>95</v>
-      </c>
-      <c r="V83">
-        <v>3</v>
-      </c>
-      <c r="W83" s="5"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>1</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>10082</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="J84" s="2">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L84" s="2">
-        <v>1</v>
-      </c>
-      <c r="M84" s="18">
-        <v>1</v>
-      </c>
-      <c r="N84" s="18">
-        <v>1</v>
-      </c>
-      <c r="O84" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P84" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="18">
-        <v>1</v>
-      </c>
-      <c r="R84" s="18">
-        <v>1</v>
-      </c>
-      <c r="S84" s="2">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>15</v>
-      </c>
-      <c r="U84">
-        <v>95</v>
-      </c>
-      <c r="V84">
-        <v>3</v>
-      </c>
-      <c r="W84" s="5"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="7"/>
-      <c r="Z84" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
-        <v>1</v>
-      </c>
-      <c r="AE84">
-        <v>0</v>
-      </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -61001,10 +61040,10 @@
         <v>10083</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>491</v>
+        <v>291</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>889</v>
@@ -61022,7 +61061,7 @@
         <v>9</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
@@ -61063,7 +61102,9 @@
       <c r="V85">
         <v>3</v>
       </c>
-      <c r="W85" s="5"/>
+      <c r="W85" s="5" t="s">
+        <v>887</v>
+      </c>
       <c r="X85" s="10"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="5" t="s">
@@ -61073,7 +61114,7 @@
         <v>0</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -61091,10 +61132,10 @@
         <v>10084</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>896</v>
+        <v>177</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>889</v>
@@ -61112,7 +61153,7 @@
         <v>9</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -61163,7 +61204,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -61180,26 +61221,194 @@
         <f t="shared" si="1"/>
         <v>10085</v>
       </c>
+      <c r="B87" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="18">
+        <v>1</v>
+      </c>
+      <c r="N87" s="18">
+        <v>1</v>
+      </c>
+      <c r="O87" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P87" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="18">
+        <v>1</v>
+      </c>
+      <c r="R87" s="18">
+        <v>1</v>
+      </c>
+      <c r="S87" s="2">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>15</v>
+      </c>
+      <c r="U87">
+        <v>95</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87" s="5"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" ref="A88:A100" si="2">ROW()+9998</f>
+        <f t="shared" si="1"/>
         <v>10086</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="18">
+        <v>1</v>
+      </c>
+      <c r="N88" s="18">
+        <v>1</v>
+      </c>
+      <c r="O88" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P88" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="18">
+        <v>1</v>
+      </c>
+      <c r="R88" s="18">
+        <v>1</v>
+      </c>
+      <c r="S88" s="2">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>15</v>
+      </c>
+      <c r="U88">
+        <v>95</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88" s="5"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>1</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10087</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>888</v>
+        <v>449</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>9</v>
@@ -61214,7 +61423,7 @@
         <v>9</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
@@ -61255,9 +61464,7 @@
       <c r="V89">
         <v>3</v>
       </c>
-      <c r="W89" s="5" t="s">
-        <v>898</v>
-      </c>
+      <c r="W89" s="5"/>
       <c r="X89" s="10"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="5" t="s">
@@ -61267,7 +61474,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -61281,17 +61488,17 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10088</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>900</v>
+        <v>362</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>9</v>
@@ -61306,7 +61513,7 @@
         <v>9</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>900</v>
+        <v>362</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
@@ -61357,7 +61564,7 @@
         <v>0</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>900</v>
+        <v>362</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -61371,17 +61578,17 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10089</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>891</v>
+        <v>491</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>9</v>
@@ -61396,7 +61603,7 @@
         <v>9</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
@@ -61447,7 +61654,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="2" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -61461,17 +61668,17 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10090</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>9</v>
@@ -61486,7 +61693,7 @@
         <v>9</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
@@ -61537,7 +61744,7 @@
         <v>0</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -61551,182 +61758,14 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10091</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>894</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L93" s="2">
-        <v>1</v>
-      </c>
-      <c r="M93" s="18">
-        <v>1</v>
-      </c>
-      <c r="N93" s="18">
-        <v>1</v>
-      </c>
-      <c r="O93" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P93" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="18">
-        <v>1</v>
-      </c>
-      <c r="R93" s="18">
-        <v>1</v>
-      </c>
-      <c r="S93" s="2">
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <v>15</v>
-      </c>
-      <c r="U93">
-        <v>95</v>
-      </c>
-      <c r="V93">
-        <v>3</v>
-      </c>
-      <c r="W93" s="5"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA93">
-        <v>0</v>
-      </c>
-      <c r="AB93" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="AC93">
-        <v>0</v>
-      </c>
-      <c r="AD93">
-        <v>1</v>
-      </c>
-      <c r="AE93">
-        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A94:A106" si="2">ROW()+9998</f>
         <v>10092</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L94" s="2">
-        <v>1</v>
-      </c>
-      <c r="M94" s="18">
-        <v>1</v>
-      </c>
-      <c r="N94" s="18">
-        <v>1</v>
-      </c>
-      <c r="O94" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P94" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="18">
-        <v>1</v>
-      </c>
-      <c r="R94" s="18">
-        <v>1</v>
-      </c>
-      <c r="S94" s="2">
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <v>15</v>
-      </c>
-      <c r="U94">
-        <v>95</v>
-      </c>
-      <c r="V94">
-        <v>3</v>
-      </c>
-      <c r="W94" s="5"/>
-      <c r="X94" s="10"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA94">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94">
-        <v>1</v>
-      </c>
-      <c r="AE94">
-        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
@@ -61735,10 +61774,10 @@
         <v>10093</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>9</v>
+        <v>888</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>899</v>
@@ -61747,7 +61786,7 @@
         <v>9</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>444</v>
+        <v>9</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>9</v>
@@ -61756,7 +61795,7 @@
         <v>9</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
@@ -61797,7 +61836,9 @@
       <c r="V95">
         <v>3</v>
       </c>
-      <c r="W95" s="5"/>
+      <c r="W95" s="5" t="s">
+        <v>898</v>
+      </c>
       <c r="X95" s="10"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="5" t="s">
@@ -61807,7 +61848,7 @@
         <v>0</v>
       </c>
       <c r="AB95" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -61825,10 +61866,10 @@
         <v>10094</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>562</v>
+        <v>890</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>899</v>
@@ -61846,7 +61887,7 @@
         <v>9</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="J96" s="2">
         <v>1</v>
@@ -61897,7 +61938,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -61914,12 +61955,180 @@
         <f t="shared" si="2"/>
         <v>10095</v>
       </c>
+      <c r="B97" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1</v>
+      </c>
+      <c r="M97" s="18">
+        <v>1</v>
+      </c>
+      <c r="N97" s="18">
+        <v>1</v>
+      </c>
+      <c r="O97" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P97" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="18">
+        <v>1</v>
+      </c>
+      <c r="R97" s="18">
+        <v>1</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>15</v>
+      </c>
+      <c r="U97">
+        <v>95</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97" s="5"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>10096</v>
       </c>
+      <c r="B98" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="18">
+        <v>1</v>
+      </c>
+      <c r="N98" s="18">
+        <v>1</v>
+      </c>
+      <c r="O98" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P98" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="18">
+        <v>1</v>
+      </c>
+      <c r="R98" s="18">
+        <v>1</v>
+      </c>
+      <c r="S98" s="2">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>15</v>
+      </c>
+      <c r="U98">
+        <v>95</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98" s="5"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -61927,19 +62136,19 @@
         <v>10097</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>9</v>
+        <v>894</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>918</v>
+        <v>9</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>9</v>
@@ -61948,7 +62157,7 @@
         <v>9</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>57</v>
+        <v>904</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
@@ -61989,12 +62198,8 @@
       <c r="V99">
         <v>3</v>
       </c>
-      <c r="W99" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="X99" s="7" t="s">
-        <v>916</v>
-      </c>
+      <c r="W99" s="5"/>
+      <c r="X99" s="10"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="5" t="s">
         <v>143</v>
@@ -62003,7 +62208,7 @@
         <v>0</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>57</v>
+        <v>904</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -62021,19 +62226,19 @@
         <v>10098</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>9</v>
+        <v>895</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>921</v>
+        <v>9</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>9</v>
@@ -62042,7 +62247,7 @@
         <v>9</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>57</v>
+        <v>914</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
@@ -62084,7 +62289,7 @@
         <v>3</v>
       </c>
       <c r="W100" s="5"/>
-      <c r="X100" s="7"/>
+      <c r="X100" s="10"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="5" t="s">
         <v>143</v>
@@ -62093,15 +62298,391 @@
         <v>0</v>
       </c>
       <c r="AB100" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>10099</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L101" s="2">
+        <v>1</v>
+      </c>
+      <c r="M101" s="18">
+        <v>1</v>
+      </c>
+      <c r="N101" s="18">
+        <v>1</v>
+      </c>
+      <c r="O101" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P101" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="18">
+        <v>1</v>
+      </c>
+      <c r="R101" s="18">
+        <v>1</v>
+      </c>
+      <c r="S101" s="2">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>15</v>
+      </c>
+      <c r="U101">
+        <v>95</v>
+      </c>
+      <c r="V101">
+        <v>3</v>
+      </c>
+      <c r="W101" s="5"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>10100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1</v>
+      </c>
+      <c r="M102" s="18">
+        <v>1</v>
+      </c>
+      <c r="N102" s="18">
+        <v>1</v>
+      </c>
+      <c r="O102" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P102" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="18">
+        <v>1</v>
+      </c>
+      <c r="R102" s="18">
+        <v>1</v>
+      </c>
+      <c r="S102" s="2">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>15</v>
+      </c>
+      <c r="U102">
+        <v>95</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102" s="5"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>10103</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AD100">
-        <v>1</v>
-      </c>
-      <c r="AE100">
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L105" s="2">
+        <v>1</v>
+      </c>
+      <c r="M105" s="18">
+        <v>1</v>
+      </c>
+      <c r="N105" s="18">
+        <v>1</v>
+      </c>
+      <c r="O105" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P105" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="18">
+        <v>1</v>
+      </c>
+      <c r="R105" s="18">
+        <v>1</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>15</v>
+      </c>
+      <c r="U105">
+        <v>95</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="X105" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>10104</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L106" s="2">
+        <v>1</v>
+      </c>
+      <c r="M106" s="18">
+        <v>1</v>
+      </c>
+      <c r="N106" s="18">
+        <v>1</v>
+      </c>
+      <c r="O106" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P106" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="18">
+        <v>1</v>
+      </c>
+      <c r="R106" s="18">
+        <v>1</v>
+      </c>
+      <c r="S106" s="2">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>15</v>
+      </c>
+      <c r="U106">
+        <v>95</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106" s="5"/>
+      <c r="X106" s="7"/>
+      <c r="Y106" s="7"/>
+      <c r="Z106" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>1</v>
+      </c>
+      <c r="AE106">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A80B9-BE39-43CE-9C96-370570043987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28899339-117A-44CC-B19D-51B11EE8316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="720" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7175" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7186" uniqueCount="942">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -6704,6 +6704,14 @@
   </si>
   <si>
     <t>lumi_banana_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lumi_suger2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suger_supplied</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -53837,10 +53845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C910D34-F249-4621-9FD6-68AC406B14AA}">
-  <dimension ref="A1:AE106"/>
+  <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54144,7 +54152,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A65" si="0">ROW()+9998</f>
+        <f t="shared" ref="A4:A66" si="0">ROW()+9998</f>
         <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -54774,7 +54782,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" ref="A11:A93" si="1">ROW()+9998</f>
+        <f t="shared" ref="A11:A94" si="1">ROW()+9998</f>
         <v>10009</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -58258,10 +58266,10 @@
         <v>10049</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>653</v>
+        <v>940</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>67</v>
+        <v>941</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>652</v>
@@ -58279,7 +58287,7 @@
         <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -58330,7 +58338,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -58348,10 +58356,10 @@
         <v>10050</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>666</v>
+        <v>67</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>652</v>
@@ -58369,7 +58377,7 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -58420,7 +58428,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -58438,10 +58446,10 @@
         <v>10051</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>768</v>
+        <v>665</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>771</v>
+        <v>666</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>652</v>
@@ -58459,7 +58467,7 @@
         <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>768</v>
+        <v>665</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -58510,7 +58518,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>768</v>
+        <v>665</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -58528,10 +58536,10 @@
         <v>10052</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>595</v>
+        <v>771</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>652</v>
@@ -58549,7 +58557,7 @@
         <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -58600,7 +58608,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -58618,10 +58626,10 @@
         <v>10053</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>652</v>
@@ -58639,7 +58647,7 @@
         <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -58681,7 +58689,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="5"/>
-      <c r="X55" s="7"/>
+      <c r="X55" s="10"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="5" t="s">
         <v>143</v>
@@ -58690,7 +58698,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -58708,10 +58716,10 @@
         <v>10054</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>907</v>
+        <v>655</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>900</v>
+        <v>598</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>652</v>
@@ -58729,7 +58737,7 @@
         <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>907</v>
+        <v>655</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -58771,7 +58779,7 @@
         <v>3</v>
       </c>
       <c r="W56" s="5"/>
-      <c r="X56" s="10"/>
+      <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="5" t="s">
         <v>143</v>
@@ -58780,7 +58788,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>907</v>
+        <v>655</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -58798,10 +58806,10 @@
         <v>10055</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>652</v>
@@ -58819,7 +58827,7 @@
         <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -58870,7 +58878,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -58888,10 +58896,10 @@
         <v>10056</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>652</v>
@@ -58909,7 +58917,7 @@
         <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -58960,7 +58968,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -58978,10 +58986,10 @@
         <v>10057</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>652</v>
@@ -58999,7 +59007,7 @@
         <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -59050,7 +59058,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -59068,10 +59076,10 @@
         <v>10058</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>652</v>
@@ -59089,7 +59097,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -59140,7 +59148,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -59158,10 +59166,10 @@
         <v>10059</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>664</v>
+        <v>911</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>9</v>
+        <v>904</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>652</v>
@@ -59170,7 +59178,7 @@
         <v>9</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>9</v>
@@ -59179,7 +59187,7 @@
         <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>651</v>
+        <v>911</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -59209,7 +59217,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="T61">
         <v>15</v>
@@ -59221,7 +59229,7 @@
         <v>3</v>
       </c>
       <c r="W61" s="5"/>
-      <c r="X61" s="7"/>
+      <c r="X61" s="10"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="5" t="s">
         <v>143</v>
@@ -59230,7 +59238,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>651</v>
+        <v>911</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -59248,19 +59256,19 @@
         <v>10060</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>938</v>
+        <v>664</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>937</v>
+        <v>652</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>9</v>
@@ -59269,7 +59277,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>938</v>
+        <v>651</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -59299,7 +59307,7 @@
         <v>1</v>
       </c>
       <c r="S62" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="T62">
         <v>15</v>
@@ -59310,10 +59318,8 @@
       <c r="V62">
         <v>3</v>
       </c>
-      <c r="W62" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="X62" s="10"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="5" t="s">
         <v>143</v>
@@ -59322,7 +59328,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>938</v>
+        <v>651</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -59340,10 +59346,10 @@
         <v>10061</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>937</v>
@@ -59352,7 +59358,7 @@
         <v>9</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>803</v>
+        <v>9</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>9</v>
@@ -59402,7 +59408,9 @@
       <c r="V63">
         <v>3</v>
       </c>
-      <c r="W63" s="5"/>
+      <c r="W63" s="5" t="s">
+        <v>936</v>
+      </c>
       <c r="X63" s="10"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="5" t="s">
@@ -59429,29 +59437,90 @@
         <f t="shared" si="0"/>
         <v>10062</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="18">
+        <v>1</v>
+      </c>
+      <c r="N64" s="18">
+        <v>1</v>
+      </c>
+      <c r="O64" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P64" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="18">
+        <v>1</v>
+      </c>
+      <c r="R64" s="18">
+        <v>1</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>15</v>
+      </c>
+      <c r="U64">
+        <v>95</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
       <c r="W64" s="5"/>
-      <c r="X64" s="7"/>
+      <c r="X64" s="10"/>
       <c r="Y64" s="7"/>
-      <c r="Z64" s="5"/>
-      <c r="AB64" s="2"/>
+      <c r="Z64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -59484,95 +59553,32 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10064</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L66" s="2">
-        <v>1</v>
-      </c>
-      <c r="M66" s="18">
-        <v>1</v>
-      </c>
-      <c r="N66" s="18">
-        <v>1</v>
-      </c>
-      <c r="O66" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P66" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="18">
-        <v>1</v>
-      </c>
-      <c r="R66" s="18">
-        <v>1</v>
-      </c>
-      <c r="S66" s="2">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>15</v>
-      </c>
-      <c r="U66">
-        <v>95</v>
-      </c>
-      <c r="V66">
-        <v>3</v>
-      </c>
-      <c r="W66" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="X66" s="10"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="2"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
-      <c r="Z66" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>1</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
+      <c r="Z66" s="5"/>
+      <c r="AB66" s="2"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -59580,10 +59586,10 @@
         <v>10065</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>683</v>
@@ -59592,7 +59598,7 @@
         <v>9</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>927</v>
+        <v>9</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>9</v>
@@ -59601,7 +59607,7 @@
         <v>9</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -59642,7 +59648,9 @@
       <c r="V67">
         <v>3</v>
       </c>
-      <c r="W67" s="5"/>
+      <c r="W67" s="5" t="s">
+        <v>925</v>
+      </c>
       <c r="X67" s="10"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="5" t="s">
@@ -59652,7 +59660,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -59670,19 +59678,19 @@
         <v>10066</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>684</v>
+        <v>928</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>682</v>
+        <v>9</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>9</v>
+        <v>927</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>9</v>
@@ -59691,7 +59699,7 @@
         <v>9</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>684</v>
+        <v>928</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -59732,9 +59740,7 @@
       <c r="V68">
         <v>3</v>
       </c>
-      <c r="W68" s="5" t="s">
-        <v>929</v>
-      </c>
+      <c r="W68" s="5"/>
       <c r="X68" s="10"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="5" t="s">
@@ -59744,7 +59750,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>684</v>
+        <v>928</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -59762,13 +59768,13 @@
         <v>10067</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>9</v>
@@ -59783,7 +59789,7 @@
         <v>9</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -59825,7 +59831,7 @@
         <v>3</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="X69" s="10"/>
       <c r="Y69" s="7"/>
@@ -59836,7 +59842,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -59854,28 +59860,28 @@
         <v>10068</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -59917,7 +59923,7 @@
         <v>3</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>695</v>
+        <v>926</v>
       </c>
       <c r="X70" s="10"/>
       <c r="Y70" s="7"/>
@@ -59928,7 +59934,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -59946,13 +59952,13 @@
         <v>10069</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>687</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>9</v>
@@ -59967,7 +59973,7 @@
         <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -60008,7 +60014,9 @@
       <c r="V71">
         <v>3</v>
       </c>
-      <c r="W71" s="5"/>
+      <c r="W71" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="X71" s="10"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="5" t="s">
@@ -60018,7 +60026,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="2" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -60036,13 +60044,13 @@
         <v>10070</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>687</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>9</v>
@@ -60057,7 +60065,7 @@
         <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -60108,7 +60116,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -60126,13 +60134,13 @@
         <v>10071</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>716</v>
+        <v>687</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>9</v>
@@ -60147,7 +60155,7 @@
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -60198,7 +60206,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -60216,28 +60224,28 @@
         <v>10072</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C74" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -60278,9 +60286,7 @@
       <c r="V74">
         <v>3</v>
       </c>
-      <c r="W74" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="W74" s="5"/>
       <c r="X74" s="10"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="5" t="s">
@@ -60290,7 +60296,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -60308,13 +60314,13 @@
         <v>10073</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>722</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>9</v>
@@ -60329,7 +60335,7 @@
         <v>9</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -60370,7 +60376,9 @@
       <c r="V75">
         <v>3</v>
       </c>
-      <c r="W75" s="5"/>
+      <c r="W75" s="5" t="s">
+        <v>726</v>
+      </c>
       <c r="X75" s="10"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="5" t="s">
@@ -60380,7 +60388,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -60398,13 +60406,13 @@
         <v>10074</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>722</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>9</v>
@@ -60419,7 +60427,7 @@
         <v>9</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
@@ -60470,7 +60478,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -60488,13 +60496,13 @@
         <v>10075</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>100</v>
+        <v>722</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>9</v>
@@ -60509,7 +60517,7 @@
         <v>9</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -60560,7 +60568,7 @@
         <v>0</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -60578,10 +60586,10 @@
         <v>10076</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>881</v>
+        <v>704</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>745</v>
@@ -60590,7 +60598,7 @@
         <v>9</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>852</v>
+        <v>9</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>9</v>
@@ -60668,10 +60676,10 @@
         <v>10077</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>706</v>
+        <v>881</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>745</v>
@@ -60680,7 +60688,7 @@
         <v>9</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>9</v>
+        <v>852</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>9</v>
@@ -60689,7 +60697,7 @@
         <v>9</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -60740,7 +60748,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -60758,10 +60766,10 @@
         <v>10078</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>882</v>
+        <v>706</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>745</v>
@@ -60770,7 +60778,7 @@
         <v>9</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>444</v>
+        <v>9</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>9</v>
@@ -60848,10 +60856,10 @@
         <v>10079</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>708</v>
+        <v>882</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>505</v>
+        <v>9</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>745</v>
@@ -60860,7 +60868,7 @@
         <v>9</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>9</v>
@@ -60869,7 +60877,7 @@
         <v>9</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -60920,7 +60928,7 @@
         <v>0</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -60938,10 +60946,10 @@
         <v>10080</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>9</v>
+        <v>505</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>745</v>
@@ -60950,7 +60958,7 @@
         <v>9</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>703</v>
+        <v>9</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>9</v>
@@ -61027,6 +61035,90 @@
         <f t="shared" si="1"/>
         <v>10081</v>
       </c>
+      <c r="B83" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="18">
+        <v>1</v>
+      </c>
+      <c r="N83" s="18">
+        <v>1</v>
+      </c>
+      <c r="O83" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P83" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="18">
+        <v>1</v>
+      </c>
+      <c r="R83" s="18">
+        <v>1</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>15</v>
+      </c>
+      <c r="U83">
+        <v>95</v>
+      </c>
+      <c r="V83">
+        <v>3</v>
+      </c>
+      <c r="W83" s="5"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -61039,92 +61131,6 @@
         <f t="shared" si="1"/>
         <v>10083</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="J85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L85" s="2">
-        <v>1</v>
-      </c>
-      <c r="M85" s="18">
-        <v>1</v>
-      </c>
-      <c r="N85" s="18">
-        <v>1</v>
-      </c>
-      <c r="O85" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P85" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="18">
-        <v>1</v>
-      </c>
-      <c r="R85" s="18">
-        <v>1</v>
-      </c>
-      <c r="S85" s="2">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>15</v>
-      </c>
-      <c r="U85">
-        <v>95</v>
-      </c>
-      <c r="V85">
-        <v>3</v>
-      </c>
-      <c r="W85" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="7"/>
-      <c r="Z85" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>1</v>
-      </c>
-      <c r="AE85">
-        <v>0</v>
-      </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -61132,10 +61138,10 @@
         <v>10084</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>889</v>
@@ -61153,7 +61159,7 @@
         <v>9</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -61194,7 +61200,9 @@
       <c r="V86">
         <v>3</v>
       </c>
-      <c r="W86" s="5"/>
+      <c r="W86" s="5" t="s">
+        <v>887</v>
+      </c>
       <c r="X86" s="10"/>
       <c r="Y86" s="7"/>
       <c r="Z86" s="5" t="s">
@@ -61204,7 +61212,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -61222,10 +61230,10 @@
         <v>10085</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>889</v>
@@ -61243,7 +61251,7 @@
         <v>9</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
@@ -61294,7 +61302,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -61312,10 +61320,10 @@
         <v>10086</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>447</v>
+        <v>324</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>889</v>
@@ -61333,7 +61341,7 @@
         <v>9</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
@@ -61384,7 +61392,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -61402,10 +61410,10 @@
         <v>10087</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>889</v>
@@ -61423,7 +61431,7 @@
         <v>9</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
@@ -61474,7 +61482,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -61492,10 +61500,10 @@
         <v>10088</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>362</v>
+        <v>893</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>897</v>
+        <v>449</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>889</v>
@@ -61513,7 +61521,7 @@
         <v>9</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>362</v>
+        <v>893</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
@@ -61564,7 +61572,7 @@
         <v>0</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>362</v>
+        <v>893</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -61582,10 +61590,10 @@
         <v>10089</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>894</v>
+        <v>362</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>491</v>
+        <v>897</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>889</v>
@@ -61603,7 +61611,7 @@
         <v>9</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>894</v>
+        <v>362</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
@@ -61654,7 +61662,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="2" t="s">
-        <v>894</v>
+        <v>362</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -61672,10 +61680,10 @@
         <v>10090</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>896</v>
+        <v>491</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>889</v>
@@ -61693,7 +61701,7 @@
         <v>9</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
@@ -61744,7 +61752,7 @@
         <v>0</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -61761,103 +61769,101 @@
         <f t="shared" si="1"/>
         <v>10091</v>
       </c>
+      <c r="B93" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="18">
+        <v>1</v>
+      </c>
+      <c r="N93" s="18">
+        <v>1</v>
+      </c>
+      <c r="O93" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P93" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="18">
+        <v>1</v>
+      </c>
+      <c r="R93" s="18">
+        <v>1</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>15</v>
+      </c>
+      <c r="U93">
+        <v>95</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="W93" s="5"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" ref="A94:A106" si="2">ROW()+9998</f>
+        <f t="shared" si="1"/>
         <v>10092</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A95:A107" si="2">ROW()+9998</f>
         <v>10093</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L95" s="2">
-        <v>1</v>
-      </c>
-      <c r="M95" s="18">
-        <v>1</v>
-      </c>
-      <c r="N95" s="18">
-        <v>1</v>
-      </c>
-      <c r="O95" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P95" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="18">
-        <v>1</v>
-      </c>
-      <c r="R95" s="18">
-        <v>1</v>
-      </c>
-      <c r="S95" s="2">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>15</v>
-      </c>
-      <c r="U95">
-        <v>95</v>
-      </c>
-      <c r="V95">
-        <v>3</v>
-      </c>
-      <c r="W95" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="X95" s="10"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA95">
-        <v>0</v>
-      </c>
-      <c r="AB95" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="AC95">
-        <v>0</v>
-      </c>
-      <c r="AD95">
-        <v>1</v>
-      </c>
-      <c r="AE95">
-        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
@@ -61866,10 +61872,10 @@
         <v>10094</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>899</v>
@@ -61887,7 +61893,7 @@
         <v>9</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="J96" s="2">
         <v>1</v>
@@ -61928,7 +61934,9 @@
       <c r="V96">
         <v>3</v>
       </c>
-      <c r="W96" s="5"/>
+      <c r="W96" s="5" t="s">
+        <v>898</v>
+      </c>
       <c r="X96" s="10"/>
       <c r="Y96" s="7"/>
       <c r="Z96" s="5" t="s">
@@ -61938,7 +61946,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -61956,10 +61964,10 @@
         <v>10095</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>899</v>
@@ -61977,7 +61985,7 @@
         <v>9</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
@@ -62028,7 +62036,7 @@
         <v>0</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -62046,10 +62054,10 @@
         <v>10096</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>899</v>
@@ -62067,7 +62075,7 @@
         <v>9</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
@@ -62118,7 +62126,7 @@
         <v>0</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -62136,10 +62144,10 @@
         <v>10097</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>899</v>
@@ -62157,7 +62165,7 @@
         <v>9</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
@@ -62208,7 +62216,7 @@
         <v>0</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -62226,10 +62234,10 @@
         <v>10098</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>899</v>
@@ -62247,7 +62255,7 @@
         <v>9</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
@@ -62298,7 +62306,7 @@
         <v>0</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -62316,10 +62324,10 @@
         <v>10099</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>9</v>
+        <v>895</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>899</v>
@@ -62328,7 +62336,7 @@
         <v>9</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>444</v>
+        <v>9</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>9</v>
@@ -62337,7 +62345,7 @@
         <v>9</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
@@ -62388,7 +62396,7 @@
         <v>0</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -62406,10 +62414,10 @@
         <v>10100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>562</v>
+        <v>9</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>899</v>
@@ -62418,7 +62426,7 @@
         <v>9</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>9</v>
@@ -62427,7 +62435,7 @@
         <v>9</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J102" s="2">
         <v>1</v>
@@ -62478,7 +62486,7 @@
         <v>0</v>
       </c>
       <c r="AB102" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -62495,6 +62503,90 @@
         <f t="shared" si="2"/>
         <v>10101</v>
       </c>
+      <c r="B103" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L103" s="2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="18">
+        <v>1</v>
+      </c>
+      <c r="N103" s="18">
+        <v>1</v>
+      </c>
+      <c r="O103" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P103" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="18">
+        <v>1</v>
+      </c>
+      <c r="R103" s="18">
+        <v>1</v>
+      </c>
+      <c r="S103" s="2">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>15</v>
+      </c>
+      <c r="U103">
+        <v>95</v>
+      </c>
+      <c r="V103">
+        <v>3</v>
+      </c>
+      <c r="W103" s="5"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>1</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104">
@@ -62507,94 +62599,6 @@
         <f t="shared" si="2"/>
         <v>10103</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L105" s="2">
-        <v>1</v>
-      </c>
-      <c r="M105" s="18">
-        <v>1</v>
-      </c>
-      <c r="N105" s="18">
-        <v>1</v>
-      </c>
-      <c r="O105" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P105" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="18">
-        <v>1</v>
-      </c>
-      <c r="R105" s="18">
-        <v>1</v>
-      </c>
-      <c r="S105" s="2">
-        <v>0</v>
-      </c>
-      <c r="T105">
-        <v>15</v>
-      </c>
-      <c r="U105">
-        <v>95</v>
-      </c>
-      <c r="V105">
-        <v>3</v>
-      </c>
-      <c r="W105" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="X105" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="Y105" s="7"/>
-      <c r="Z105" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA105">
-        <v>0</v>
-      </c>
-      <c r="AB105" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC105">
-        <v>0</v>
-      </c>
-      <c r="AD105">
-        <v>1</v>
-      </c>
-      <c r="AE105">
-        <v>0</v>
-      </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106">
@@ -62602,7 +62606,7 @@
         <v>10104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>9</v>
@@ -62614,7 +62618,7 @@
         <v>9</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>9</v>
@@ -62664,8 +62668,12 @@
       <c r="V106">
         <v>3</v>
       </c>
-      <c r="W106" s="5"/>
-      <c r="X106" s="7"/>
+      <c r="W106" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="X106" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="Y106" s="7"/>
       <c r="Z106" s="5" t="s">
         <v>143</v>
@@ -62683,6 +62691,96 @@
         <v>1</v>
       </c>
       <c r="AE106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>10105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L107" s="2">
+        <v>1</v>
+      </c>
+      <c r="M107" s="18">
+        <v>1</v>
+      </c>
+      <c r="N107" s="18">
+        <v>1</v>
+      </c>
+      <c r="O107" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P107" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="18">
+        <v>1</v>
+      </c>
+      <c r="R107" s="18">
+        <v>1</v>
+      </c>
+      <c r="S107" s="2">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>15</v>
+      </c>
+      <c r="U107">
+        <v>95</v>
+      </c>
+      <c r="V107">
+        <v>3</v>
+      </c>
+      <c r="W107" s="5"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>1</v>
+      </c>
+      <c r="AE107">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28899339-117A-44CC-B19D-51B11EE8316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D624BE0-5801-421C-927C-D014856501A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="720" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -7173,9 +7173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
   <dimension ref="A1:AE538"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T323" sqref="T323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24243,7 +24243,7 @@
         <v>0</v>
       </c>
       <c r="T195">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="U195">
         <v>90</v>
@@ -24611,7 +24611,7 @@
         <v>0</v>
       </c>
       <c r="T199">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="U199">
         <v>60</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="T200">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="U200">
         <v>85</v>
@@ -24795,7 +24795,7 @@
         <v>0</v>
       </c>
       <c r="T201">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="U201">
         <v>75</v>
@@ -24887,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="T202">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="U202">
         <v>85</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="T216">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="U216">
         <v>95</v>
@@ -26125,7 +26125,7 @@
         <v>9999</v>
       </c>
       <c r="T217">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="U217">
         <v>95</v>
@@ -26222,7 +26222,7 @@
         <v>0</v>
       </c>
       <c r="T219">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="U219">
         <v>80</v>
@@ -26316,7 +26316,7 @@
         <v>0</v>
       </c>
       <c r="T220">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="U220">
         <v>80</v>
@@ -31680,7 +31680,7 @@
         <v>0</v>
       </c>
       <c r="T283">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U283">
         <v>70</v>
@@ -31774,7 +31774,7 @@
         <v>0</v>
       </c>
       <c r="T284">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U284">
         <v>70</v>
@@ -31866,7 +31866,7 @@
         <v>0</v>
       </c>
       <c r="T285">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U285">
         <v>95</v>
@@ -31958,7 +31958,7 @@
         <v>0</v>
       </c>
       <c r="T286">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U286">
         <v>95</v>
@@ -32050,7 +32050,7 @@
         <v>0</v>
       </c>
       <c r="T287">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U287">
         <v>95</v>
@@ -32142,7 +32142,7 @@
         <v>0</v>
       </c>
       <c r="T288">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U288">
         <v>95</v>
@@ -32234,7 +32234,7 @@
         <v>0</v>
       </c>
       <c r="T289">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U289">
         <v>95</v>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
       <c r="T290">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U290">
         <v>95</v>
@@ -32418,7 +32418,7 @@
         <v>0</v>
       </c>
       <c r="T291">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U291">
         <v>95</v>
@@ -53847,7 +53847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C910D34-F249-4621-9FD6-68AC406B14AA}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D624BE0-5801-421C-927C-D014856501A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C495150-2F75-4E10-95CD-C2AC1A9FD369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="330" windowWidth="24420" windowHeight="14295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7186" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7540" uniqueCount="1002">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -6712,6 +6712,252 @@
   </si>
   <si>
     <t>suger_supplied</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手作りの温もり</t>
+    <rPh sb="0" eb="2">
+      <t>テヅク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヌク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Warming_Handmade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BakedSweets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Biscotti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bread_Sliced</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chocolate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chocolate_Mat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheeseCake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Castella</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannoli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Candy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crepe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creampuff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coffee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coffee_Mat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Donuts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Financier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jelly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maffin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PanCake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parfe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SumireSuger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rusk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tea_Mat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tea_Potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_Warming_Handmade32</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7173,7 +7419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
   <dimension ref="A1:AE538"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T323" sqref="T323"/>
     </sheetView>
@@ -53845,10 +54091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C910D34-F249-4621-9FD6-68AC406B14AA}">
-  <dimension ref="A1:AE107"/>
+  <dimension ref="A1:AE139"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W91" sqref="W91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54213,7 +54459,7 @@
         <v>15</v>
       </c>
       <c r="U4">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -54303,7 +54549,7 @@
         <v>15</v>
       </c>
       <c r="U5">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V5">
         <v>3</v>
@@ -54393,7 +54639,7 @@
         <v>15</v>
       </c>
       <c r="U6">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V6">
         <v>3</v>
@@ -54483,7 +54729,7 @@
         <v>15</v>
       </c>
       <c r="U7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V7">
         <v>3</v>
@@ -54573,7 +54819,7 @@
         <v>15</v>
       </c>
       <c r="U8">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V8">
         <v>3</v>
@@ -54663,7 +54909,7 @@
         <v>15</v>
       </c>
       <c r="U9">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V9">
         <v>3</v>
@@ -54753,7 +54999,7 @@
         <v>15</v>
       </c>
       <c r="U10">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V10">
         <v>3</v>
@@ -54843,7 +55089,7 @@
         <v>15</v>
       </c>
       <c r="U11">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V11">
         <v>3</v>
@@ -54933,7 +55179,7 @@
         <v>15</v>
       </c>
       <c r="U12">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V12">
         <v>3</v>
@@ -55023,7 +55269,7 @@
         <v>15</v>
       </c>
       <c r="U13">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V13">
         <v>3</v>
@@ -55113,7 +55359,7 @@
         <v>15</v>
       </c>
       <c r="U14">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V14">
         <v>3</v>
@@ -55203,7 +55449,7 @@
         <v>15</v>
       </c>
       <c r="U15">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V15">
         <v>3</v>
@@ -55293,7 +55539,7 @@
         <v>15</v>
       </c>
       <c r="U16">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V16">
         <v>3</v>
@@ -55383,7 +55629,7 @@
         <v>15</v>
       </c>
       <c r="U17">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V17">
         <v>3</v>
@@ -55473,7 +55719,7 @@
         <v>15</v>
       </c>
       <c r="U18">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V18">
         <v>3</v>
@@ -55563,7 +55809,7 @@
         <v>15</v>
       </c>
       <c r="U19">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V19">
         <v>3</v>
@@ -55653,7 +55899,7 @@
         <v>15</v>
       </c>
       <c r="U20">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V20">
         <v>3</v>
@@ -55743,7 +55989,7 @@
         <v>15</v>
       </c>
       <c r="U21">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V21">
         <v>3</v>
@@ -55833,7 +56079,7 @@
         <v>15</v>
       </c>
       <c r="U22">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V22">
         <v>3</v>
@@ -55923,7 +56169,7 @@
         <v>15</v>
       </c>
       <c r="U23">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V23">
         <v>3</v>
@@ -56013,7 +56259,7 @@
         <v>15</v>
       </c>
       <c r="U24">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V24">
         <v>3</v>
@@ -56161,7 +56407,7 @@
         <v>15</v>
       </c>
       <c r="U27">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V27">
         <v>3</v>
@@ -56253,7 +56499,7 @@
         <v>15</v>
       </c>
       <c r="U28">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V28">
         <v>3</v>
@@ -56343,7 +56589,7 @@
         <v>15</v>
       </c>
       <c r="U29">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V29">
         <v>3</v>
@@ -56433,7 +56679,7 @@
         <v>15</v>
       </c>
       <c r="U30">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V30">
         <v>3</v>
@@ -56523,7 +56769,7 @@
         <v>15</v>
       </c>
       <c r="U31">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V31">
         <v>3</v>
@@ -56613,7 +56859,7 @@
         <v>15</v>
       </c>
       <c r="U32">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V32">
         <v>3</v>
@@ -56703,7 +56949,7 @@
         <v>15</v>
       </c>
       <c r="U33">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V33">
         <v>3</v>
@@ -56793,7 +57039,7 @@
         <v>15</v>
       </c>
       <c r="U34">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V34">
         <v>3</v>
@@ -56883,7 +57129,7 @@
         <v>15</v>
       </c>
       <c r="U35">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V35">
         <v>3</v>
@@ -56973,7 +57219,7 @@
         <v>15</v>
       </c>
       <c r="U36">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V36">
         <v>3</v>
@@ -57063,7 +57309,7 @@
         <v>15</v>
       </c>
       <c r="U37">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V37">
         <v>3</v>
@@ -57153,7 +57399,7 @@
         <v>15</v>
       </c>
       <c r="U38">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V38">
         <v>3</v>
@@ -57243,7 +57489,7 @@
         <v>15</v>
       </c>
       <c r="U39">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V39">
         <v>3</v>
@@ -57333,7 +57579,7 @@
         <v>15</v>
       </c>
       <c r="U40">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V40">
         <v>3</v>
@@ -57423,7 +57669,7 @@
         <v>15</v>
       </c>
       <c r="U41">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V41">
         <v>3</v>
@@ -57513,7 +57759,7 @@
         <v>15</v>
       </c>
       <c r="U42">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V42">
         <v>3</v>
@@ -57603,7 +57849,7 @@
         <v>15</v>
       </c>
       <c r="U43">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V43">
         <v>3</v>
@@ -57693,7 +57939,7 @@
         <v>15</v>
       </c>
       <c r="U44">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V44">
         <v>3</v>
@@ -57783,7 +58029,7 @@
         <v>15</v>
       </c>
       <c r="U45">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V45">
         <v>3</v>
@@ -57873,7 +58119,7 @@
         <v>15</v>
       </c>
       <c r="U46">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V46">
         <v>3</v>
@@ -57963,7 +58209,7 @@
         <v>15</v>
       </c>
       <c r="U47">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V47">
         <v>3</v>
@@ -58053,7 +58299,7 @@
         <v>15</v>
       </c>
       <c r="U48">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V48">
         <v>3</v>
@@ -58143,7 +58389,7 @@
         <v>15</v>
       </c>
       <c r="U49">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V49">
         <v>3</v>
@@ -58233,7 +58479,7 @@
         <v>15</v>
       </c>
       <c r="U50">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V50">
         <v>3</v>
@@ -58323,7 +58569,7 @@
         <v>15</v>
       </c>
       <c r="U51">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V51">
         <v>3</v>
@@ -58413,7 +58659,7 @@
         <v>15</v>
       </c>
       <c r="U52">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V52">
         <v>3</v>
@@ -58503,7 +58749,7 @@
         <v>15</v>
       </c>
       <c r="U53">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="V53">
         <v>3</v>
@@ -58593,7 +58839,7 @@
         <v>15</v>
       </c>
       <c r="U54">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="V54">
         <v>3</v>
@@ -58683,7 +58929,7 @@
         <v>15</v>
       </c>
       <c r="U55">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="V55">
         <v>3</v>
@@ -58773,7 +59019,7 @@
         <v>15</v>
       </c>
       <c r="U56">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="V56">
         <v>3</v>
@@ -58863,7 +59109,7 @@
         <v>15</v>
       </c>
       <c r="U57">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V57">
         <v>3</v>
@@ -58953,7 +59199,7 @@
         <v>15</v>
       </c>
       <c r="U58">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V58">
         <v>3</v>
@@ -59043,7 +59289,7 @@
         <v>15</v>
       </c>
       <c r="U59">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="V59">
         <v>3</v>
@@ -59133,7 +59379,7 @@
         <v>15</v>
       </c>
       <c r="U60">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="V60">
         <v>3</v>
@@ -59223,7 +59469,7 @@
         <v>15</v>
       </c>
       <c r="U61">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="V61">
         <v>3</v>
@@ -59313,7 +59559,7 @@
         <v>15</v>
       </c>
       <c r="U62">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V62">
         <v>3</v>
@@ -59403,7 +59649,7 @@
         <v>15</v>
       </c>
       <c r="U63">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="V63">
         <v>3</v>
@@ -59495,7 +59741,7 @@
         <v>15</v>
       </c>
       <c r="U64">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="V64">
         <v>3</v>
@@ -59917,7 +60163,7 @@
         <v>15</v>
       </c>
       <c r="U70">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V70">
         <v>3</v>
@@ -61195,7 +61441,7 @@
         <v>15</v>
       </c>
       <c r="U86">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V86">
         <v>3</v>
@@ -61287,7 +61533,7 @@
         <v>15</v>
       </c>
       <c r="U87">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V87">
         <v>3</v>
@@ -61377,7 +61623,7 @@
         <v>15</v>
       </c>
       <c r="U88">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V88">
         <v>3</v>
@@ -61467,7 +61713,7 @@
         <v>15</v>
       </c>
       <c r="U89">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V89">
         <v>3</v>
@@ -61557,7 +61803,7 @@
         <v>15</v>
       </c>
       <c r="U90">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V90">
         <v>3</v>
@@ -61647,7 +61893,7 @@
         <v>15</v>
       </c>
       <c r="U91">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V91">
         <v>3</v>
@@ -61737,7 +61983,7 @@
         <v>15</v>
       </c>
       <c r="U92">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V92">
         <v>3</v>
@@ -61827,7 +62073,7 @@
         <v>15</v>
       </c>
       <c r="U93">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V93">
         <v>3</v>
@@ -61862,7 +62108,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" ref="A95:A107" si="2">ROW()+9998</f>
+        <f t="shared" ref="A95:A139" si="2">ROW()+9998</f>
         <v>10093</v>
       </c>
     </row>
@@ -61929,7 +62175,7 @@
         <v>15</v>
       </c>
       <c r="U96">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V96">
         <v>3</v>
@@ -62021,7 +62267,7 @@
         <v>15</v>
       </c>
       <c r="U97">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V97">
         <v>3</v>
@@ -62111,7 +62357,7 @@
         <v>15</v>
       </c>
       <c r="U98">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V98">
         <v>3</v>
@@ -62201,7 +62447,7 @@
         <v>15</v>
       </c>
       <c r="U99">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V99">
         <v>3</v>
@@ -62291,7 +62537,7 @@
         <v>15</v>
       </c>
       <c r="U100">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V100">
         <v>3</v>
@@ -62381,7 +62627,7 @@
         <v>15</v>
       </c>
       <c r="U101">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V101">
         <v>3</v>
@@ -62471,7 +62717,7 @@
         <v>15</v>
       </c>
       <c r="U102">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V102">
         <v>3</v>
@@ -62561,7 +62807,7 @@
         <v>15</v>
       </c>
       <c r="U103">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V103">
         <v>3</v>
@@ -62663,7 +62909,7 @@
         <v>15</v>
       </c>
       <c r="U106">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="V106">
         <v>3</v>
@@ -62757,7 +63003,7 @@
         <v>15</v>
       </c>
       <c r="U107">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="V107">
         <v>3</v>
@@ -62781,6 +63027,2890 @@
         <v>1</v>
       </c>
       <c r="AE107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>10106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J108" s="2">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L108" s="2">
+        <v>1</v>
+      </c>
+      <c r="M108" s="18">
+        <v>1</v>
+      </c>
+      <c r="N108" s="18">
+        <v>1</v>
+      </c>
+      <c r="O108" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P108" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="18">
+        <v>1</v>
+      </c>
+      <c r="R108" s="18">
+        <v>1</v>
+      </c>
+      <c r="S108" s="2">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>15</v>
+      </c>
+      <c r="U108">
+        <v>75</v>
+      </c>
+      <c r="V108">
+        <v>3</v>
+      </c>
+      <c r="W108" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="X108" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="Y108" s="7"/>
+      <c r="Z108" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>1</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>10107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L109" s="2">
+        <v>1</v>
+      </c>
+      <c r="M109" s="18">
+        <v>1</v>
+      </c>
+      <c r="N109" s="18">
+        <v>1</v>
+      </c>
+      <c r="O109" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P109" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="18">
+        <v>1</v>
+      </c>
+      <c r="R109" s="18">
+        <v>1</v>
+      </c>
+      <c r="S109" s="2">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>15</v>
+      </c>
+      <c r="U109">
+        <v>75</v>
+      </c>
+      <c r="V109">
+        <v>3</v>
+      </c>
+      <c r="W109" s="5"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>1</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>10108</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L110" s="2">
+        <v>1</v>
+      </c>
+      <c r="M110" s="18">
+        <v>1</v>
+      </c>
+      <c r="N110" s="18">
+        <v>1</v>
+      </c>
+      <c r="O110" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P110" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="18">
+        <v>1</v>
+      </c>
+      <c r="R110" s="18">
+        <v>1</v>
+      </c>
+      <c r="S110" s="2">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>15</v>
+      </c>
+      <c r="U110">
+        <v>75</v>
+      </c>
+      <c r="V110">
+        <v>3</v>
+      </c>
+      <c r="W110" s="5"/>
+      <c r="X110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>1</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>10109</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L111" s="2">
+        <v>1</v>
+      </c>
+      <c r="M111" s="18">
+        <v>1</v>
+      </c>
+      <c r="N111" s="18">
+        <v>1</v>
+      </c>
+      <c r="O111" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P111" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="18">
+        <v>1</v>
+      </c>
+      <c r="R111" s="18">
+        <v>1</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>15</v>
+      </c>
+      <c r="U111">
+        <v>75</v>
+      </c>
+      <c r="V111">
+        <v>3</v>
+      </c>
+      <c r="W111" s="5"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>1</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>10110</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1</v>
+      </c>
+      <c r="M112" s="18">
+        <v>1</v>
+      </c>
+      <c r="N112" s="18">
+        <v>1</v>
+      </c>
+      <c r="O112" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P112" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="18">
+        <v>1</v>
+      </c>
+      <c r="R112" s="18">
+        <v>1</v>
+      </c>
+      <c r="S112" s="2">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>15</v>
+      </c>
+      <c r="U112">
+        <v>75</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112" s="5"/>
+      <c r="X112" s="7"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>1</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>10111</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L113" s="2">
+        <v>1</v>
+      </c>
+      <c r="M113" s="18">
+        <v>1</v>
+      </c>
+      <c r="N113" s="18">
+        <v>1</v>
+      </c>
+      <c r="O113" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P113" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="18">
+        <v>1</v>
+      </c>
+      <c r="R113" s="18">
+        <v>1</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>15</v>
+      </c>
+      <c r="U113">
+        <v>75</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113" s="5"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>1</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>10112</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L114" s="2">
+        <v>1</v>
+      </c>
+      <c r="M114" s="18">
+        <v>1</v>
+      </c>
+      <c r="N114" s="18">
+        <v>1</v>
+      </c>
+      <c r="O114" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P114" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="18">
+        <v>1</v>
+      </c>
+      <c r="R114" s="18">
+        <v>1</v>
+      </c>
+      <c r="S114" s="2">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>15</v>
+      </c>
+      <c r="U114">
+        <v>75</v>
+      </c>
+      <c r="V114">
+        <v>3</v>
+      </c>
+      <c r="W114" s="5"/>
+      <c r="X114" s="7"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>1</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>10113</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J115" s="2">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L115" s="2">
+        <v>1</v>
+      </c>
+      <c r="M115" s="18">
+        <v>1</v>
+      </c>
+      <c r="N115" s="18">
+        <v>1</v>
+      </c>
+      <c r="O115" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P115" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="18">
+        <v>1</v>
+      </c>
+      <c r="R115" s="18">
+        <v>1</v>
+      </c>
+      <c r="S115" s="2">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>15</v>
+      </c>
+      <c r="U115">
+        <v>75</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="W115" s="5"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>1</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>10114</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L116" s="2">
+        <v>1</v>
+      </c>
+      <c r="M116" s="18">
+        <v>1</v>
+      </c>
+      <c r="N116" s="18">
+        <v>1</v>
+      </c>
+      <c r="O116" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P116" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="18">
+        <v>1</v>
+      </c>
+      <c r="R116" s="18">
+        <v>1</v>
+      </c>
+      <c r="S116" s="2">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>15</v>
+      </c>
+      <c r="U116">
+        <v>75</v>
+      </c>
+      <c r="V116">
+        <v>3</v>
+      </c>
+      <c r="W116" s="5"/>
+      <c r="X116" s="7"/>
+      <c r="Y116" s="7"/>
+      <c r="Z116" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>1</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>10115</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L117" s="2">
+        <v>1</v>
+      </c>
+      <c r="M117" s="18">
+        <v>1</v>
+      </c>
+      <c r="N117" s="18">
+        <v>1</v>
+      </c>
+      <c r="O117" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P117" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="18">
+        <v>1</v>
+      </c>
+      <c r="R117" s="18">
+        <v>1</v>
+      </c>
+      <c r="S117" s="2">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>15</v>
+      </c>
+      <c r="U117">
+        <v>75</v>
+      </c>
+      <c r="V117">
+        <v>3</v>
+      </c>
+      <c r="W117" s="5"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>1</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>10116</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J118" s="2">
+        <v>1</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L118" s="2">
+        <v>1</v>
+      </c>
+      <c r="M118" s="18">
+        <v>1</v>
+      </c>
+      <c r="N118" s="18">
+        <v>1</v>
+      </c>
+      <c r="O118" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P118" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="18">
+        <v>1</v>
+      </c>
+      <c r="R118" s="18">
+        <v>1</v>
+      </c>
+      <c r="S118" s="2">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>15</v>
+      </c>
+      <c r="U118">
+        <v>75</v>
+      </c>
+      <c r="V118">
+        <v>3</v>
+      </c>
+      <c r="W118" s="5"/>
+      <c r="X118" s="7"/>
+      <c r="Y118" s="7"/>
+      <c r="Z118" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>1</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>10117</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L119" s="2">
+        <v>1</v>
+      </c>
+      <c r="M119" s="18">
+        <v>1</v>
+      </c>
+      <c r="N119" s="18">
+        <v>1</v>
+      </c>
+      <c r="O119" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P119" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="18">
+        <v>1</v>
+      </c>
+      <c r="R119" s="18">
+        <v>1</v>
+      </c>
+      <c r="S119" s="2">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>15</v>
+      </c>
+      <c r="U119">
+        <v>75</v>
+      </c>
+      <c r="V119">
+        <v>3</v>
+      </c>
+      <c r="W119" s="5"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>1</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>10118</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L120" s="2">
+        <v>1</v>
+      </c>
+      <c r="M120" s="18">
+        <v>1</v>
+      </c>
+      <c r="N120" s="18">
+        <v>1</v>
+      </c>
+      <c r="O120" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P120" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="18">
+        <v>1</v>
+      </c>
+      <c r="R120" s="18">
+        <v>1</v>
+      </c>
+      <c r="S120" s="2">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>15</v>
+      </c>
+      <c r="U120">
+        <v>75</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120" s="5"/>
+      <c r="X120" s="7"/>
+      <c r="Y120" s="7"/>
+      <c r="Z120" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>1</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>10119</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J121" s="2">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L121" s="2">
+        <v>1</v>
+      </c>
+      <c r="M121" s="18">
+        <v>1</v>
+      </c>
+      <c r="N121" s="18">
+        <v>1</v>
+      </c>
+      <c r="O121" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P121" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="18">
+        <v>1</v>
+      </c>
+      <c r="R121" s="18">
+        <v>1</v>
+      </c>
+      <c r="S121" s="2">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>15</v>
+      </c>
+      <c r="U121">
+        <v>75</v>
+      </c>
+      <c r="V121">
+        <v>3</v>
+      </c>
+      <c r="W121" s="5"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>1</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>10120</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J122" s="2">
+        <v>1</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L122" s="2">
+        <v>1</v>
+      </c>
+      <c r="M122" s="18">
+        <v>1</v>
+      </c>
+      <c r="N122" s="18">
+        <v>1</v>
+      </c>
+      <c r="O122" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P122" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="18">
+        <v>1</v>
+      </c>
+      <c r="R122" s="18">
+        <v>1</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>15</v>
+      </c>
+      <c r="U122">
+        <v>75</v>
+      </c>
+      <c r="V122">
+        <v>3</v>
+      </c>
+      <c r="W122" s="5"/>
+      <c r="X122" s="7"/>
+      <c r="Y122" s="7"/>
+      <c r="Z122" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>1</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>10121</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L123" s="2">
+        <v>1</v>
+      </c>
+      <c r="M123" s="18">
+        <v>1</v>
+      </c>
+      <c r="N123" s="18">
+        <v>1</v>
+      </c>
+      <c r="O123" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P123" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="18">
+        <v>1</v>
+      </c>
+      <c r="R123" s="18">
+        <v>1</v>
+      </c>
+      <c r="S123" s="2">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>15</v>
+      </c>
+      <c r="U123">
+        <v>75</v>
+      </c>
+      <c r="V123">
+        <v>3</v>
+      </c>
+      <c r="W123" s="5"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
+        <v>1</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>10122</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L124" s="2">
+        <v>1</v>
+      </c>
+      <c r="M124" s="18">
+        <v>1</v>
+      </c>
+      <c r="N124" s="18">
+        <v>1</v>
+      </c>
+      <c r="O124" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P124" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="18">
+        <v>1</v>
+      </c>
+      <c r="R124" s="18">
+        <v>1</v>
+      </c>
+      <c r="S124" s="2">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>15</v>
+      </c>
+      <c r="U124">
+        <v>75</v>
+      </c>
+      <c r="V124">
+        <v>3</v>
+      </c>
+      <c r="W124" s="5"/>
+      <c r="X124" s="7"/>
+      <c r="Y124" s="7"/>
+      <c r="Z124" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>1</v>
+      </c>
+      <c r="AE124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>10123</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L125" s="2">
+        <v>1</v>
+      </c>
+      <c r="M125" s="18">
+        <v>1</v>
+      </c>
+      <c r="N125" s="18">
+        <v>1</v>
+      </c>
+      <c r="O125" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P125" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="18">
+        <v>1</v>
+      </c>
+      <c r="R125" s="18">
+        <v>1</v>
+      </c>
+      <c r="S125" s="2">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>15</v>
+      </c>
+      <c r="U125">
+        <v>75</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125" s="5"/>
+      <c r="X125" s="7"/>
+      <c r="Y125" s="7"/>
+      <c r="Z125" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>1</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>10124</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J126" s="2">
+        <v>1</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L126" s="2">
+        <v>1</v>
+      </c>
+      <c r="M126" s="18">
+        <v>1</v>
+      </c>
+      <c r="N126" s="18">
+        <v>1</v>
+      </c>
+      <c r="O126" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P126" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="18">
+        <v>1</v>
+      </c>
+      <c r="R126" s="18">
+        <v>1</v>
+      </c>
+      <c r="S126" s="2">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>15</v>
+      </c>
+      <c r="U126">
+        <v>75</v>
+      </c>
+      <c r="V126">
+        <v>3</v>
+      </c>
+      <c r="W126" s="5"/>
+      <c r="X126" s="7"/>
+      <c r="Y126" s="7"/>
+      <c r="Z126" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>1</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>10125</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J127" s="2">
+        <v>1</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L127" s="2">
+        <v>1</v>
+      </c>
+      <c r="M127" s="18">
+        <v>1</v>
+      </c>
+      <c r="N127" s="18">
+        <v>1</v>
+      </c>
+      <c r="O127" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P127" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="18">
+        <v>1</v>
+      </c>
+      <c r="R127" s="18">
+        <v>1</v>
+      </c>
+      <c r="S127" s="2">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>15</v>
+      </c>
+      <c r="U127">
+        <v>75</v>
+      </c>
+      <c r="V127">
+        <v>3</v>
+      </c>
+      <c r="W127" s="5"/>
+      <c r="X127" s="7"/>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>1</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>10126</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L128" s="2">
+        <v>1</v>
+      </c>
+      <c r="M128" s="18">
+        <v>1</v>
+      </c>
+      <c r="N128" s="18">
+        <v>1</v>
+      </c>
+      <c r="O128" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P128" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="18">
+        <v>1</v>
+      </c>
+      <c r="R128" s="18">
+        <v>1</v>
+      </c>
+      <c r="S128" s="2">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>15</v>
+      </c>
+      <c r="U128">
+        <v>75</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128" s="5"/>
+      <c r="X128" s="7"/>
+      <c r="Y128" s="7"/>
+      <c r="Z128" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
+        <v>1</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>10127</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L129" s="2">
+        <v>1</v>
+      </c>
+      <c r="M129" s="18">
+        <v>1</v>
+      </c>
+      <c r="N129" s="18">
+        <v>1</v>
+      </c>
+      <c r="O129" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P129" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="18">
+        <v>1</v>
+      </c>
+      <c r="R129" s="18">
+        <v>1</v>
+      </c>
+      <c r="S129" s="2">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>15</v>
+      </c>
+      <c r="U129">
+        <v>75</v>
+      </c>
+      <c r="V129">
+        <v>3</v>
+      </c>
+      <c r="W129" s="5"/>
+      <c r="X129" s="7"/>
+      <c r="Y129" s="7"/>
+      <c r="Z129" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
+        <v>1</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>10128</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J130" s="2">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L130" s="2">
+        <v>1</v>
+      </c>
+      <c r="M130" s="18">
+        <v>1</v>
+      </c>
+      <c r="N130" s="18">
+        <v>1</v>
+      </c>
+      <c r="O130" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P130" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="18">
+        <v>1</v>
+      </c>
+      <c r="R130" s="18">
+        <v>1</v>
+      </c>
+      <c r="S130" s="2">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>15</v>
+      </c>
+      <c r="U130">
+        <v>75</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130" s="5"/>
+      <c r="X130" s="7"/>
+      <c r="Y130" s="7"/>
+      <c r="Z130" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
+        <v>1</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>10129</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L131" s="2">
+        <v>1</v>
+      </c>
+      <c r="M131" s="18">
+        <v>1</v>
+      </c>
+      <c r="N131" s="18">
+        <v>1</v>
+      </c>
+      <c r="O131" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P131" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="18">
+        <v>1</v>
+      </c>
+      <c r="R131" s="18">
+        <v>1</v>
+      </c>
+      <c r="S131" s="2">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>15</v>
+      </c>
+      <c r="U131">
+        <v>75</v>
+      </c>
+      <c r="V131">
+        <v>3</v>
+      </c>
+      <c r="W131" s="5"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>1</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>10130</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L132" s="2">
+        <v>1</v>
+      </c>
+      <c r="M132" s="18">
+        <v>1</v>
+      </c>
+      <c r="N132" s="18">
+        <v>1</v>
+      </c>
+      <c r="O132" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P132" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="18">
+        <v>1</v>
+      </c>
+      <c r="R132" s="18">
+        <v>1</v>
+      </c>
+      <c r="S132" s="2">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>15</v>
+      </c>
+      <c r="U132">
+        <v>75</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132" s="5"/>
+      <c r="X132" s="7"/>
+      <c r="Y132" s="7"/>
+      <c r="Z132" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>1</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>10131</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L133" s="2">
+        <v>1</v>
+      </c>
+      <c r="M133" s="18">
+        <v>1</v>
+      </c>
+      <c r="N133" s="18">
+        <v>1</v>
+      </c>
+      <c r="O133" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P133" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="18">
+        <v>1</v>
+      </c>
+      <c r="R133" s="18">
+        <v>1</v>
+      </c>
+      <c r="S133" s="2">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>15</v>
+      </c>
+      <c r="U133">
+        <v>75</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133" s="5"/>
+      <c r="X133" s="7"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>1</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>10132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L134" s="2">
+        <v>1</v>
+      </c>
+      <c r="M134" s="18">
+        <v>1</v>
+      </c>
+      <c r="N134" s="18">
+        <v>1</v>
+      </c>
+      <c r="O134" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P134" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="18">
+        <v>1</v>
+      </c>
+      <c r="R134" s="18">
+        <v>1</v>
+      </c>
+      <c r="S134" s="2">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>15</v>
+      </c>
+      <c r="U134">
+        <v>75</v>
+      </c>
+      <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134" s="5"/>
+      <c r="X134" s="7"/>
+      <c r="Y134" s="7"/>
+      <c r="Z134" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
+        <v>1</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>10133</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J135" s="2">
+        <v>1</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L135" s="2">
+        <v>1</v>
+      </c>
+      <c r="M135" s="18">
+        <v>1</v>
+      </c>
+      <c r="N135" s="18">
+        <v>1</v>
+      </c>
+      <c r="O135" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P135" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="18">
+        <v>1</v>
+      </c>
+      <c r="R135" s="18">
+        <v>1</v>
+      </c>
+      <c r="S135" s="2">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>15</v>
+      </c>
+      <c r="U135">
+        <v>75</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135" s="5"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>1</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>10134</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J136" s="2">
+        <v>1</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L136" s="2">
+        <v>1</v>
+      </c>
+      <c r="M136" s="18">
+        <v>1</v>
+      </c>
+      <c r="N136" s="18">
+        <v>1</v>
+      </c>
+      <c r="O136" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P136" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="18">
+        <v>1</v>
+      </c>
+      <c r="R136" s="18">
+        <v>1</v>
+      </c>
+      <c r="S136" s="2">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>15</v>
+      </c>
+      <c r="U136">
+        <v>75</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136" s="5"/>
+      <c r="X136" s="7"/>
+      <c r="Y136" s="7"/>
+      <c r="Z136" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>1</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>10135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L137" s="2">
+        <v>1</v>
+      </c>
+      <c r="M137" s="18">
+        <v>1</v>
+      </c>
+      <c r="N137" s="18">
+        <v>1</v>
+      </c>
+      <c r="O137" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P137" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="18">
+        <v>1</v>
+      </c>
+      <c r="R137" s="18">
+        <v>1</v>
+      </c>
+      <c r="S137" s="2">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>15</v>
+      </c>
+      <c r="U137">
+        <v>75</v>
+      </c>
+      <c r="V137">
+        <v>3</v>
+      </c>
+      <c r="W137" s="5"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>1</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>10136</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J138" s="2">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1</v>
+      </c>
+      <c r="M138" s="18">
+        <v>1</v>
+      </c>
+      <c r="N138" s="18">
+        <v>1</v>
+      </c>
+      <c r="O138" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P138" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="18">
+        <v>1</v>
+      </c>
+      <c r="R138" s="18">
+        <v>1</v>
+      </c>
+      <c r="S138" s="2">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>15</v>
+      </c>
+      <c r="U138">
+        <v>75</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138" s="5"/>
+      <c r="X138" s="7"/>
+      <c r="Y138" s="7"/>
+      <c r="Z138" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>1</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>10137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J139" s="2">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L139" s="2">
+        <v>1</v>
+      </c>
+      <c r="M139" s="18">
+        <v>1</v>
+      </c>
+      <c r="N139" s="18">
+        <v>1</v>
+      </c>
+      <c r="O139" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P139" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="18">
+        <v>1</v>
+      </c>
+      <c r="R139" s="18">
+        <v>1</v>
+      </c>
+      <c r="S139" s="2">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>15</v>
+      </c>
+      <c r="U139">
+        <v>75</v>
+      </c>
+      <c r="V139">
+        <v>3</v>
+      </c>
+      <c r="W139" s="5"/>
+      <c r="X139" s="7"/>
+      <c r="Y139" s="7"/>
+      <c r="Z139" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>1</v>
+      </c>
+      <c r="AE139">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C495150-2F75-4E10-95CD-C2AC1A9FD369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E552805-69C1-4F7C-8486-DDA11970772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="330" windowWidth="24420" windowHeight="14295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7540" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7551" uniqueCount="1003">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -6958,6 +6958,10 @@
   </si>
   <si>
     <t>Cookie_Warming_Handmade32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice_cube_Free</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7419,9 +7423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
   <dimension ref="A1:AE538"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T323" sqref="T323"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T449" sqref="T449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46180,7 +46184,7 @@
         <v>0</v>
       </c>
       <c r="T448">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="U448">
         <v>80</v>
@@ -46274,7 +46278,7 @@
         <v>0</v>
       </c>
       <c r="T449">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U449">
         <v>95</v>
@@ -46366,7 +46370,7 @@
         <v>0</v>
       </c>
       <c r="T450">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U450">
         <v>95</v>
@@ -46458,7 +46462,7 @@
         <v>0</v>
       </c>
       <c r="T451">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U451">
         <v>95</v>
@@ -46550,7 +46554,7 @@
         <v>0</v>
       </c>
       <c r="T452">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U452">
         <v>95</v>
@@ -46642,7 +46646,7 @@
         <v>0</v>
       </c>
       <c r="T453">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U453">
         <v>95</v>
@@ -46734,7 +46738,7 @@
         <v>0</v>
       </c>
       <c r="T454">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U454">
         <v>95</v>
@@ -46826,7 +46830,7 @@
         <v>0</v>
       </c>
       <c r="T455">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U455">
         <v>95</v>
@@ -46918,7 +46922,7 @@
         <v>0</v>
       </c>
       <c r="T456">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U456">
         <v>95</v>
@@ -47010,7 +47014,7 @@
         <v>0</v>
       </c>
       <c r="T457">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U457">
         <v>95</v>
@@ -47102,7 +47106,7 @@
         <v>0</v>
       </c>
       <c r="T458">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U458">
         <v>95</v>
@@ -47194,7 +47198,7 @@
         <v>0</v>
       </c>
       <c r="T459">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U459">
         <v>95</v>
@@ -47286,7 +47290,7 @@
         <v>0</v>
       </c>
       <c r="T460">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="U460">
         <v>95</v>
@@ -54091,10 +54095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C910D34-F249-4621-9FD6-68AC406B14AA}">
-  <dimension ref="A1:AE139"/>
+  <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W91" sqref="W91"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54362,7 +54366,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="U3">
         <v>80</v>
@@ -54398,7 +54402,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A66" si="0">ROW()+9998</f>
+        <f t="shared" ref="A4:A67" si="0">ROW()+9998</f>
         <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -54456,7 +54460,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="U4">
         <v>80</v>
@@ -54492,10 +54496,10 @@
         <v>10003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>705</v>
+        <v>1002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>704</v>
+        <v>9</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>656</v>
@@ -54504,7 +54508,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>9</v>
+        <v>852</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>9</v>
@@ -54513,7 +54517,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -54546,7 +54550,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="U5">
         <v>80</v>
@@ -54564,7 +54568,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -54582,10 +54586,10 @@
         <v>10004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>505</v>
+        <v>704</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>656</v>
@@ -54603,7 +54607,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -54636,7 +54640,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="U6">
         <v>80</v>
@@ -54654,7 +54658,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="AC6">
         <v>1</v>
@@ -54672,10 +54676,10 @@
         <v>10005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>9</v>
+        <v>505</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>656</v>
@@ -54684,7 +54688,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>703</v>
+        <v>9</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>9</v>
@@ -54726,7 +54730,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="U7">
         <v>80</v>
@@ -54747,7 +54751,7 @@
         <v>701</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -54762,10 +54766,10 @@
         <v>10006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>708</v>
+        <v>9</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>656</v>
@@ -54774,7 +54778,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>9</v>
+        <v>703</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>9</v>
@@ -54783,7 +54787,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -54816,7 +54820,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="U8">
         <v>80</v>
@@ -54834,10 +54838,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -54852,10 +54856,10 @@
         <v>10007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>708</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>656</v>
@@ -54873,7 +54877,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -54906,7 +54910,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="U9">
         <v>80</v>
@@ -54924,7 +54928,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -54942,10 +54946,10 @@
         <v>10008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>706</v>
+        <v>65</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>656</v>
@@ -54963,7 +54967,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -54996,7 +55000,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="U10">
         <v>80</v>
@@ -55014,7 +55018,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -55028,14 +55032,14 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" ref="A11:A94" si="1">ROW()+9998</f>
+        <f t="shared" si="0"/>
         <v>10009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>656</v>
@@ -55053,7 +55057,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -55086,7 +55090,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="U11">
         <v>80</v>
@@ -55104,7 +55108,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -55118,14 +55122,14 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A12:A95" si="1">ROW()+9998</f>
         <v>10010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>656</v>
@@ -55143,7 +55147,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -55194,7 +55198,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -55212,10 +55216,10 @@
         <v>10011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>656</v>
@@ -55233,7 +55237,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -55284,7 +55288,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -55302,10 +55306,10 @@
         <v>10012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>656</v>
@@ -55323,7 +55327,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -55374,7 +55378,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -55392,10 +55396,10 @@
         <v>10013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>656</v>
@@ -55413,7 +55417,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -55443,7 +55447,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>15</v>
@@ -55464,7 +55468,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -55482,10 +55486,10 @@
         <v>10014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>656</v>
@@ -55503,7 +55507,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -55554,7 +55558,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -55572,10 +55576,10 @@
         <v>10015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>656</v>
@@ -55593,7 +55597,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -55644,7 +55648,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AC17">
         <v>1</v>
@@ -55662,10 +55666,10 @@
         <v>10016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>656</v>
@@ -55683,7 +55687,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -55713,7 +55717,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="T18">
         <v>15</v>
@@ -55734,7 +55738,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -55752,10 +55756,10 @@
         <v>10017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>656</v>
@@ -55773,7 +55777,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -55824,7 +55828,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="AC19">
         <v>1</v>
@@ -55842,10 +55846,10 @@
         <v>10018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>656</v>
@@ -55863,7 +55867,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -55914,7 +55918,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AC20">
         <v>1</v>
@@ -55932,10 +55936,10 @@
         <v>10019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>656</v>
@@ -55953,7 +55957,7 @@
         <v>9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -56004,7 +56008,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -56022,10 +56026,10 @@
         <v>10020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>656</v>
@@ -56043,7 +56047,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -56073,7 +56077,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>15</v>
@@ -56094,7 +56098,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AC22">
         <v>1</v>
@@ -56112,10 +56116,10 @@
         <v>10021</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>656</v>
@@ -56133,7 +56137,7 @@
         <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -56184,7 +56188,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AC23">
         <v>1</v>
@@ -56202,10 +56206,10 @@
         <v>10022</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>656</v>
@@ -56223,7 +56227,7 @@
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -56274,7 +56278,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -56291,29 +56295,90 @@
         <f t="shared" si="1"/>
         <v>10023</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1</v>
+      </c>
+      <c r="O25" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P25" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>1</v>
+      </c>
+      <c r="R25" s="18">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>9999</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <v>80</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
       <c r="W25" s="5"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="5"/>
-      <c r="AB25" s="2"/>
+      <c r="Z25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -56346,95 +56411,32 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10025</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="18">
-        <v>1</v>
-      </c>
-      <c r="N27" s="18">
-        <v>1</v>
-      </c>
-      <c r="O27" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P27" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="18">
-        <v>1</v>
-      </c>
-      <c r="R27" s="18">
-        <v>1</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>15</v>
-      </c>
-      <c r="U27">
-        <v>75</v>
-      </c>
-      <c r="V27">
-        <v>3</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="2"/>
+      <c r="W27" s="5"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
+      <c r="Z27" s="5"/>
+      <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -56442,10 +56444,10 @@
         <v>10026</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>649</v>
@@ -56454,7 +56456,7 @@
         <v>9</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>660</v>
+        <v>9</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>9</v>
@@ -56504,7 +56506,9 @@
       <c r="V28">
         <v>3</v>
       </c>
-      <c r="W28" s="5"/>
+      <c r="W28" s="5" t="s">
+        <v>686</v>
+      </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="5" t="s">
@@ -56532,10 +56536,10 @@
         <v>10027</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>649</v>
@@ -56544,7 +56548,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>9</v>
+        <v>660</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>9</v>
@@ -56553,7 +56557,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -56604,7 +56608,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -56622,10 +56626,10 @@
         <v>10028</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>649</v>
@@ -56634,7 +56638,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>662</v>
+        <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>9</v>
@@ -56712,10 +56716,10 @@
         <v>10029</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>867</v>
+        <v>663</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>649</v>
@@ -56724,7 +56728,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>9</v>
+        <v>662</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>9</v>
@@ -56733,7 +56737,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>867</v>
+        <v>650</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -56784,7 +56788,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>867</v>
+        <v>650</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -56802,10 +56806,10 @@
         <v>10030</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>913</v>
+        <v>15</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>649</v>
@@ -56823,7 +56827,7 @@
         <v>9</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -56874,7 +56878,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -56892,10 +56896,10 @@
         <v>10031</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>874</v>
+        <v>912</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>9</v>
+        <v>913</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>649</v>
@@ -56904,7 +56908,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>783</v>
+        <v>9</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>9</v>
@@ -56913,7 +56917,7 @@
         <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>867</v>
+        <v>912</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -56964,7 +56968,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>867</v>
+        <v>912</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -56982,10 +56986,10 @@
         <v>10032</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>649</v>
@@ -56994,7 +56998,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>9</v>
+        <v>783</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>9</v>
@@ -57003,7 +57007,7 @@
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -57054,7 +57058,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -57072,10 +57076,10 @@
         <v>10033</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>649</v>
@@ -57084,7 +57088,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>806</v>
+        <v>9</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>9</v>
@@ -57162,10 +57166,10 @@
         <v>10034</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>649</v>
@@ -57174,7 +57178,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>9</v>
+        <v>806</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>9</v>
@@ -57183,7 +57187,7 @@
         <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -57234,7 +57238,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -57252,10 +57256,10 @@
         <v>10035</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>649</v>
@@ -57264,7 +57268,7 @@
         <v>9</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>672</v>
+        <v>9</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>9</v>
@@ -57342,10 +57346,10 @@
         <v>10036</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>374</v>
+        <v>9</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>649</v>
@@ -57354,7 +57358,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>9</v>
+        <v>672</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>9</v>
@@ -57363,7 +57367,7 @@
         <v>9</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -57414,7 +57418,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -57432,10 +57436,10 @@
         <v>10037</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>9</v>
+        <v>374</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>649</v>
@@ -57444,7 +57448,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>794</v>
+        <v>9</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>9</v>
@@ -57522,10 +57526,10 @@
         <v>10038</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>469</v>
+        <v>9</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>649</v>
@@ -57534,7 +57538,7 @@
         <v>9</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>9</v>
+        <v>794</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>9</v>
@@ -57543,7 +57547,7 @@
         <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -57594,7 +57598,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -57612,10 +57616,10 @@
         <v>10039</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>9</v>
+        <v>469</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>649</v>
@@ -57624,7 +57628,7 @@
         <v>9</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>797</v>
+        <v>9</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>9</v>
@@ -57702,10 +57706,10 @@
         <v>10040</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>470</v>
+        <v>9</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>649</v>
@@ -57714,7 +57718,7 @@
         <v>9</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>9</v>
+        <v>797</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>9</v>
@@ -57723,7 +57727,7 @@
         <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -57774,7 +57778,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -57792,10 +57796,10 @@
         <v>10041</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>9</v>
+        <v>470</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>649</v>
@@ -57804,7 +57808,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>798</v>
+        <v>9</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>9</v>
@@ -57882,10 +57886,10 @@
         <v>10042</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>507</v>
+        <v>9</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>649</v>
@@ -57894,7 +57898,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>9</v>
@@ -57903,7 +57907,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -57954,7 +57958,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -57972,10 +57976,10 @@
         <v>10043</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>9</v>
+        <v>507</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>649</v>
@@ -57984,7 +57988,7 @@
         <v>9</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>865</v>
+        <v>9</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>9</v>
@@ -58062,10 +58066,10 @@
         <v>10044</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>931</v>
+        <v>880</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>636</v>
+        <v>9</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>649</v>
@@ -58074,7 +58078,7 @@
         <v>9</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>9</v>
+        <v>865</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>9</v>
@@ -58083,7 +58087,7 @@
         <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>931</v>
+        <v>873</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -58134,7 +58138,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>931</v>
+        <v>873</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -58152,10 +58156,10 @@
         <v>10045</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>9</v>
+        <v>636</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>649</v>
@@ -58164,7 +58168,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>933</v>
+        <v>9</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>9</v>
@@ -58242,10 +58246,10 @@
         <v>10046</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>327</v>
+        <v>9</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>649</v>
@@ -58254,7 +58258,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>9</v>
+        <v>933</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>9</v>
@@ -58263,7 +58267,7 @@
         <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -58314,7 +58318,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -58332,10 +58336,10 @@
         <v>10047</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>9</v>
+        <v>327</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>649</v>
@@ -58344,7 +58348,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>658</v>
+        <v>9</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>9</v>
@@ -58422,19 +58426,19 @@
         <v>10048</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>651</v>
+        <v>935</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>9</v>
+        <v>658</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>9</v>
@@ -58443,7 +58447,7 @@
         <v>9</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>651</v>
+        <v>934</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -58494,7 +58498,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>651</v>
+        <v>934</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -58512,10 +58516,10 @@
         <v>10049</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>940</v>
+        <v>651</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>941</v>
+        <v>10</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>652</v>
@@ -58602,10 +58606,10 @@
         <v>10050</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>653</v>
+        <v>940</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>67</v>
+        <v>941</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>652</v>
@@ -58623,7 +58627,7 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -58674,7 +58678,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -58692,10 +58696,10 @@
         <v>10051</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>666</v>
+        <v>67</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>652</v>
@@ -58713,7 +58717,7 @@
         <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -58749,7 +58753,7 @@
         <v>15</v>
       </c>
       <c r="U53">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="V53">
         <v>3</v>
@@ -58764,7 +58768,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -58782,10 +58786,10 @@
         <v>10052</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>768</v>
+        <v>665</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>771</v>
+        <v>666</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>652</v>
@@ -58803,7 +58807,7 @@
         <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>768</v>
+        <v>665</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -58854,7 +58858,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>768</v>
+        <v>665</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -58872,10 +58876,10 @@
         <v>10053</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>595</v>
+        <v>771</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>652</v>
@@ -58893,7 +58897,7 @@
         <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -58929,7 +58933,7 @@
         <v>15</v>
       </c>
       <c r="U55">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="V55">
         <v>3</v>
@@ -58944,7 +58948,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -58962,10 +58966,10 @@
         <v>10054</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>652</v>
@@ -58983,7 +58987,7 @@
         <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -59025,7 +59029,7 @@
         <v>3</v>
       </c>
       <c r="W56" s="5"/>
-      <c r="X56" s="7"/>
+      <c r="X56" s="10"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="5" t="s">
         <v>143</v>
@@ -59034,7 +59038,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -59052,10 +59056,10 @@
         <v>10055</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>907</v>
+        <v>655</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>900</v>
+        <v>598</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>652</v>
@@ -59073,7 +59077,7 @@
         <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>907</v>
+        <v>655</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -59109,13 +59113,13 @@
         <v>15</v>
       </c>
       <c r="U57">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="V57">
         <v>3</v>
       </c>
       <c r="W57" s="5"/>
-      <c r="X57" s="10"/>
+      <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="5" t="s">
         <v>143</v>
@@ -59124,7 +59128,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>907</v>
+        <v>655</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -59142,10 +59146,10 @@
         <v>10056</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>652</v>
@@ -59163,7 +59167,7 @@
         <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -59214,7 +59218,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -59232,10 +59236,10 @@
         <v>10057</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>652</v>
@@ -59253,7 +59257,7 @@
         <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -59289,7 +59293,7 @@
         <v>15</v>
       </c>
       <c r="U59">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="V59">
         <v>3</v>
@@ -59304,7 +59308,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -59322,10 +59326,10 @@
         <v>10058</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>652</v>
@@ -59343,7 +59347,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -59394,7 +59398,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -59412,10 +59416,10 @@
         <v>10059</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>652</v>
@@ -59433,7 +59437,7 @@
         <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -59484,7 +59488,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -59502,10 +59506,10 @@
         <v>10060</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>664</v>
+        <v>911</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>9</v>
+        <v>904</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>652</v>
@@ -59514,7 +59518,7 @@
         <v>9</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>9</v>
@@ -59523,7 +59527,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>651</v>
+        <v>911</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -59553,19 +59557,19 @@
         <v>1</v>
       </c>
       <c r="S62" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="T62">
         <v>15</v>
       </c>
       <c r="U62">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="V62">
         <v>3</v>
       </c>
       <c r="W62" s="5"/>
-      <c r="X62" s="7"/>
+      <c r="X62" s="10"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="5" t="s">
         <v>143</v>
@@ -59574,7 +59578,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>651</v>
+        <v>911</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -59592,19 +59596,19 @@
         <v>10061</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>938</v>
+        <v>664</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>937</v>
+        <v>652</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>9</v>
@@ -59613,7 +59617,7 @@
         <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>938</v>
+        <v>651</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -59643,21 +59647,19 @@
         <v>1</v>
       </c>
       <c r="S63" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="T63">
         <v>15</v>
       </c>
       <c r="U63">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="V63">
         <v>3</v>
       </c>
-      <c r="W63" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="X63" s="10"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="5" t="s">
         <v>143</v>
@@ -59666,7 +59668,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>938</v>
+        <v>651</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -59684,10 +59686,10 @@
         <v>10062</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>937</v>
@@ -59696,7 +59698,7 @@
         <v>9</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>803</v>
+        <v>9</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>9</v>
@@ -59746,7 +59748,9 @@
       <c r="V64">
         <v>3</v>
       </c>
-      <c r="W64" s="5"/>
+      <c r="W64" s="5" t="s">
+        <v>936</v>
+      </c>
       <c r="X64" s="10"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="5" t="s">
@@ -59773,29 +59777,90 @@
         <f t="shared" si="0"/>
         <v>10063</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="18">
+        <v>1</v>
+      </c>
+      <c r="N65" s="18">
+        <v>1</v>
+      </c>
+      <c r="O65" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P65" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>1</v>
+      </c>
+      <c r="R65" s="18">
+        <v>1</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>15</v>
+      </c>
+      <c r="U65">
+        <v>50</v>
+      </c>
+      <c r="V65">
+        <v>3</v>
+      </c>
       <c r="W65" s="5"/>
-      <c r="X65" s="7"/>
+      <c r="X65" s="10"/>
       <c r="Y65" s="7"/>
-      <c r="Z65" s="5"/>
-      <c r="AB65" s="2"/>
+      <c r="Z65" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -59828,95 +59893,32 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10065</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="18">
-        <v>1</v>
-      </c>
-      <c r="N67" s="18">
-        <v>1</v>
-      </c>
-      <c r="O67" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P67" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="18">
-        <v>1</v>
-      </c>
-      <c r="R67" s="18">
-        <v>1</v>
-      </c>
-      <c r="S67" s="2">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>15</v>
-      </c>
-      <c r="U67">
-        <v>95</v>
-      </c>
-      <c r="V67">
-        <v>3</v>
-      </c>
-      <c r="W67" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="X67" s="10"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="2"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
-      <c r="Z67" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>1</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
+      <c r="Z67" s="5"/>
+      <c r="AB67" s="2"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -59924,10 +59926,10 @@
         <v>10066</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>683</v>
@@ -59936,7 +59938,7 @@
         <v>9</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>927</v>
+        <v>9</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>9</v>
@@ -59945,7 +59947,7 @@
         <v>9</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -59986,7 +59988,9 @@
       <c r="V68">
         <v>3</v>
       </c>
-      <c r="W68" s="5"/>
+      <c r="W68" s="5" t="s">
+        <v>925</v>
+      </c>
       <c r="X68" s="10"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="5" t="s">
@@ -59996,7 +60000,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -60014,19 +60018,19 @@
         <v>10067</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>684</v>
+        <v>928</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>682</v>
+        <v>9</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>9</v>
+        <v>927</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>9</v>
@@ -60035,7 +60039,7 @@
         <v>9</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>684</v>
+        <v>928</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -60076,9 +60080,7 @@
       <c r="V69">
         <v>3</v>
       </c>
-      <c r="W69" s="5" t="s">
-        <v>929</v>
-      </c>
+      <c r="W69" s="5"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="5" t="s">
@@ -60088,7 +60090,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="2" t="s">
-        <v>684</v>
+        <v>928</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -60106,13 +60108,13 @@
         <v>10068</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>9</v>
@@ -60127,7 +60129,7 @@
         <v>9</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -60163,13 +60165,13 @@
         <v>15</v>
       </c>
       <c r="U70">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="V70">
         <v>3</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="X70" s="10"/>
       <c r="Y70" s="7"/>
@@ -60180,7 +60182,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -60198,28 +60200,28 @@
         <v>10069</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C71" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -60255,13 +60257,13 @@
         <v>15</v>
       </c>
       <c r="U71">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V71">
         <v>3</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>695</v>
+        <v>926</v>
       </c>
       <c r="X71" s="10"/>
       <c r="Y71" s="7"/>
@@ -60272,7 +60274,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -60290,13 +60292,13 @@
         <v>10070</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>687</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>9</v>
@@ -60311,7 +60313,7 @@
         <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -60352,7 +60354,9 @@
       <c r="V72">
         <v>3</v>
       </c>
-      <c r="W72" s="5"/>
+      <c r="W72" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="X72" s="10"/>
       <c r="Y72" s="7"/>
       <c r="Z72" s="5" t="s">
@@ -60362,7 +60366,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -60380,13 +60384,13 @@
         <v>10071</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>687</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>9</v>
@@ -60401,7 +60405,7 @@
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -60452,7 +60456,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -60470,13 +60474,13 @@
         <v>10072</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>716</v>
+        <v>687</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>9</v>
@@ -60491,7 +60495,7 @@
         <v>9</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -60542,7 +60546,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -60560,28 +60564,28 @@
         <v>10073</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -60622,9 +60626,7 @@
       <c r="V75">
         <v>3</v>
       </c>
-      <c r="W75" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="W75" s="5"/>
       <c r="X75" s="10"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="5" t="s">
@@ -60634,7 +60636,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -60652,13 +60654,13 @@
         <v>10074</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>722</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>9</v>
@@ -60673,7 +60675,7 @@
         <v>9</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
@@ -60714,7 +60716,9 @@
       <c r="V76">
         <v>3</v>
       </c>
-      <c r="W76" s="5"/>
+      <c r="W76" s="5" t="s">
+        <v>726</v>
+      </c>
       <c r="X76" s="10"/>
       <c r="Y76" s="7"/>
       <c r="Z76" s="5" t="s">
@@ -60724,7 +60728,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -60742,13 +60746,13 @@
         <v>10075</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>722</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>9</v>
@@ -60763,7 +60767,7 @@
         <v>9</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -60814,7 +60818,7 @@
         <v>0</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -60832,13 +60836,13 @@
         <v>10076</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>100</v>
+        <v>722</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>9</v>
@@ -60853,7 +60857,7 @@
         <v>9</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -60904,7 +60908,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -60922,10 +60926,10 @@
         <v>10077</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>881</v>
+        <v>704</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>745</v>
@@ -60934,7 +60938,7 @@
         <v>9</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>852</v>
+        <v>9</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>9</v>
@@ -61012,10 +61016,10 @@
         <v>10078</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>706</v>
+        <v>881</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>745</v>
@@ -61024,7 +61028,7 @@
         <v>9</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>9</v>
+        <v>852</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>9</v>
@@ -61033,7 +61037,7 @@
         <v>9</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -61084,7 +61088,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -61102,10 +61106,10 @@
         <v>10079</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>882</v>
+        <v>706</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>745</v>
@@ -61114,7 +61118,7 @@
         <v>9</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>444</v>
+        <v>9</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>9</v>
@@ -61192,10 +61196,10 @@
         <v>10080</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>708</v>
+        <v>882</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>505</v>
+        <v>9</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>745</v>
@@ -61204,7 +61208,7 @@
         <v>9</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>9</v>
@@ -61213,7 +61217,7 @@
         <v>9</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -61264,7 +61268,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -61282,10 +61286,10 @@
         <v>10081</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>9</v>
+        <v>505</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>745</v>
@@ -61294,7 +61298,7 @@
         <v>9</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>703</v>
+        <v>9</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>9</v>
@@ -61371,6 +61375,90 @@
         <f t="shared" si="1"/>
         <v>10082</v>
       </c>
+      <c r="B84" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L84" s="2">
+        <v>1</v>
+      </c>
+      <c r="M84" s="18">
+        <v>1</v>
+      </c>
+      <c r="N84" s="18">
+        <v>1</v>
+      </c>
+      <c r="O84" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P84" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="18">
+        <v>1</v>
+      </c>
+      <c r="R84" s="18">
+        <v>1</v>
+      </c>
+      <c r="S84" s="2">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>15</v>
+      </c>
+      <c r="U84">
+        <v>95</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84" s="5"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -61383,92 +61471,6 @@
         <f t="shared" si="1"/>
         <v>10084</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="J86" s="2">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L86" s="2">
-        <v>1</v>
-      </c>
-      <c r="M86" s="18">
-        <v>1</v>
-      </c>
-      <c r="N86" s="18">
-        <v>1</v>
-      </c>
-      <c r="O86" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P86" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="18">
-        <v>1</v>
-      </c>
-      <c r="R86" s="18">
-        <v>1</v>
-      </c>
-      <c r="S86" s="2">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>15</v>
-      </c>
-      <c r="U86">
-        <v>80</v>
-      </c>
-      <c r="V86">
-        <v>3</v>
-      </c>
-      <c r="W86" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>1</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -61476,10 +61478,10 @@
         <v>10085</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>889</v>
@@ -61497,7 +61499,7 @@
         <v>9</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
@@ -61538,7 +61540,9 @@
       <c r="V87">
         <v>3</v>
       </c>
-      <c r="W87" s="5"/>
+      <c r="W87" s="5" t="s">
+        <v>887</v>
+      </c>
       <c r="X87" s="10"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="5" t="s">
@@ -61548,7 +61552,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -61566,10 +61570,10 @@
         <v>10086</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>889</v>
@@ -61587,7 +61591,7 @@
         <v>9</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
@@ -61638,7 +61642,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -61656,10 +61660,10 @@
         <v>10087</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>447</v>
+        <v>324</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>889</v>
@@ -61677,7 +61681,7 @@
         <v>9</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
@@ -61728,7 +61732,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -61746,10 +61750,10 @@
         <v>10088</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>889</v>
@@ -61767,7 +61771,7 @@
         <v>9</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
@@ -61818,7 +61822,7 @@
         <v>0</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -61836,10 +61840,10 @@
         <v>10089</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>362</v>
+        <v>893</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>897</v>
+        <v>449</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>889</v>
@@ -61857,7 +61861,7 @@
         <v>9</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>362</v>
+        <v>893</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
@@ -61908,7 +61912,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="2" t="s">
-        <v>362</v>
+        <v>893</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -61926,10 +61930,10 @@
         <v>10090</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>894</v>
+        <v>362</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>491</v>
+        <v>897</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>889</v>
@@ -61947,7 +61951,7 @@
         <v>9</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>894</v>
+        <v>362</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
@@ -61998,7 +62002,7 @@
         <v>0</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>894</v>
+        <v>362</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -62016,10 +62020,10 @@
         <v>10091</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>896</v>
+        <v>491</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>889</v>
@@ -62037,7 +62041,7 @@
         <v>9</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
@@ -62088,7 +62092,7 @@
         <v>0</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -62105,103 +62109,101 @@
         <f t="shared" si="1"/>
         <v>10092</v>
       </c>
+      <c r="B94" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="18">
+        <v>1</v>
+      </c>
+      <c r="N94" s="18">
+        <v>1</v>
+      </c>
+      <c r="O94" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P94" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="18">
+        <v>1</v>
+      </c>
+      <c r="R94" s="18">
+        <v>1</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>15</v>
+      </c>
+      <c r="U94">
+        <v>80</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94" s="5"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" ref="A95:A139" si="2">ROW()+9998</f>
+        <f t="shared" si="1"/>
         <v>10093</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A96:A140" si="2">ROW()+9998</f>
         <v>10094</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L96" s="2">
-        <v>1</v>
-      </c>
-      <c r="M96" s="18">
-        <v>1</v>
-      </c>
-      <c r="N96" s="18">
-        <v>1</v>
-      </c>
-      <c r="O96" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P96" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="18">
-        <v>1</v>
-      </c>
-      <c r="R96" s="18">
-        <v>1</v>
-      </c>
-      <c r="S96" s="2">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>15</v>
-      </c>
-      <c r="U96">
-        <v>80</v>
-      </c>
-      <c r="V96">
-        <v>3</v>
-      </c>
-      <c r="W96" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="X96" s="10"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA96">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AD96">
-        <v>1</v>
-      </c>
-      <c r="AE96">
-        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
@@ -62210,10 +62212,10 @@
         <v>10095</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>899</v>
@@ -62231,7 +62233,7 @@
         <v>9</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
@@ -62272,7 +62274,9 @@
       <c r="V97">
         <v>3</v>
       </c>
-      <c r="W97" s="5"/>
+      <c r="W97" s="5" t="s">
+        <v>898</v>
+      </c>
       <c r="X97" s="10"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="5" t="s">
@@ -62282,7 +62286,7 @@
         <v>0</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -62300,10 +62304,10 @@
         <v>10096</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>899</v>
@@ -62321,7 +62325,7 @@
         <v>9</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
@@ -62372,7 +62376,7 @@
         <v>0</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -62390,10 +62394,10 @@
         <v>10097</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>899</v>
@@ -62411,7 +62415,7 @@
         <v>9</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
@@ -62462,7 +62466,7 @@
         <v>0</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -62480,10 +62484,10 @@
         <v>10098</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>899</v>
@@ -62501,7 +62505,7 @@
         <v>9</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
@@ -62552,7 +62556,7 @@
         <v>0</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -62570,10 +62574,10 @@
         <v>10099</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>899</v>
@@ -62591,7 +62595,7 @@
         <v>9</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
@@ -62642,7 +62646,7 @@
         <v>0</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -62660,10 +62664,10 @@
         <v>10100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>9</v>
+        <v>895</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>899</v>
@@ -62672,7 +62676,7 @@
         <v>9</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>444</v>
+        <v>9</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>9</v>
@@ -62681,7 +62685,7 @@
         <v>9</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="J102" s="2">
         <v>1</v>
@@ -62732,7 +62736,7 @@
         <v>0</v>
       </c>
       <c r="AB102" s="2" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -62750,10 +62754,10 @@
         <v>10101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>562</v>
+        <v>9</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>899</v>
@@ -62762,7 +62766,7 @@
         <v>9</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>9</v>
@@ -62771,7 +62775,7 @@
         <v>9</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J103" s="2">
         <v>1</v>
@@ -62822,7 +62826,7 @@
         <v>0</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -62839,6 +62843,90 @@
         <f t="shared" si="2"/>
         <v>10102</v>
       </c>
+      <c r="B104" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L104" s="2">
+        <v>1</v>
+      </c>
+      <c r="M104" s="18">
+        <v>1</v>
+      </c>
+      <c r="N104" s="18">
+        <v>1</v>
+      </c>
+      <c r="O104" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P104" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="18">
+        <v>1</v>
+      </c>
+      <c r="R104" s="18">
+        <v>1</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>15</v>
+      </c>
+      <c r="U104">
+        <v>80</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104" s="5"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>1</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105">
@@ -62851,94 +62939,6 @@
         <f t="shared" si="2"/>
         <v>10104</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L106" s="2">
-        <v>1</v>
-      </c>
-      <c r="M106" s="18">
-        <v>1</v>
-      </c>
-      <c r="N106" s="18">
-        <v>1</v>
-      </c>
-      <c r="O106" s="18">
-        <v>9999</v>
-      </c>
-      <c r="P106" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="18">
-        <v>1</v>
-      </c>
-      <c r="R106" s="18">
-        <v>1</v>
-      </c>
-      <c r="S106" s="2">
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <v>15</v>
-      </c>
-      <c r="U106">
-        <v>60</v>
-      </c>
-      <c r="V106">
-        <v>3</v>
-      </c>
-      <c r="W106" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="X106" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="Y106" s="7"/>
-      <c r="Z106" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA106">
-        <v>0</v>
-      </c>
-      <c r="AB106" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC106">
-        <v>0</v>
-      </c>
-      <c r="AD106">
-        <v>1</v>
-      </c>
-      <c r="AE106">
-        <v>0</v>
-      </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107">
@@ -62946,7 +62946,7 @@
         <v>10105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>9</v>
@@ -62958,7 +62958,7 @@
         <v>9</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>9</v>
@@ -63008,8 +63008,12 @@
       <c r="V107">
         <v>3</v>
       </c>
-      <c r="W107" s="5"/>
-      <c r="X107" s="7"/>
+      <c r="W107" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="X107" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="Y107" s="7"/>
       <c r="Z107" s="5" t="s">
         <v>143</v>
@@ -63036,19 +63040,19 @@
         <v>10106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>948</v>
+        <v>921</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>9</v>
@@ -63093,17 +63097,13 @@
         <v>15</v>
       </c>
       <c r="U108">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="V108">
         <v>3</v>
       </c>
-      <c r="W108" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="X108" s="7" t="s">
-        <v>916</v>
-      </c>
+      <c r="W108" s="5"/>
+      <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
       <c r="Z108" s="5" t="s">
         <v>143</v>
@@ -63130,7 +63130,7 @@
         <v>10107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>9</v>
@@ -63142,7 +63142,7 @@
         <v>9</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>9</v>
@@ -63192,8 +63192,12 @@
       <c r="V109">
         <v>3</v>
       </c>
-      <c r="W109" s="5"/>
-      <c r="X109" s="7"/>
+      <c r="W109" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="X109" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="Y109" s="7"/>
       <c r="Z109" s="5" t="s">
         <v>143</v>
@@ -63220,7 +63224,7 @@
         <v>10108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>9</v>
@@ -63232,7 +63236,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>886</v>
+        <v>949</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>9</v>
@@ -63310,7 +63314,7 @@
         <v>10109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>9</v>
@@ -63322,7 +63326,7 @@
         <v>9</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>950</v>
+        <v>886</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>9</v>
@@ -63400,7 +63404,7 @@
         <v>10110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>974</v>
+        <v>947</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>9</v>
@@ -63412,7 +63416,7 @@
         <v>9</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>918</v>
+        <v>950</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>9</v>
@@ -63490,7 +63494,7 @@
         <v>10111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>9</v>
@@ -63502,7 +63506,7 @@
         <v>9</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>9</v>
@@ -63580,7 +63584,7 @@
         <v>10112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>9</v>
@@ -63592,7 +63596,7 @@
         <v>9</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>951</v>
+        <v>921</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>9</v>
@@ -63670,7 +63674,7 @@
         <v>10113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>9</v>
@@ -63682,7 +63686,7 @@
         <v>9</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>9</v>
@@ -63760,7 +63764,7 @@
         <v>10114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>9</v>
@@ -63772,7 +63776,7 @@
         <v>9</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>9</v>
@@ -63850,7 +63854,7 @@
         <v>10115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>9</v>
@@ -63862,7 +63866,7 @@
         <v>9</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>9</v>
@@ -63940,7 +63944,7 @@
         <v>10116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>9</v>
@@ -63952,7 +63956,7 @@
         <v>9</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>9</v>
@@ -64030,7 +64034,7 @@
         <v>10117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>9</v>
@@ -64042,7 +64046,7 @@
         <v>9</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>9</v>
@@ -64120,7 +64124,7 @@
         <v>10118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>9</v>
@@ -64132,7 +64136,7 @@
         <v>9</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>9</v>
@@ -64210,7 +64214,7 @@
         <v>10119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>9</v>
@@ -64222,7 +64226,7 @@
         <v>9</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>9</v>
@@ -64300,7 +64304,7 @@
         <v>10120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>9</v>
@@ -64312,7 +64316,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>9</v>
@@ -64390,7 +64394,7 @@
         <v>10121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>9</v>
@@ -64402,7 +64406,7 @@
         <v>9</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>9</v>
@@ -64480,7 +64484,7 @@
         <v>10122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>9</v>
@@ -64492,7 +64496,7 @@
         <v>9</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>9</v>
@@ -64570,7 +64574,7 @@
         <v>10123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>9</v>
@@ -64582,7 +64586,7 @@
         <v>9</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>9</v>
@@ -64660,7 +64664,7 @@
         <v>10124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>9</v>
@@ -64672,7 +64676,7 @@
         <v>9</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>9</v>
@@ -64750,7 +64754,7 @@
         <v>10125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>9</v>
@@ -64762,7 +64766,7 @@
         <v>9</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>493</v>
+        <v>963</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>9</v>
@@ -64840,7 +64844,7 @@
         <v>10126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>9</v>
@@ -64852,7 +64856,7 @@
         <v>9</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>9</v>
@@ -64930,7 +64934,7 @@
         <v>10127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>9</v>
@@ -64942,7 +64946,7 @@
         <v>9</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>964</v>
+        <v>378</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>9</v>
@@ -65020,7 +65024,7 @@
         <v>10128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>9</v>
@@ -65032,7 +65036,7 @@
         <v>9</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>9</v>
@@ -65110,7 +65114,7 @@
         <v>10129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>9</v>
@@ -65122,7 +65126,7 @@
         <v>9</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>9</v>
@@ -65200,7 +65204,7 @@
         <v>10130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>9</v>
@@ -65212,7 +65216,7 @@
         <v>9</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>9</v>
@@ -65290,7 +65294,7 @@
         <v>10131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>9</v>
@@ -65302,7 +65306,7 @@
         <v>9</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>9</v>
@@ -65380,7 +65384,7 @@
         <v>10132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>9</v>
@@ -65392,7 +65396,7 @@
         <v>9</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>9</v>
@@ -65470,7 +65474,7 @@
         <v>10133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>9</v>
@@ -65482,7 +65486,7 @@
         <v>9</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>9</v>
@@ -65560,7 +65564,7 @@
         <v>10134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>9</v>
@@ -65572,7 +65576,7 @@
         <v>9</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>9</v>
@@ -65650,7 +65654,7 @@
         <v>10135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>9</v>
@@ -65662,7 +65666,7 @@
         <v>9</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>446</v>
+        <v>971</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>9</v>
@@ -65740,7 +65744,7 @@
         <v>10136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>9</v>
@@ -65752,7 +65756,7 @@
         <v>9</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>972</v>
+        <v>446</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>9</v>
@@ -65830,7 +65834,7 @@
         <v>10137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>9</v>
@@ -65842,7 +65846,7 @@
         <v>9</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>9</v>
@@ -65911,6 +65915,96 @@
         <v>1</v>
       </c>
       <c r="AE139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>10138</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J140" s="2">
+        <v>1</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L140" s="2">
+        <v>1</v>
+      </c>
+      <c r="M140" s="18">
+        <v>1</v>
+      </c>
+      <c r="N140" s="18">
+        <v>1</v>
+      </c>
+      <c r="O140" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P140" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="18">
+        <v>1</v>
+      </c>
+      <c r="R140" s="18">
+        <v>1</v>
+      </c>
+      <c r="S140" s="2">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>15</v>
+      </c>
+      <c r="U140">
+        <v>75</v>
+      </c>
+      <c r="V140">
+        <v>3</v>
+      </c>
+      <c r="W140" s="5"/>
+      <c r="X140" s="7"/>
+      <c r="Y140" s="7"/>
+      <c r="Z140" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>1</v>
+      </c>
+      <c r="AE140">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E552805-69C1-4F7C-8486-DDA11970772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38A113-5753-4627-A2BF-3D0723A09898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="585" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1065" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7551" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7624" uniqueCount="1014">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -6962,6 +6962,65 @@
   </si>
   <si>
     <t>ice_cube_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソーダ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>citric_acid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cola</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cola_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>water_soda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>water_soda_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエン酸×ベーキング×水</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炭酸水×砂糖</t>
+    <rPh sb="0" eb="3">
+      <t>タンサンスイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mermaid_harb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7421,11 +7480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
-  <dimension ref="A1:AE538"/>
+  <dimension ref="A1:AE546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T449" sqref="T449"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB539" sqref="AB539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -52340,7 +52399,7 @@
     </row>
     <row r="520" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520">
-        <f t="shared" ref="A520:A538" si="110">ROW()-2</f>
+        <f t="shared" ref="A520:A546" si="110">ROW()-2</f>
         <v>518</v>
       </c>
       <c r="B520" s="2" t="s">
@@ -54083,6 +54142,618 @@
         <v>1</v>
       </c>
       <c r="AE538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <f t="shared" si="110"/>
+        <v>537</v>
+      </c>
+      <c r="B539" s="2"/>
+      <c r="C539" s="11"/>
+      <c r="D539" s="11"/>
+      <c r="E539" s="11"/>
+      <c r="F539" s="11"/>
+      <c r="G539" s="11"/>
+      <c r="H539" s="11"/>
+      <c r="I539" s="2"/>
+      <c r="J539" s="2"/>
+      <c r="K539" s="2"/>
+      <c r="L539" s="2"/>
+      <c r="M539" s="18"/>
+      <c r="N539" s="18"/>
+      <c r="O539" s="18"/>
+      <c r="P539" s="18"/>
+      <c r="Q539" s="18"/>
+      <c r="R539" s="18"/>
+      <c r="S539" s="2"/>
+      <c r="W539" s="3"/>
+      <c r="X539" s="7"/>
+      <c r="Y539" s="7"/>
+      <c r="Z539" s="5"/>
+      <c r="AB539" s="2"/>
+    </row>
+    <row r="540" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <f t="shared" si="110"/>
+        <v>538</v>
+      </c>
+      <c r="B540" s="2"/>
+      <c r="C540" s="11"/>
+      <c r="D540" s="11"/>
+      <c r="E540" s="11"/>
+      <c r="F540" s="11"/>
+      <c r="G540" s="11"/>
+      <c r="H540" s="11"/>
+      <c r="I540" s="2"/>
+      <c r="J540" s="2"/>
+      <c r="K540" s="2"/>
+      <c r="L540" s="2"/>
+      <c r="M540" s="18"/>
+      <c r="N540" s="18"/>
+      <c r="O540" s="18"/>
+      <c r="P540" s="18"/>
+      <c r="Q540" s="18"/>
+      <c r="R540" s="18"/>
+      <c r="S540" s="2"/>
+      <c r="W540" s="3"/>
+      <c r="X540" s="7"/>
+      <c r="Y540" s="7"/>
+      <c r="Z540" s="5"/>
+      <c r="AB540" s="2"/>
+    </row>
+    <row r="541" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <f t="shared" si="110"/>
+        <v>539</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C541" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D541" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E541" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F541" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G541" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H541" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I541" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J541" s="2">
+        <v>1</v>
+      </c>
+      <c r="K541" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L541" s="2">
+        <v>1</v>
+      </c>
+      <c r="M541" s="18">
+        <v>1</v>
+      </c>
+      <c r="N541" s="18">
+        <v>1</v>
+      </c>
+      <c r="O541" s="18">
+        <v>1</v>
+      </c>
+      <c r="P541" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q541" s="18">
+        <v>2</v>
+      </c>
+      <c r="R541" s="18">
+        <v>1</v>
+      </c>
+      <c r="S541" s="2">
+        <v>0</v>
+      </c>
+      <c r="T541">
+        <v>60</v>
+      </c>
+      <c r="U541">
+        <v>95</v>
+      </c>
+      <c r="V541">
+        <v>12</v>
+      </c>
+      <c r="W541" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="X541" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Y541" s="7"/>
+      <c r="Z541" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA541">
+        <v>0</v>
+      </c>
+      <c r="AB541" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AC541">
+        <v>1</v>
+      </c>
+      <c r="AD541">
+        <v>1</v>
+      </c>
+      <c r="AE541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <f t="shared" si="110"/>
+        <v>540</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C542" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D542" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E542" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F542" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G542" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H542" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="I542" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J542" s="2">
+        <v>1</v>
+      </c>
+      <c r="K542" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L542" s="2">
+        <v>1</v>
+      </c>
+      <c r="M542" s="18">
+        <v>1</v>
+      </c>
+      <c r="N542" s="18">
+        <v>1</v>
+      </c>
+      <c r="O542" s="18">
+        <v>1</v>
+      </c>
+      <c r="P542" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q542" s="18">
+        <v>2</v>
+      </c>
+      <c r="R542" s="18">
+        <v>1</v>
+      </c>
+      <c r="S542" s="2">
+        <v>0</v>
+      </c>
+      <c r="T542">
+        <v>60</v>
+      </c>
+      <c r="U542">
+        <v>95</v>
+      </c>
+      <c r="V542">
+        <v>12</v>
+      </c>
+      <c r="W542" s="3"/>
+      <c r="X542" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Y542" s="7"/>
+      <c r="Z542" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA542">
+        <v>0</v>
+      </c>
+      <c r="AB542" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AC542">
+        <v>0</v>
+      </c>
+      <c r="AD542">
+        <v>1</v>
+      </c>
+      <c r="AE542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <f t="shared" si="110"/>
+        <v>541</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C543" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D543" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E543" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F543" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G543" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H543" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I543" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J543" s="2">
+        <v>1</v>
+      </c>
+      <c r="K543" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L543" s="2">
+        <v>1</v>
+      </c>
+      <c r="M543" s="18">
+        <v>1</v>
+      </c>
+      <c r="N543" s="18">
+        <v>1</v>
+      </c>
+      <c r="O543" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P543" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q543" s="18">
+        <v>1</v>
+      </c>
+      <c r="R543" s="18">
+        <v>1</v>
+      </c>
+      <c r="S543" s="2">
+        <v>0</v>
+      </c>
+      <c r="T543">
+        <v>60</v>
+      </c>
+      <c r="U543">
+        <v>95</v>
+      </c>
+      <c r="V543">
+        <v>12</v>
+      </c>
+      <c r="W543" s="3"/>
+      <c r="X543" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y543" s="7"/>
+      <c r="Z543" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA543">
+        <v>0</v>
+      </c>
+      <c r="AB543" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC543">
+        <v>1</v>
+      </c>
+      <c r="AD543">
+        <v>1</v>
+      </c>
+      <c r="AE543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <f t="shared" si="110"/>
+        <v>542</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C544" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D544" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E544" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F544" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G544" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H544" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I544" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J544" s="2">
+        <v>1</v>
+      </c>
+      <c r="K544" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L544" s="2">
+        <v>1</v>
+      </c>
+      <c r="M544" s="18">
+        <v>1</v>
+      </c>
+      <c r="N544" s="18">
+        <v>1</v>
+      </c>
+      <c r="O544" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P544" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q544" s="18">
+        <v>1</v>
+      </c>
+      <c r="R544" s="18">
+        <v>1</v>
+      </c>
+      <c r="S544" s="2">
+        <v>0</v>
+      </c>
+      <c r="T544">
+        <v>60</v>
+      </c>
+      <c r="U544">
+        <v>95</v>
+      </c>
+      <c r="V544">
+        <v>12</v>
+      </c>
+      <c r="W544" s="3"/>
+      <c r="X544" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y544" s="7"/>
+      <c r="Z544" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA544">
+        <v>0</v>
+      </c>
+      <c r="AB544" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC544">
+        <v>0</v>
+      </c>
+      <c r="AD544">
+        <v>1</v>
+      </c>
+      <c r="AE544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <f t="shared" si="110"/>
+        <v>543</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C545" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D545" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E545" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F545" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G545" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H545" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I545" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J545" s="2">
+        <v>1</v>
+      </c>
+      <c r="K545" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L545" s="2">
+        <v>1</v>
+      </c>
+      <c r="M545" s="18">
+        <v>1</v>
+      </c>
+      <c r="N545" s="18">
+        <v>1</v>
+      </c>
+      <c r="O545" s="18">
+        <v>1</v>
+      </c>
+      <c r="P545" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q545" s="18">
+        <v>1</v>
+      </c>
+      <c r="R545" s="18">
+        <v>1</v>
+      </c>
+      <c r="S545" s="2">
+        <v>0</v>
+      </c>
+      <c r="T545">
+        <v>60</v>
+      </c>
+      <c r="U545">
+        <v>95</v>
+      </c>
+      <c r="V545">
+        <v>12</v>
+      </c>
+      <c r="W545" s="3"/>
+      <c r="X545" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y545" s="7"/>
+      <c r="Z545" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA545">
+        <v>0</v>
+      </c>
+      <c r="AB545" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AC545">
+        <v>1</v>
+      </c>
+      <c r="AD545">
+        <v>1</v>
+      </c>
+      <c r="AE545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <f t="shared" si="110"/>
+        <v>544</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C546" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D546" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E546" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F546" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G546" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H546" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I546" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J546" s="2">
+        <v>1</v>
+      </c>
+      <c r="K546" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L546" s="2">
+        <v>1</v>
+      </c>
+      <c r="M546" s="18">
+        <v>1</v>
+      </c>
+      <c r="N546" s="18">
+        <v>1</v>
+      </c>
+      <c r="O546" s="18">
+        <v>1</v>
+      </c>
+      <c r="P546" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q546" s="18">
+        <v>1</v>
+      </c>
+      <c r="R546" s="18">
+        <v>1</v>
+      </c>
+      <c r="S546" s="2">
+        <v>0</v>
+      </c>
+      <c r="T546">
+        <v>60</v>
+      </c>
+      <c r="U546">
+        <v>95</v>
+      </c>
+      <c r="V546">
+        <v>12</v>
+      </c>
+      <c r="W546" s="3"/>
+      <c r="X546" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y546" s="7"/>
+      <c r="Z546" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA546">
+        <v>0</v>
+      </c>
+      <c r="AB546" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AC546">
+        <v>0</v>
+      </c>
+      <c r="AD546">
+        <v>1</v>
+      </c>
+      <c r="AE546">
         <v>0</v>
       </c>
     </row>
@@ -54098,7 +54769,7 @@
   <dimension ref="A1:AE140"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54372,7 +55043,7 @@
         <v>80</v>
       </c>
       <c r="V3">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>87</v>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3948617-0BB3-40D6-B514-25238FD39AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BEBF05-6D2D-40CF-AB97-605BEA12C730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1275" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="990" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7785" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8025" uniqueCount="1052">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -7077,6 +7077,102 @@
   </si>
   <si>
     <t>frz_bluehawai_ice_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_orange_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_grape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_grape_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_strawberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_strawberry_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_cranberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_cranberry_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_Cranberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_cassis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_cassis_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_blueberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_blueberry_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_raspberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_raspberry_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_rainbow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_rainbow_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_melon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>melon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_Melon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_melon_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_melon_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_melon_cream_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_WhipeedCream</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7536,11 +7632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
-  <dimension ref="A1:AE553"/>
+  <dimension ref="A1:AE573"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A456" sqref="A456:XFD462"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O526" sqref="O526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -51491,7 +51587,7 @@
         <v>621</v>
       </c>
       <c r="AC508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD508">
         <v>0</v>
@@ -53099,7 +53195,7 @@
     </row>
     <row r="527" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527">
-        <f t="shared" ref="A527:A553" si="110">ROW()-2</f>
+        <f t="shared" ref="A527:A573" si="110">ROW()-2</f>
         <v>525</v>
       </c>
       <c r="B527" s="2" t="s">
@@ -55279,7 +55375,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="C552" s="11" t="s">
         <v>1009</v>
@@ -55288,7 +55384,7 @@
         <v>10</v>
       </c>
       <c r="E552" s="11" t="s">
-        <v>1013</v>
+        <v>8</v>
       </c>
       <c r="F552" s="11" t="s">
         <v>9</v>
@@ -55300,7 +55396,7 @@
         <v>9</v>
       </c>
       <c r="I552" s="2" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="J552" s="2">
         <v>1</v>
@@ -55353,7 +55449,7 @@
         <v>0</v>
       </c>
       <c r="AB552" s="2" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="AC552">
         <v>1</v>
@@ -55371,7 +55467,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1008</v>
+        <v>1029</v>
       </c>
       <c r="C553" s="11" t="s">
         <v>1009</v>
@@ -55380,7 +55476,7 @@
         <v>9</v>
       </c>
       <c r="E553" s="11" t="s">
-        <v>1013</v>
+        <v>9</v>
       </c>
       <c r="F553" s="11" t="s">
         <v>9</v>
@@ -55389,10 +55485,10 @@
         <v>48</v>
       </c>
       <c r="H553" s="11" t="s">
-        <v>9</v>
+        <v>662</v>
       </c>
       <c r="I553" s="2" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="J553" s="2">
         <v>1</v>
@@ -55435,7 +55531,7 @@
       </c>
       <c r="W553" s="3"/>
       <c r="X553" s="7" t="s">
-        <v>308</v>
+        <v>1012</v>
       </c>
       <c r="Y553" s="7"/>
       <c r="Z553" s="5" t="s">
@@ -55445,15 +55541,1855 @@
         <v>0</v>
       </c>
       <c r="AB553" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AC553">
+        <v>0</v>
+      </c>
+      <c r="AD553">
+        <v>1</v>
+      </c>
+      <c r="AE553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <f t="shared" si="110"/>
+        <v>552</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C554" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D554" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E554" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F554" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G554" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H554" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I554" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J554" s="2">
+        <v>1</v>
+      </c>
+      <c r="K554" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L554" s="2">
+        <v>1</v>
+      </c>
+      <c r="M554" s="18">
+        <v>1</v>
+      </c>
+      <c r="N554" s="18">
+        <v>1</v>
+      </c>
+      <c r="O554" s="18">
+        <v>1</v>
+      </c>
+      <c r="P554" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q554" s="18">
+        <v>1</v>
+      </c>
+      <c r="R554" s="18">
+        <v>1</v>
+      </c>
+      <c r="S554" s="2">
+        <v>0</v>
+      </c>
+      <c r="T554">
+        <v>60</v>
+      </c>
+      <c r="U554">
+        <v>95</v>
+      </c>
+      <c r="V554">
+        <v>12</v>
+      </c>
+      <c r="W554" s="3"/>
+      <c r="X554" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y554" s="7"/>
+      <c r="Z554" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA554">
+        <v>0</v>
+      </c>
+      <c r="AB554" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AC554">
+        <v>1</v>
+      </c>
+      <c r="AD554">
+        <v>1</v>
+      </c>
+      <c r="AE554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <f t="shared" si="110"/>
+        <v>553</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C555" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D555" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E555" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F555" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G555" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H555" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="I555" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J555" s="2">
+        <v>1</v>
+      </c>
+      <c r="K555" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L555" s="2">
+        <v>1</v>
+      </c>
+      <c r="M555" s="18">
+        <v>1</v>
+      </c>
+      <c r="N555" s="18">
+        <v>1</v>
+      </c>
+      <c r="O555" s="18">
+        <v>1</v>
+      </c>
+      <c r="P555" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q555" s="18">
+        <v>1</v>
+      </c>
+      <c r="R555" s="18">
+        <v>1</v>
+      </c>
+      <c r="S555" s="2">
+        <v>0</v>
+      </c>
+      <c r="T555">
+        <v>60</v>
+      </c>
+      <c r="U555">
+        <v>95</v>
+      </c>
+      <c r="V555">
+        <v>12</v>
+      </c>
+      <c r="W555" s="3"/>
+      <c r="X555" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y555" s="7"/>
+      <c r="Z555" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA555">
+        <v>0</v>
+      </c>
+      <c r="AB555" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AC555">
+        <v>0</v>
+      </c>
+      <c r="AD555">
+        <v>1</v>
+      </c>
+      <c r="AE555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <f t="shared" si="110"/>
+        <v>554</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C556" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D556" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E556" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F556" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G556" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H556" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I556" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J556" s="2">
+        <v>1</v>
+      </c>
+      <c r="K556" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L556" s="2">
+        <v>1</v>
+      </c>
+      <c r="M556" s="18">
+        <v>1</v>
+      </c>
+      <c r="N556" s="18">
+        <v>1</v>
+      </c>
+      <c r="O556" s="18">
+        <v>1</v>
+      </c>
+      <c r="P556" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q556" s="18">
+        <v>1</v>
+      </c>
+      <c r="R556" s="18">
+        <v>1</v>
+      </c>
+      <c r="S556" s="2">
+        <v>0</v>
+      </c>
+      <c r="T556">
+        <v>60</v>
+      </c>
+      <c r="U556">
+        <v>95</v>
+      </c>
+      <c r="V556">
+        <v>12</v>
+      </c>
+      <c r="W556" s="3"/>
+      <c r="X556" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y556" s="7"/>
+      <c r="Z556" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA556">
+        <v>0</v>
+      </c>
+      <c r="AB556" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AC556">
+        <v>1</v>
+      </c>
+      <c r="AD556">
+        <v>1</v>
+      </c>
+      <c r="AE556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <f t="shared" si="110"/>
+        <v>555</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C557" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D557" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E557" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F557" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G557" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H557" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="I557" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J557" s="2">
+        <v>1</v>
+      </c>
+      <c r="K557" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L557" s="2">
+        <v>1</v>
+      </c>
+      <c r="M557" s="18">
+        <v>1</v>
+      </c>
+      <c r="N557" s="18">
+        <v>1</v>
+      </c>
+      <c r="O557" s="18">
+        <v>1</v>
+      </c>
+      <c r="P557" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q557" s="18">
+        <v>1</v>
+      </c>
+      <c r="R557" s="18">
+        <v>1</v>
+      </c>
+      <c r="S557" s="2">
+        <v>0</v>
+      </c>
+      <c r="T557">
+        <v>60</v>
+      </c>
+      <c r="U557">
+        <v>95</v>
+      </c>
+      <c r="V557">
+        <v>12</v>
+      </c>
+      <c r="W557" s="3"/>
+      <c r="X557" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y557" s="7"/>
+      <c r="Z557" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA557">
+        <v>0</v>
+      </c>
+      <c r="AB557" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AC557">
+        <v>0</v>
+      </c>
+      <c r="AD557">
+        <v>1</v>
+      </c>
+      <c r="AE557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <f t="shared" si="110"/>
+        <v>556</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C558" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D558" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E558" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F558" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G558" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H558" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I558" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J558" s="2">
+        <v>1</v>
+      </c>
+      <c r="K558" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L558" s="2">
+        <v>1</v>
+      </c>
+      <c r="M558" s="18">
+        <v>1</v>
+      </c>
+      <c r="N558" s="18">
+        <v>1</v>
+      </c>
+      <c r="O558" s="18">
+        <v>1</v>
+      </c>
+      <c r="P558" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q558" s="18">
+        <v>1</v>
+      </c>
+      <c r="R558" s="18">
+        <v>1</v>
+      </c>
+      <c r="S558" s="2">
+        <v>0</v>
+      </c>
+      <c r="T558">
+        <v>60</v>
+      </c>
+      <c r="U558">
+        <v>95</v>
+      </c>
+      <c r="V558">
+        <v>12</v>
+      </c>
+      <c r="W558" s="3"/>
+      <c r="X558" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y558" s="7"/>
+      <c r="Z558" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA558">
+        <v>0</v>
+      </c>
+      <c r="AB558" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AC558">
+        <v>1</v>
+      </c>
+      <c r="AD558">
+        <v>1</v>
+      </c>
+      <c r="AE558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <f t="shared" si="110"/>
+        <v>557</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C559" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D559" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E559" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F559" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G559" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H559" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I559" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J559" s="2">
+        <v>1</v>
+      </c>
+      <c r="K559" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L559" s="2">
+        <v>1</v>
+      </c>
+      <c r="M559" s="18">
+        <v>1</v>
+      </c>
+      <c r="N559" s="18">
+        <v>1</v>
+      </c>
+      <c r="O559" s="18">
+        <v>1</v>
+      </c>
+      <c r="P559" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q559" s="18">
+        <v>1</v>
+      </c>
+      <c r="R559" s="18">
+        <v>1</v>
+      </c>
+      <c r="S559" s="2">
+        <v>0</v>
+      </c>
+      <c r="T559">
+        <v>60</v>
+      </c>
+      <c r="U559">
+        <v>95</v>
+      </c>
+      <c r="V559">
+        <v>12</v>
+      </c>
+      <c r="W559" s="3"/>
+      <c r="X559" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y559" s="7"/>
+      <c r="Z559" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA559">
+        <v>0</v>
+      </c>
+      <c r="AB559" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AC559">
+        <v>0</v>
+      </c>
+      <c r="AD559">
+        <v>1</v>
+      </c>
+      <c r="AE559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <f t="shared" si="110"/>
+        <v>558</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C560" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D560" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E560" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F560" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G560" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H560" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I560" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J560" s="2">
+        <v>1</v>
+      </c>
+      <c r="K560" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L560" s="2">
+        <v>1</v>
+      </c>
+      <c r="M560" s="18">
+        <v>1</v>
+      </c>
+      <c r="N560" s="18">
+        <v>1</v>
+      </c>
+      <c r="O560" s="18">
+        <v>1</v>
+      </c>
+      <c r="P560" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q560" s="18">
+        <v>1</v>
+      </c>
+      <c r="R560" s="18">
+        <v>1</v>
+      </c>
+      <c r="S560" s="2">
+        <v>0</v>
+      </c>
+      <c r="T560">
+        <v>60</v>
+      </c>
+      <c r="U560">
+        <v>95</v>
+      </c>
+      <c r="V560">
+        <v>12</v>
+      </c>
+      <c r="W560" s="3"/>
+      <c r="X560" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y560" s="7"/>
+      <c r="Z560" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA560">
+        <v>0</v>
+      </c>
+      <c r="AB560" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AC560">
+        <v>1</v>
+      </c>
+      <c r="AD560">
+        <v>1</v>
+      </c>
+      <c r="AE560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <f t="shared" si="110"/>
+        <v>559</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C561" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D561" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E561" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F561" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G561" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H561" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="I561" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J561" s="2">
+        <v>1</v>
+      </c>
+      <c r="K561" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L561" s="2">
+        <v>1</v>
+      </c>
+      <c r="M561" s="18">
+        <v>1</v>
+      </c>
+      <c r="N561" s="18">
+        <v>1</v>
+      </c>
+      <c r="O561" s="18">
+        <v>1</v>
+      </c>
+      <c r="P561" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q561" s="18">
+        <v>1</v>
+      </c>
+      <c r="R561" s="18">
+        <v>1</v>
+      </c>
+      <c r="S561" s="2">
+        <v>0</v>
+      </c>
+      <c r="T561">
+        <v>60</v>
+      </c>
+      <c r="U561">
+        <v>95</v>
+      </c>
+      <c r="V561">
+        <v>12</v>
+      </c>
+      <c r="W561" s="3"/>
+      <c r="X561" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y561" s="7"/>
+      <c r="Z561" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA561">
+        <v>0</v>
+      </c>
+      <c r="AB561" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AC561">
+        <v>0</v>
+      </c>
+      <c r="AD561">
+        <v>1</v>
+      </c>
+      <c r="AE561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <f t="shared" si="110"/>
+        <v>560</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C562" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D562" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E562" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F562" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G562" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H562" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I562" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J562" s="2">
+        <v>1</v>
+      </c>
+      <c r="K562" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L562" s="2">
+        <v>1</v>
+      </c>
+      <c r="M562" s="18">
+        <v>1</v>
+      </c>
+      <c r="N562" s="18">
+        <v>1</v>
+      </c>
+      <c r="O562" s="18">
+        <v>1</v>
+      </c>
+      <c r="P562" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q562" s="18">
+        <v>1</v>
+      </c>
+      <c r="R562" s="18">
+        <v>1</v>
+      </c>
+      <c r="S562" s="2">
+        <v>0</v>
+      </c>
+      <c r="T562">
+        <v>60</v>
+      </c>
+      <c r="U562">
+        <v>95</v>
+      </c>
+      <c r="V562">
+        <v>12</v>
+      </c>
+      <c r="W562" s="3"/>
+      <c r="X562" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y562" s="7"/>
+      <c r="Z562" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA562">
+        <v>0</v>
+      </c>
+      <c r="AB562" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AC562">
+        <v>1</v>
+      </c>
+      <c r="AD562">
+        <v>1</v>
+      </c>
+      <c r="AE562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <f t="shared" si="110"/>
+        <v>561</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C563" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D563" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E563" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F563" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G563" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H563" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="I563" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J563" s="2">
+        <v>1</v>
+      </c>
+      <c r="K563" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L563" s="2">
+        <v>1</v>
+      </c>
+      <c r="M563" s="18">
+        <v>1</v>
+      </c>
+      <c r="N563" s="18">
+        <v>1</v>
+      </c>
+      <c r="O563" s="18">
+        <v>1</v>
+      </c>
+      <c r="P563" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q563" s="18">
+        <v>1</v>
+      </c>
+      <c r="R563" s="18">
+        <v>1</v>
+      </c>
+      <c r="S563" s="2">
+        <v>0</v>
+      </c>
+      <c r="T563">
+        <v>60</v>
+      </c>
+      <c r="U563">
+        <v>95</v>
+      </c>
+      <c r="V563">
+        <v>12</v>
+      </c>
+      <c r="W563" s="3"/>
+      <c r="X563" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y563" s="7"/>
+      <c r="Z563" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA563">
+        <v>0</v>
+      </c>
+      <c r="AB563" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AC563">
+        <v>0</v>
+      </c>
+      <c r="AD563">
+        <v>1</v>
+      </c>
+      <c r="AE563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <f t="shared" si="110"/>
+        <v>562</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C564" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D564" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E564" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F564" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G564" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H564" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I564" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J564" s="2">
+        <v>1</v>
+      </c>
+      <c r="K564" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L564" s="2">
+        <v>1</v>
+      </c>
+      <c r="M564" s="18">
+        <v>1</v>
+      </c>
+      <c r="N564" s="18">
+        <v>1</v>
+      </c>
+      <c r="O564" s="18">
+        <v>1</v>
+      </c>
+      <c r="P564" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q564" s="18">
+        <v>1</v>
+      </c>
+      <c r="R564" s="18">
+        <v>1</v>
+      </c>
+      <c r="S564" s="2">
+        <v>0</v>
+      </c>
+      <c r="T564">
+        <v>60</v>
+      </c>
+      <c r="U564">
+        <v>95</v>
+      </c>
+      <c r="V564">
+        <v>12</v>
+      </c>
+      <c r="W564" s="3"/>
+      <c r="X564" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y564" s="7"/>
+      <c r="Z564" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA564">
+        <v>0</v>
+      </c>
+      <c r="AB564" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AC564">
+        <v>1</v>
+      </c>
+      <c r="AD564">
+        <v>1</v>
+      </c>
+      <c r="AE564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <f t="shared" si="110"/>
+        <v>563</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C565" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D565" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E565" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F565" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G565" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H565" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="I565" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J565" s="2">
+        <v>1</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L565" s="2">
+        <v>1</v>
+      </c>
+      <c r="M565" s="18">
+        <v>1</v>
+      </c>
+      <c r="N565" s="18">
+        <v>1</v>
+      </c>
+      <c r="O565" s="18">
+        <v>1</v>
+      </c>
+      <c r="P565" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q565" s="18">
+        <v>1</v>
+      </c>
+      <c r="R565" s="18">
+        <v>1</v>
+      </c>
+      <c r="S565" s="2">
+        <v>0</v>
+      </c>
+      <c r="T565">
+        <v>60</v>
+      </c>
+      <c r="U565">
+        <v>95</v>
+      </c>
+      <c r="V565">
+        <v>12</v>
+      </c>
+      <c r="W565" s="3"/>
+      <c r="X565" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y565" s="7"/>
+      <c r="Z565" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA565">
+        <v>0</v>
+      </c>
+      <c r="AB565" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AC565">
+        <v>0</v>
+      </c>
+      <c r="AD565">
+        <v>1</v>
+      </c>
+      <c r="AE565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <f t="shared" si="110"/>
+        <v>564</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C566" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D566" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E566" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="F566" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G566" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H566" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I566" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J566" s="2">
+        <v>1</v>
+      </c>
+      <c r="K566" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L566" s="2">
+        <v>1</v>
+      </c>
+      <c r="M566" s="18">
+        <v>1</v>
+      </c>
+      <c r="N566" s="18">
+        <v>1</v>
+      </c>
+      <c r="O566" s="18">
+        <v>1</v>
+      </c>
+      <c r="P566" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q566" s="18">
+        <v>1</v>
+      </c>
+      <c r="R566" s="18">
+        <v>1</v>
+      </c>
+      <c r="S566" s="2">
+        <v>0</v>
+      </c>
+      <c r="T566">
+        <v>60</v>
+      </c>
+      <c r="U566">
+        <v>95</v>
+      </c>
+      <c r="V566">
+        <v>12</v>
+      </c>
+      <c r="W566" s="3"/>
+      <c r="X566" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y566" s="7"/>
+      <c r="Z566" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA566">
+        <v>0</v>
+      </c>
+      <c r="AB566" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AC566">
+        <v>1</v>
+      </c>
+      <c r="AD566">
+        <v>1</v>
+      </c>
+      <c r="AE566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <f t="shared" si="110"/>
+        <v>565</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C567" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D567" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E567" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F567" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G567" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H567" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J567" s="2">
+        <v>1</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L567" s="2">
+        <v>1</v>
+      </c>
+      <c r="M567" s="18">
+        <v>1</v>
+      </c>
+      <c r="N567" s="18">
+        <v>1</v>
+      </c>
+      <c r="O567" s="18">
+        <v>1</v>
+      </c>
+      <c r="P567" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q567" s="18">
+        <v>1</v>
+      </c>
+      <c r="R567" s="18">
+        <v>1</v>
+      </c>
+      <c r="S567" s="2">
+        <v>0</v>
+      </c>
+      <c r="T567">
+        <v>60</v>
+      </c>
+      <c r="U567">
+        <v>95</v>
+      </c>
+      <c r="V567">
+        <v>12</v>
+      </c>
+      <c r="W567" s="3"/>
+      <c r="X567" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y567" s="7"/>
+      <c r="Z567" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA567">
+        <v>0</v>
+      </c>
+      <c r="AB567" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AC567">
+        <v>0</v>
+      </c>
+      <c r="AD567">
+        <v>1</v>
+      </c>
+      <c r="AE567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <f t="shared" si="110"/>
+        <v>566</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C568" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D568" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E568" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F568" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G568" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H568" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I568" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J568" s="2">
+        <v>1</v>
+      </c>
+      <c r="K568" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L568" s="2">
+        <v>1</v>
+      </c>
+      <c r="M568" s="18">
+        <v>1</v>
+      </c>
+      <c r="N568" s="18">
+        <v>1</v>
+      </c>
+      <c r="O568" s="18">
+        <v>1</v>
+      </c>
+      <c r="P568" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q568" s="18">
+        <v>1</v>
+      </c>
+      <c r="R568" s="18">
+        <v>1</v>
+      </c>
+      <c r="S568" s="2">
+        <v>0</v>
+      </c>
+      <c r="T568">
+        <v>60</v>
+      </c>
+      <c r="U568">
+        <v>95</v>
+      </c>
+      <c r="V568">
+        <v>12</v>
+      </c>
+      <c r="W568" s="3"/>
+      <c r="X568" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y568" s="7"/>
+      <c r="Z568" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA568">
+        <v>0</v>
+      </c>
+      <c r="AB568" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AC568">
+        <v>1</v>
+      </c>
+      <c r="AD568">
+        <v>1</v>
+      </c>
+      <c r="AE568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <f t="shared" si="110"/>
+        <v>567</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C569" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D569" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E569" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F569" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G569" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H569" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I569" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J569" s="2">
+        <v>1</v>
+      </c>
+      <c r="K569" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L569" s="2">
+        <v>1</v>
+      </c>
+      <c r="M569" s="18">
+        <v>1</v>
+      </c>
+      <c r="N569" s="18">
+        <v>1</v>
+      </c>
+      <c r="O569" s="18">
+        <v>1</v>
+      </c>
+      <c r="P569" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q569" s="18">
+        <v>1</v>
+      </c>
+      <c r="R569" s="18">
+        <v>1</v>
+      </c>
+      <c r="S569" s="2">
+        <v>0</v>
+      </c>
+      <c r="T569">
+        <v>60</v>
+      </c>
+      <c r="U569">
+        <v>95</v>
+      </c>
+      <c r="V569">
+        <v>12</v>
+      </c>
+      <c r="W569" s="3"/>
+      <c r="X569" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y569" s="7"/>
+      <c r="Z569" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA569">
+        <v>0</v>
+      </c>
+      <c r="AB569" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AC569">
+        <v>0</v>
+      </c>
+      <c r="AD569">
+        <v>1</v>
+      </c>
+      <c r="AE569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <f t="shared" si="110"/>
+        <v>568</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C570" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D570" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E570" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F570" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G570" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H570" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I570" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J570" s="2">
+        <v>1</v>
+      </c>
+      <c r="K570" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L570" s="2">
+        <v>1</v>
+      </c>
+      <c r="M570" s="18">
+        <v>1</v>
+      </c>
+      <c r="N570" s="18">
+        <v>1</v>
+      </c>
+      <c r="O570" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P570" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q570" s="18">
+        <v>1</v>
+      </c>
+      <c r="R570" s="18">
+        <v>1</v>
+      </c>
+      <c r="S570" s="2">
+        <v>0</v>
+      </c>
+      <c r="T570">
+        <v>60</v>
+      </c>
+      <c r="U570">
+        <v>95</v>
+      </c>
+      <c r="V570">
+        <v>12</v>
+      </c>
+      <c r="W570" s="3"/>
+      <c r="X570" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y570" s="7"/>
+      <c r="Z570" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA570">
+        <v>0</v>
+      </c>
+      <c r="AB570" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AC570">
+        <v>0</v>
+      </c>
+      <c r="AD570">
+        <v>1</v>
+      </c>
+      <c r="AE570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <f t="shared" si="110"/>
+        <v>569</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C571" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D571" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E571" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F571" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G571" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H571" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I571" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J571" s="2">
+        <v>1</v>
+      </c>
+      <c r="K571" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L571" s="2">
+        <v>1</v>
+      </c>
+      <c r="M571" s="18">
+        <v>1</v>
+      </c>
+      <c r="N571" s="18">
+        <v>1</v>
+      </c>
+      <c r="O571" s="18">
+        <v>9999</v>
+      </c>
+      <c r="P571" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q571" s="18">
+        <v>1</v>
+      </c>
+      <c r="R571" s="18">
+        <v>1</v>
+      </c>
+      <c r="S571" s="2">
+        <v>0</v>
+      </c>
+      <c r="T571">
+        <v>60</v>
+      </c>
+      <c r="U571">
+        <v>95</v>
+      </c>
+      <c r="V571">
+        <v>12</v>
+      </c>
+      <c r="W571" s="3"/>
+      <c r="X571" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y571" s="7"/>
+      <c r="Z571" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA571">
+        <v>0</v>
+      </c>
+      <c r="AB571" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AC571">
+        <v>0</v>
+      </c>
+      <c r="AD571">
+        <v>1</v>
+      </c>
+      <c r="AE571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <f t="shared" si="110"/>
+        <v>570</v>
+      </c>
+      <c r="B572" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="AC553">
-        <v>0</v>
-      </c>
-      <c r="AD553">
-        <v>1</v>
-      </c>
-      <c r="AE553">
+      <c r="C572" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D572" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E572" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F572" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G572" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H572" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I572" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J572" s="2">
+        <v>1</v>
+      </c>
+      <c r="K572" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L572" s="2">
+        <v>1</v>
+      </c>
+      <c r="M572" s="18">
+        <v>1</v>
+      </c>
+      <c r="N572" s="18">
+        <v>1</v>
+      </c>
+      <c r="O572" s="18">
+        <v>1</v>
+      </c>
+      <c r="P572" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q572" s="18">
+        <v>1</v>
+      </c>
+      <c r="R572" s="18">
+        <v>1</v>
+      </c>
+      <c r="S572" s="2">
+        <v>0</v>
+      </c>
+      <c r="T572">
+        <v>60</v>
+      </c>
+      <c r="U572">
+        <v>95</v>
+      </c>
+      <c r="V572">
+        <v>12</v>
+      </c>
+      <c r="W572" s="3"/>
+      <c r="X572" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y572" s="7"/>
+      <c r="Z572" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA572">
+        <v>0</v>
+      </c>
+      <c r="AB572" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AC572">
+        <v>1</v>
+      </c>
+      <c r="AD572">
+        <v>1</v>
+      </c>
+      <c r="AE572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <f t="shared" si="110"/>
+        <v>571</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C573" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D573" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E573" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F573" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G573" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H573" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I573" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J573" s="2">
+        <v>1</v>
+      </c>
+      <c r="K573" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L573" s="2">
+        <v>1</v>
+      </c>
+      <c r="M573" s="18">
+        <v>1</v>
+      </c>
+      <c r="N573" s="18">
+        <v>1</v>
+      </c>
+      <c r="O573" s="18">
+        <v>1</v>
+      </c>
+      <c r="P573" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q573" s="18">
+        <v>1</v>
+      </c>
+      <c r="R573" s="18">
+        <v>1</v>
+      </c>
+      <c r="S573" s="2">
+        <v>0</v>
+      </c>
+      <c r="T573">
+        <v>60</v>
+      </c>
+      <c r="U573">
+        <v>95</v>
+      </c>
+      <c r="V573">
+        <v>12</v>
+      </c>
+      <c r="W573" s="3"/>
+      <c r="X573" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y573" s="7"/>
+      <c r="Z573" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA573">
+        <v>0</v>
+      </c>
+      <c r="AB573" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AC573">
+        <v>0</v>
+      </c>
+      <c r="AD573">
+        <v>1</v>
+      </c>
+      <c r="AE573">
         <v>0</v>
       </c>
     </row>
@@ -55468,7 +57404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C910D34-F249-4621-9FD6-68AC406B14AA}">
   <dimension ref="A1:AE147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE57A30-276E-40BE-A8E4-7E43E4864925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B38890-FB86-4CDC-B229-F5EB89404C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="900" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -8704,9 +8704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F325E7E-A09D-428F-A50F-E5A1E15EDC03}">
   <dimension ref="A1:AE761"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U184" sqref="U184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23497,7 +23497,7 @@
         <v>732</v>
       </c>
       <c r="AC170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD170">
         <v>1</v>
@@ -24029,7 +24029,7 @@
         <v>60</v>
       </c>
       <c r="U176">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="V176">
         <v>65</v>
@@ -24121,7 +24121,7 @@
         <v>60</v>
       </c>
       <c r="U177">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="V177">
         <v>65</v>
@@ -24581,7 +24581,7 @@
         <v>60</v>
       </c>
       <c r="U182">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="V182">
         <v>65</v>
@@ -24673,7 +24673,7 @@
         <v>60</v>
       </c>
       <c r="U183">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="V183">
         <v>65</v>
@@ -73448,8 +73448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C910D34-F249-4621-9FD6-68AC406B14AA}">
   <dimension ref="A1:AE189"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -77722,7 +77722,7 @@
         <v>15</v>
       </c>
       <c r="U50">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V50">
         <v>3</v>
@@ -77814,7 +77814,7 @@
         <v>15</v>
       </c>
       <c r="U51">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V51">
         <v>3</v>
@@ -77904,7 +77904,7 @@
         <v>15</v>
       </c>
       <c r="U52">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V52">
         <v>3</v>
@@ -77994,7 +77994,7 @@
         <v>15</v>
       </c>
       <c r="U53">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V53">
         <v>3</v>
@@ -78084,7 +78084,7 @@
         <v>15</v>
       </c>
       <c r="U54">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V54">
         <v>3</v>
@@ -78174,7 +78174,7 @@
         <v>15</v>
       </c>
       <c r="U55">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V55">
         <v>3</v>
@@ -78264,7 +78264,7 @@
         <v>15</v>
       </c>
       <c r="U56">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V56">
         <v>3</v>
@@ -78354,7 +78354,7 @@
         <v>15</v>
       </c>
       <c r="U57">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V57">
         <v>3</v>
@@ -78444,7 +78444,7 @@
         <v>15</v>
       </c>
       <c r="U58">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V58">
         <v>3</v>
@@ -78534,7 +78534,7 @@
         <v>15</v>
       </c>
       <c r="U59">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V59">
         <v>3</v>
@@ -78624,7 +78624,7 @@
         <v>15</v>
       </c>
       <c r="U60">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V60">
         <v>3</v>
@@ -78714,7 +78714,7 @@
         <v>15</v>
       </c>
       <c r="U61">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V61">
         <v>3</v>
@@ -78804,7 +78804,7 @@
         <v>15</v>
       </c>
       <c r="U62">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V62">
         <v>3</v>
@@ -78894,7 +78894,7 @@
         <v>15</v>
       </c>
       <c r="U63">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V63">
         <v>3</v>
@@ -78984,7 +78984,7 @@
         <v>15</v>
       </c>
       <c r="U64">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V64">
         <v>3</v>
@@ -79074,7 +79074,7 @@
         <v>15</v>
       </c>
       <c r="U65">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="V65">
         <v>3</v>
@@ -79164,7 +79164,7 @@
         <v>15</v>
       </c>
       <c r="U66">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="V66">
         <v>3</v>
@@ -79254,7 +79254,7 @@
         <v>15</v>
       </c>
       <c r="U67">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V67">
         <v>3</v>
@@ -79344,7 +79344,7 @@
         <v>15</v>
       </c>
       <c r="U68">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V68">
         <v>3</v>
@@ -79434,7 +79434,7 @@
         <v>15</v>
       </c>
       <c r="U69">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="V69">
         <v>3</v>
@@ -79524,7 +79524,7 @@
         <v>15</v>
       </c>
       <c r="U70">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="V70">
         <v>3</v>
@@ -79614,7 +79614,7 @@
         <v>15</v>
       </c>
       <c r="U71">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V71">
         <v>3</v>
@@ -79704,7 +79704,7 @@
         <v>15</v>
       </c>
       <c r="U72">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V72">
         <v>3</v>
@@ -79794,7 +79794,7 @@
         <v>15</v>
       </c>
       <c r="U73">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="V73">
         <v>3</v>
@@ -79884,7 +79884,7 @@
         <v>15</v>
       </c>
       <c r="U74">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="V74">
         <v>3</v>
@@ -79974,7 +79974,7 @@
         <v>15</v>
       </c>
       <c r="U75">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="V75">
         <v>3</v>
@@ -80064,7 +80064,7 @@
         <v>15</v>
       </c>
       <c r="U76">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="V76">
         <v>3</v>
@@ -80154,7 +80154,7 @@
         <v>15</v>
       </c>
       <c r="U77">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="V77">
         <v>3</v>
@@ -80244,7 +80244,7 @@
         <v>15</v>
       </c>
       <c r="U78">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="V78">
         <v>3</v>
@@ -80334,7 +80334,7 @@
         <v>15</v>
       </c>
       <c r="U79">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="V79">
         <v>3</v>
@@ -80424,7 +80424,7 @@
         <v>15</v>
       </c>
       <c r="U80">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V80">
         <v>3</v>
@@ -80514,7 +80514,7 @@
         <v>15</v>
       </c>
       <c r="U81">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V81">
         <v>3</v>
@@ -80604,7 +80604,7 @@
         <v>15</v>
       </c>
       <c r="U82">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V82">
         <v>3</v>
@@ -80694,7 +80694,7 @@
         <v>15</v>
       </c>
       <c r="U83">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V83">
         <v>3</v>
@@ -80784,7 +80784,7 @@
         <v>15</v>
       </c>
       <c r="U84">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V84">
         <v>3</v>
@@ -80874,7 +80874,7 @@
         <v>15</v>
       </c>
       <c r="U85">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="V85">
         <v>3</v>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC70F2A-6517-4D36-B1EB-DF651FBFA3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FCE228-D593-4FAB-AEF5-BCE4FCA16645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="540" windowWidth="25575" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="990" windowWidth="25575" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -8830,8 +8830,8 @@
   <dimension ref="A1:AE787"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC339" sqref="AC339"/>
+      <pane ySplit="1" topLeftCell="A729" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K761" sqref="K761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45956,7 +45956,7 @@
         <v>180</v>
       </c>
       <c r="U433">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="V433">
         <v>5</v>
@@ -46263,7 +46263,7 @@
         <v>180</v>
       </c>
       <c r="U437">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="V437">
         <v>5</v>
@@ -46470,7 +46470,7 @@
         <v>1</v>
       </c>
       <c r="AD439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE439">
         <v>0</v>
@@ -46562,7 +46562,7 @@
         <v>0</v>
       </c>
       <c r="AD440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE440">
         <v>0</v>
@@ -46654,7 +46654,7 @@
         <v>1</v>
       </c>
       <c r="AD441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE441">
         <v>0</v>
@@ -46746,7 +46746,7 @@
         <v>0</v>
       </c>
       <c r="AD442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE442">
         <v>0</v>
@@ -47124,7 +47124,7 @@
         <v>1</v>
       </c>
       <c r="AD447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE447">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="AD448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE448">
         <v>0</v>
@@ -48010,7 +48010,7 @@
         <v>1</v>
       </c>
       <c r="AD458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE458">
         <v>0</v>
@@ -48102,7 +48102,7 @@
         <v>0</v>
       </c>
       <c r="AD459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE459">
         <v>0</v>
@@ -48194,7 +48194,7 @@
         <v>0</v>
       </c>
       <c r="AD460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE460">
         <v>0</v>
@@ -48286,7 +48286,7 @@
         <v>0</v>
       </c>
       <c r="AD461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE461">
         <v>0</v>
@@ -48378,7 +48378,7 @@
         <v>1</v>
       </c>
       <c r="AD462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE462">
         <v>0</v>
@@ -48470,7 +48470,7 @@
         <v>0</v>
       </c>
       <c r="AD463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE463">
         <v>0</v>
@@ -48562,7 +48562,7 @@
         <v>0</v>
       </c>
       <c r="AD464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE464">
         <v>0</v>
@@ -48654,7 +48654,7 @@
         <v>0</v>
       </c>
       <c r="AD465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE465">
         <v>0</v>
@@ -48930,7 +48930,7 @@
         <v>1</v>
       </c>
       <c r="AD468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE468">
         <v>0</v>
@@ -49022,7 +49022,7 @@
         <v>0</v>
       </c>
       <c r="AD469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE469">
         <v>0</v>
@@ -73618,7 +73618,7 @@
         <v>974</v>
       </c>
       <c r="J762" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K762" s="2" t="s">
         <v>142</v>
@@ -73712,7 +73712,7 @@
         <v>974</v>
       </c>
       <c r="J763" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K763" s="2" t="s">
         <v>142</v>

--- a/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00767285-3A50-4A6B-BFA5-FEBB590F3CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A1857-3C74-48BC-A02B-669EA4BCFD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="930" windowWidth="25575" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1275" windowWidth="25575" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="8" r:id="rId1"/>
@@ -8860,8 +8860,8 @@
   <dimension ref="A1:AE792"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X449" sqref="X449"/>
+      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q449" sqref="Q449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47381,7 +47381,7 @@
         <v>1</v>
       </c>
       <c r="O449" s="18">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="P449" s="18">
         <v>1</v>
@@ -47390,7 +47390,7 @@
         <v>5</v>
       </c>
       <c r="R449" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S449" s="2">
         <v>0</v>
